--- a/data/hotels_by_city/Dallas/Dallas_shard_651.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_651.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1194 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r540409989-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109438</t>
+  </si>
+  <si>
+    <t>540409989</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Very clean with full kitchen and free breakfast!</t>
+  </si>
+  <si>
+    <t>The location was excellent for us as we were visiting a friend at a nearby hospital.  Check-in was quick, it was very clean and well maintained and the staff was helpful.  There is easy on-off of Central Expressway.  A full kitchen is available stocked with dishes, pots, pans, etc.  A nice touch was the microwave popcorn.  Breakfast was good and as expected.  Staff was available for help there too.  Overall a good choice for an overnight stay.  The price was reasonable.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r525240974-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>525240974</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traumatized </t>
+  </si>
+  <si>
+    <t>This Residence Inn is one of the cleanest hotels I've ever stayed in. Nice complimentary full breakfast, great location, walking distance to restaurants, stores, etc. Great room, with a nice layout. Unfortunately, I hadn't realized that I was staying in a hostel and would be sharing my room with (3) others. During day three of a four day trip, I opened the closet to grab the iron and was introduced to my new bestie CR#1 (cockroach #1). I called the front desk and soon a housekeeper showed up and removed my unwanted guest.After getting over the shock, I went back to getting ready. As I stood at the mirror applying my make-up, I noticed something nearly fall on me in the reflection. I screamed and ran from the bathroom and was followed out by new friend #CR2....I guess he didn't get the memo that his friend had already left. I watched him crawl from the bathroom into the kitchen and behind the dishwasher. Once again, I returned to the bathroom, only to be greeted by friend CR#3. Yes, that totals 3 very large Cockroaches!!!!! I called the front desk and requested a new room. Hopefully no more unwelcome guests!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Dallas10325, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded September 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2017</t>
+  </si>
+  <si>
+    <t>This Residence Inn is one of the cleanest hotels I've ever stayed in. Nice complimentary full breakfast, great location, walking distance to restaurants, stores, etc. Great room, with a nice layout. Unfortunately, I hadn't realized that I was staying in a hostel and would be sharing my room with (3) others. During day three of a four day trip, I opened the closet to grab the iron and was introduced to my new bestie CR#1 (cockroach #1). I called the front desk and soon a housekeeper showed up and removed my unwanted guest.After getting over the shock, I went back to getting ready. As I stood at the mirror applying my make-up, I noticed something nearly fall on me in the reflection. I screamed and ran from the bathroom and was followed out by new friend #CR2....I guess he didn't get the memo that his friend had already left. I watched him crawl from the bathroom into the kitchen and behind the dishwasher. Once again, I returned to the bathroom, only to be greeted by friend CR#3. Yes, that totals 3 very large Cockroaches!!!!! I called the front desk and requested a new room. Hopefully no more unwelcome guests!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r507335080-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>507335080</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient for shopping</t>
+  </si>
+  <si>
+    <t>My stay was part of a family gathering in Dallas. As a former residentOf the city, I appreciated the convenience to great attractions.North Park Center, Preston Royal shops are readily accessible.Southern Methodist University with a Presidential library  and Meadows Art Museum is just minutes away.My suite was comfortable and well appointed .</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r472331144-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>472331144</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Sweet, Clean and Friendly</t>
+  </si>
+  <si>
+    <t>I was reluctant since this was so close to the highway but the extended stay suites are very nice. Tastefully decorated, the bed is very comfortable. The kitchen has everything you need. It even has a fireplace - although not something of great importance in Dallas. The pool is small but nice. I arrived in time for the managers happy hour - wine, beer and a nosh... Breakfast is typical but fine. The shopping center across the street is very convenient for anything you need - pharmacy, grocery, restaurants and the Sole Massage - awesome!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r468366158-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>468366158</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn at Central Expressway, Dallas</t>
+  </si>
+  <si>
+    <t>This hotel has not been updated apparently for quite awhile - externally or internally. It has a very compact footprint; and, therefore, has narrow sidewalks to rooms -- with outside doors. The rooms themselves are also showing their age. Ours was clean. However, it had but one mirror and no cabinet in the bathroom, the lighting was minimal and some bulbs were burned out. The sidewalk to our room was severely cracked and could be a hazard. The bed was nice and was comfortable, as were the sofa and chairs - but they too seemed dated. The parking was plentiful, but some trees shed a tremendous amount of residue  on our car. The breakfast was adequate but not the equal of other residence inns we have stayed. The lobby is also very small and compact. The location is very good and access is convenient. In summary, convenient location, dated and not competitive with other offerings in the same price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>anabel p, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has not been updated apparently for quite awhile - externally or internally. It has a very compact footprint; and, therefore, has narrow sidewalks to rooms -- with outside doors. The rooms themselves are also showing their age. Ours was clean. However, it had but one mirror and no cabinet in the bathroom, the lighting was minimal and some bulbs were burned out. The sidewalk to our room was severely cracked and could be a hazard. The bed was nice and was comfortable, as were the sofa and chairs - but they too seemed dated. The parking was plentiful, but some trees shed a tremendous amount of residue  on our car. The breakfast was adequate but not the equal of other residence inns we have stayed. The lobby is also very small and compact. The location is very good and access is convenient. In summary, convenient location, dated and not competitive with other offerings in the same price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r465641104-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>465641104</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>An "ok" hotel</t>
+  </si>
+  <si>
+    <t>This hotel is "dated"   right off the expressway makes it convenient to get to.   Watch where you park.... if you park under trees, your car is sure to be pooped on..... a lot.   Felt like secure area.   Room is neat and clean.    We were checking out (still occupying the room) when the wait staff came in (at 9am...on Sunday) and starting cleaning !!!  We tried to tell this person to give us some time,  but he didnt speak English and kept right on going.  RUDE!!!  for this, we cant recommend or will return.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>anabel p, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is "dated"   right off the expressway makes it convenient to get to.   Watch where you park.... if you park under trees, your car is sure to be pooped on..... a lot.   Felt like secure area.   Room is neat and clean.    We were checking out (still occupying the room) when the wait staff came in (at 9am...on Sunday) and starting cleaning !!!  We tried to tell this person to give us some time,  but he didnt speak English and kept right on going.  RUDE!!!  for this, we cant recommend or will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r429866753-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>429866753</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Management was exceptional!!</t>
+  </si>
+  <si>
+    <t>We had initially planned to stay 4 nights, but a family emergency required that we stay 3 nights longer, during the State Fair and over the TX/OU Football Weekend.  When we requested an extension of our stay, the management team of the 2 Ks and Joe, between Residence Inn and the affiliate Courtyard next door, made the request seamless and pain free (even though we were using Marriott Points).  Can't say enough regarding how appreciative we are toward these guys.  Breakfast was very good and evening offerings consisted of wine and beer  The property was clean and the parking lots were safe.  Several very good restaurants were within easy walking distance to the strip center across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded November 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2016</t>
+  </si>
+  <si>
+    <t>We had initially planned to stay 4 nights, but a family emergency required that we stay 3 nights longer, during the State Fair and over the TX/OU Football Weekend.  When we requested an extension of our stay, the management team of the 2 Ks and Joe, between Residence Inn and the affiliate Courtyard next door, made the request seamless and pain free (even though we were using Marriott Points).  Can't say enough regarding how appreciative we are toward these guys.  Breakfast was very good and evening offerings consisted of wine and beer  The property was clean and the parking lots were safe.  Several very good restaurants were within easy walking distance to the strip center across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r417290650-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>417290650</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean, Affordable Suite Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located in Dallas next to a major freeway and you can get anywhere from here. Room was comfortable, and clean. We liked the suite and a nice layout. The street behind the hotel was a bit noisy but overall, it was a pleasant stay. Breakfast was served everyday and it was  good, fresh, and some variety was offered.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located in Dallas next to a major freeway and you can get anywhere from here. Room was comfortable, and clean. We liked the suite and a nice layout. The street behind the hotel was a bit noisy but overall, it was a pleasant stay. Breakfast was served everyday and it was  good, fresh, and some variety was offered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r414761410-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>414761410</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Nice surprise and I like surprises!</t>
+  </si>
+  <si>
+    <t>I was visiting with friends so I at least wanted 2 double beds or a dbl and a sofa bed. To my surprise when I entered the room it was a 2 bedroom 2 bath suite, full kitchen, and it gets even better...a walkout patio! The room was extremely clean (thank you housekeeping), spacious, updated and well stocked with necessities and nice landscaping. Desk staff was friendly only one had a name tag I think it was Kylar (sp). MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I was visiting with friends so I at least wanted 2 double beds or a dbl and a sofa bed. To my surprise when I entered the room it was a 2 bedroom 2 bath suite, full kitchen, and it gets even better...a walkout patio! The room was extremely clean (thank you housekeeping), spacious, updated and well stocked with necessities and nice landscaping. Desk staff was friendly only one had a name tag I think it was Kylar (sp). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r387431451-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>387431451</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Big D Stay</t>
+  </si>
+  <si>
+    <t>The stay was decent.  Started off in a one bedroom. The staff was very accomodsting and moved us into a two bedroom suite. Pretty spacious and they include a full kitchen.  Hot breakfast was good, provided a variety every am. The hotel also hosts a social event on Mondays thru Wednesdays which are pretty good. Now for the bad:  The pool is nice but you cant enjoy sitting around it due to all the mosquitos biting.  We noticed our shower curtain had small mold issues. The AC Works great in the main living room however its slightly warmer in the 2 bedrooms. Although the hotel is listed as new as the Residence Inn, you can still notice leftovers from what the hotel used to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>The stay was decent.  Started off in a one bedroom. The staff was very accomodsting and moved us into a two bedroom suite. Pretty spacious and they include a full kitchen.  Hot breakfast was good, provided a variety every am. The hotel also hosts a social event on Mondays thru Wednesdays which are pretty good. Now for the bad:  The pool is nice but you cant enjoy sitting around it due to all the mosquitos biting.  We noticed our shower curtain had small mold issues. The AC Works great in the main living room however its slightly warmer in the 2 bedrooms. Although the hotel is listed as new as the Residence Inn, you can still notice leftovers from what the hotel used to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r371749663-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>371749663</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Delightful</t>
+  </si>
+  <si>
+    <t>This is a great hotel with a great location.  We were flying out of Love Field early and wanted to stay close to the airport, but also convenient to the highway.  This hotel was delightful.  The room was clean and comfortable.  The bed was the perfect firmness and the pillows were great too-not to big or flat.  We were only here from around 5PM to 5AM, but it was a Wednesday and they have a great manager's reception.  They served what they called nachos, but I would have called it a taco salad and was so good and plentiful that it served as dinner for us.  There were chips, salsa, lettuce, grated cheese, black olives, onions, spiced ground beef, sour cream and fresh made guacamole. There was also free wine and beer, but we had water to drink. The food was delicious.  We watched TV on our flat screen in our bed and had a great night sleep.  I will definitely stay here again.  It was very quiet despite it was right next to the expressway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>This is a great hotel with a great location.  We were flying out of Love Field early and wanted to stay close to the airport, but also convenient to the highway.  This hotel was delightful.  The room was clean and comfortable.  The bed was the perfect firmness and the pillows were great too-not to big or flat.  We were only here from around 5PM to 5AM, but it was a Wednesday and they have a great manager's reception.  They served what they called nachos, but I would have called it a taco salad and was so good and plentiful that it served as dinner for us.  There were chips, salsa, lettuce, grated cheese, black olives, onions, spiced ground beef, sour cream and fresh made guacamole. There was also free wine and beer, but we had water to drink. The food was delicious.  We watched TV on our flat screen in our bed and had a great night sleep.  I will definitely stay here again.  It was very quiet despite it was right next to the expressway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r371411089-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>371411089</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Ok for a short stay</t>
+  </si>
+  <si>
+    <t>Location: This hotel was in a good location for accessing the highway and driving where we needed to go. It's not a great part of town, so I wouldn't walk around at night. There aren't any decent restaurants within the surrounding blocks.Rooms: I've stayed in quite a few Residence Inns, and the amenities are comparable to other properties. The rooms are dark, with very little natural light. Living area and second bedroom a bit cramped. Everything was functional, if a little dated.Other: The staff was friendly and available. The breakfast was sufficient and what I expect at this brand. There is also the small market in the lobby for snacks and necessities. We did not use the pool. The parking was tight, and we needed to park at the other end of the lot at night, which was fine except when it was pouring rain the next morning.I probably wouldn't stay here again because we were staying with friends who chose this location. However, for the very cheap price, it was a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Location: This hotel was in a good location for accessing the highway and driving where we needed to go. It's not a great part of town, so I wouldn't walk around at night. There aren't any decent restaurants within the surrounding blocks.Rooms: I've stayed in quite a few Residence Inns, and the amenities are comparable to other properties. The rooms are dark, with very little natural light. Living area and second bedroom a bit cramped. Everything was functional, if a little dated.Other: The staff was friendly and available. The breakfast was sufficient and what I expect at this brand. There is also the small market in the lobby for snacks and necessities. We did not use the pool. The parking was tight, and we needed to park at the other end of the lot at night, which was fine except when it was pouring rain the next morning.I probably wouldn't stay here again because we were staying with friends who chose this location. However, for the very cheap price, it was a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r359840430-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>359840430</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Great service, good location</t>
+  </si>
+  <si>
+    <t>Stayed here last weekend and enjoyed it. Location is great - next to Freeway 45N. Walking distance to CVS, Tom Thumbs Groceries.... Room is clean, neat and cozy. Kitchen was equipped with all silver wares, plates, cups... coffee maker and full size fridge. Checked-in and checked-out was fast and convenience. Free continental breakfast was a great deal - love the waffles here.....Takes about 10 minutes  drive to Highland Park Village where you can shop at famous stores like Tory Burch, Dior, MK, Hermes....Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here last weekend and enjoyed it. Location is great - next to Freeway 45N. Walking distance to CVS, Tom Thumbs Groceries.... Room is clean, neat and cozy. Kitchen was equipped with all silver wares, plates, cups... coffee maker and full size fridge. Checked-in and checked-out was fast and convenience. Free continental breakfast was a great deal - love the waffles here.....Takes about 10 minutes  drive to Highland Park Village where you can shop at famous stores like Tory Burch, Dior, MK, Hermes....Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r357708785-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>357708785</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Average suite hotel in north west Dallas</t>
+  </si>
+  <si>
+    <t>The location is fairly convenient and right next to an expressway.  Considering the location, the rooms are fairly quiet except for slamming doors.  Front desk staff friendly and courteous.The bedroom is separate from the living room/kitchen and can be closed off.  Bedroom TV is basically a computer monitor - very small.  The kitchen has granite countertops - a nice touch but it is very small.  The living room is comfortable but not overly large.  I actually felt a little cramped. You can not set the heat any higher than 68 degrees.  A little too cool on chilly mornings.Entrance door to my room had a gap between door and jamb. Mid-size refrigerator, small stove.  Multi-cup coffee maker (definitely a plus).Outdoor pool is located next to a busy street.Breakfast is fairly good with some variety and opens early. The facilities are adjacent to a Courtyard and the parking is very sparse.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>The location is fairly convenient and right next to an expressway.  Considering the location, the rooms are fairly quiet except for slamming doors.  Front desk staff friendly and courteous.The bedroom is separate from the living room/kitchen and can be closed off.  Bedroom TV is basically a computer monitor - very small.  The kitchen has granite countertops - a nice touch but it is very small.  The living room is comfortable but not overly large.  I actually felt a little cramped. You can not set the heat any higher than 68 degrees.  A little too cool on chilly mornings.Entrance door to my room had a gap between door and jamb. Mid-size refrigerator, small stove.  Multi-cup coffee maker (definitely a plus).Outdoor pool is located next to a busy street.Breakfast is fairly good with some variety and opens early. The facilities are adjacent to a Courtyard and the parking is very sparse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r357182680-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>357182680</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Lifesaver</t>
+  </si>
+  <si>
+    <t>It was late and this location helped us out with a two bedroom suite at a late hour. The late night attendant was very nice and helpful. The suite was very nice however I have to say the shower stall in the adjacent bathroom was small. I am a short, round person and had to open the shower door to get enough room to lift my hands to shampoo my hair. (Haha) The other bathroom though was nice and roomy. The breakfast was very good. All the fam was satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>It was late and this location helped us out with a two bedroom suite at a late hour. The late night attendant was very nice and helpful. The suite was very nice however I have to say the shower stall in the adjacent bathroom was small. I am a short, round person and had to open the shower door to get enough room to lift my hands to shampoo my hair. (Haha) The other bathroom though was nice and roomy. The breakfast was very good. All the fam was satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r341095908-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>341095908</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff, convenient location.</t>
+  </si>
+  <si>
+    <t>Nice clean, comfortable hotel located conveniently off the expressway. The staff is very friendly and helpful. I stay here often when in the area for business and never had a bad experience. You know what to expect, no surprises!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Nice clean, comfortable hotel located conveniently off the expressway. The staff is very friendly and helpful. I stay here often when in the area for business and never had a bad experience. You know what to expect, no surprises!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r339023768-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>339023768</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This was a great hotel for our family gathering. The rooms are spacious and comfortable. With a recent update, the room decor was fresh and new. It was convenient to the highway, and the staff were very nice. We will stay here again when we are in the area, as we thought it offered good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>This was a great hotel for our family gathering. The rooms are spacious and comfortable. With a recent update, the room decor was fresh and new. It was convenient to the highway, and the staff were very nice. We will stay here again when we are in the area, as we thought it offered good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r318686371-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>318686371</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Nice place all the way around.</t>
+  </si>
+  <si>
+    <t>This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our...This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our building to park so we were pleasantly surprised by that.  I did question the need to lock the gate in the back of the    parking lot all of the time.  I wanted to enter that way once and that was not an option.  Enjoyed the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our...This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our building to park so we were pleasantly surprised by that.  I did question the need to lock the gate in the back of the    parking lot all of the time.  I wanted to enter that way once and that was not an option.  Enjoyed the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r299368953-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>299368953</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for extended stay</t>
+  </si>
+  <si>
+    <t>I moved from New Jersey to Texas and needed to stay in an hotel for two weeks prior to moving into my apartment. The Residence Inn was perfect. The accommodations were great -- the room had a separate bedroom from the living area and a kitchen, which was fully stocked so it was easy to cook. The hotel allows pets and each room includes a magnet that says "4 legged guest", which can be placed on the exterior door to alert the staff that a pet is inside. The hotel offered a complimentary breakfast every day (extended hours on the weekend) and Monday-Thursday had evening events, such as a BBQ or a food truck. The pool was also very nice. The hotel always seemed to be packed but the pool was quiet. There is a gas barbeque by the pool and while we didn't use it, I did see other guests grilling. The Courtyard by Marriott is across the parking lot and had a Starbucks, so we would usually go there after breakfast to get coffee since the coffee at breakfast wasn't that good. The Residence Inn was great for my needs and if you are looking for an apartment-like hotel, this is a perfect spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>I moved from New Jersey to Texas and needed to stay in an hotel for two weeks prior to moving into my apartment. The Residence Inn was perfect. The accommodations were great -- the room had a separate bedroom from the living area and a kitchen, which was fully stocked so it was easy to cook. The hotel allows pets and each room includes a magnet that says "4 legged guest", which can be placed on the exterior door to alert the staff that a pet is inside. The hotel offered a complimentary breakfast every day (extended hours on the weekend) and Monday-Thursday had evening events, such as a BBQ or a food truck. The pool was also very nice. The hotel always seemed to be packed but the pool was quiet. There is a gas barbeque by the pool and while we didn't use it, I did see other guests grilling. The Courtyard by Marriott is across the parking lot and had a Starbucks, so we would usually go there after breakfast to get coffee since the coffee at breakfast wasn't that good. The Residence Inn was great for my needs and if you are looking for an apartment-like hotel, this is a perfect spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r289870439-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>289870439</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>The ultimate stay in this area, affordable and with full kitchen</t>
+  </si>
+  <si>
+    <t>For staying for almost a week in Dallas we had to find a nice place with a full kitchen while still affordable. We like to cook our own meals when staying abroad for a while. After travelling through Texas (and eating lot of fast food) for a week we settled here and we did not regret it: the unique layout of the rooms, clustered in various buildings ensured that you never had any busy elevator or so. The ladies at the lobby where very friendly and we did have some laughter together. Nice pool/swimming area. We also enjoyed our free complimentary breakfast and the free high-speed wifi. Plus, it was in the middle of everything, conveniently located along the highway. We would love to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>For staying for almost a week in Dallas we had to find a nice place with a full kitchen while still affordable. We like to cook our own meals when staying abroad for a while. After travelling through Texas (and eating lot of fast food) for a week we settled here and we did not regret it: the unique layout of the rooms, clustered in various buildings ensured that you never had any busy elevator or so. The ladies at the lobby where very friendly and we did have some laughter together. Nice pool/swimming area. We also enjoyed our free complimentary breakfast and the free high-speed wifi. Plus, it was in the middle of everything, conveniently located along the highway. We would love to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r281024713-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>281024713</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Good for business trip, recently updated.</t>
+  </si>
+  <si>
+    <t>I was here for a conference at SMU, which is about a 10 minute drive away. The hotel has been recently updated. The rooms are nice, bright, and spacious. The beds are comfortable. There is a good amount of road noise and the walls are thin, so a loud neighbor would be a serious issue. I spent time hanging out near the nice pool area. The breakfast was pretty good for a hotel breakfast. The staff is friendly. The computer did not work for one of the days I stayed here, and the computers across the street at the Courtyard were so slow I would almost call them nonfunctional. Overall, I would recommend this hotel for business travel, with slight hesitation for a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>I was here for a conference at SMU, which is about a 10 minute drive away. The hotel has been recently updated. The rooms are nice, bright, and spacious. The beds are comfortable. There is a good amount of road noise and the walls are thin, so a loud neighbor would be a serious issue. I spent time hanging out near the nice pool area. The breakfast was pretty good for a hotel breakfast. The staff is friendly. The computer did not work for one of the days I stayed here, and the computers across the street at the Courtyard were so slow I would almost call them nonfunctional. Overall, I would recommend this hotel for business travel, with slight hesitation for a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r263662914-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>263662914</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>would not stay again</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 6 nights.   As someone who normally stays at Marriott properties, I found this property to be needing some help.  Personally, I found the layout to be a bit confusing.   I'm also not a fan of exterior hallways.  Pros: the staff.   Friendly and very accommodating.   The property is older and the staff was friendly when I had issues with my room. Cons : cleanliness.   bathroom clearly wasn't cleaned when I checked in.   Mattress also had blood on it.   I discovered that after being there a few days which was a little unsettling.  I was told the property was being renovated.  I really hope that's the case.  I would have rated this property lower had the staff not done what they did to accommodate after I had problems with the room.  They were friendly and probably one of the nicest staffs I've encountered in a while.  Despite the ranking,  I would give this hotel another try based on the staff.   I really hope they do update this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Lynn M, Front Office Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 6 nights.   As someone who normally stays at Marriott properties, I found this property to be needing some help.  Personally, I found the layout to be a bit confusing.   I'm also not a fan of exterior hallways.  Pros: the staff.   Friendly and very accommodating.   The property is older and the staff was friendly when I had issues with my room. Cons : cleanliness.   bathroom clearly wasn't cleaned when I checked in.   Mattress also had blood on it.   I discovered that after being there a few days which was a little unsettling.  I was told the property was being renovated.  I really hope that's the case.  I would have rated this property lower had the staff not done what they did to accommodate after I had problems with the room.  They were friendly and probably one of the nicest staffs I've encountered in a while.  Despite the ranking,  I would give this hotel another try based on the staff.   I really hope they do update this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r255193312-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>255193312</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent location </t>
+  </si>
+  <si>
+    <t>Stayed completely on points and my stay was very comfortable.  The staff was very friendly and courteous.  This location is conveniently located near the highway and popular attractions and gas stations. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded February 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed completely on points and my stay was very comfortable.  The staff was very friendly and courteous.  This location is conveniently located near the highway and popular attractions and gas stations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r248443909-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>248443909</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Ebola Free with caring staff!</t>
+  </si>
+  <si>
+    <t>On the cross over from September to October of 2014, I slipped into Dallas to cover the Ebola outbreak at Texas Health Presbyterian Hospital ! Someplace close I need to stay since the hours of media coverage would be around the clock. Thank Heaven and 7/11 for the Residence Inn at Central Express way! The good; was the staff that greeted me late at night around 11:30pm after a long drive from Houston, no one gave me any grief about being of service....Helpful in every way, from letting me park up front in the security golf cart space so I could unload my gear and luggage.Rooms...spacious, kitchen clean, sheets soft and clean, bathroom clean always a plus! Even the day side crew from the house keepers to the grounds keepers all greeted me....Down side wasn't the Ebola cases I was covering but that the parking spaces were to close together for anything bigger than a Chevy Spark or even a Mini Cooper on the lot facing the access road.Hallway carpet needed replacing from the go old days of the late 90's and the wall paper from  a house in the movie Casino...but who's watching, I'm here to work, chill, sleep and get answers from the Front desk...all of which I got at any hour of the day...Clean grounds, secure feeling....yes I'd stay again even if the place is a bit dated. Worth the room rate...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded January 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2015</t>
+  </si>
+  <si>
+    <t>On the cross over from September to October of 2014, I slipped into Dallas to cover the Ebola outbreak at Texas Health Presbyterian Hospital ! Someplace close I need to stay since the hours of media coverage would be around the clock. Thank Heaven and 7/11 for the Residence Inn at Central Express way! The good; was the staff that greeted me late at night around 11:30pm after a long drive from Houston, no one gave me any grief about being of service....Helpful in every way, from letting me park up front in the security golf cart space so I could unload my gear and luggage.Rooms...spacious, kitchen clean, sheets soft and clean, bathroom clean always a plus! Even the day side crew from the house keepers to the grounds keepers all greeted me....Down side wasn't the Ebola cases I was covering but that the parking spaces were to close together for anything bigger than a Chevy Spark or even a Mini Cooper on the lot facing the access road.Hallway carpet needed replacing from the go old days of the late 90's and the wall paper from  a house in the movie Casino...but who's watching, I'm here to work, chill, sleep and get answers from the Front desk...all of which I got at any hour of the day...Clean grounds, secure feeling....yes I'd stay again even if the place is a bit dated. Worth the room rate...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r230214947-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>230214947</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The rooms were very spacious, although the bathrooms were small. I had booked a single suite, but they upgraded me. The front desk lady was nice, but she wasn't very professional and didn't seem in a hurry to help me (I arrived late at night). It was kind of difficult to get to my room and parking was far away. The biggest complaint was the internet. I needed to do some work, but it wouldn't let me sign into the Internet. I called the front desk, and they gave me another number to call. The guy I spoke to said another name was on the room, but he eventually fixed it. All in all, it was just an ok stay, and I probably won't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded September 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2014</t>
+  </si>
+  <si>
+    <t>The rooms were very spacious, although the bathrooms were small. I had booked a single suite, but they upgraded me. The front desk lady was nice, but she wasn't very professional and didn't seem in a hurry to help me (I arrived late at night). It was kind of difficult to get to my room and parking was far away. The biggest complaint was the internet. I needed to do some work, but it wouldn't let me sign into the Internet. I called the front desk, and they gave me another number to call. The guy I spoke to said another name was on the room, but he eventually fixed it. All in all, it was just an ok stay, and I probably won't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r227354439-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>227354439</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Pet Friendly - Because They Charge  an Additional $100 for your Pet</t>
+  </si>
+  <si>
+    <t>Looked up Pet Friendly hotels. Found myself on Marriott.com website.Was please to see that Residence Inn was pet friendly because I generally like Marriott hotels. Booked my room and arrived at 10pm.  Surprised. The Residence Inn wanted me to pay $100 Pet Fee and sign a indemnity contract. Had no choice to pay (although the contract says that if the dog makes bad, you'll have to pay more). My well-behaved 12 pound Malti-Poo didn't realize we were staying in a $200+ a night hotel. Given that the room smelled of chemicals, the shower curtain was falling down, and the bedroom TV was the smallest she's ever seen, my dog didn't figure out that this was a $200+ a night hotel while she stayed there either.
+I will say that while management refused to budge (the night clerk was kind enough to call), the night and day staff were courteous and friendly.  Breakfast was not exciting so we left and ate out.
+While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book...Looked up Pet Friendly hotels. Found myself on Marriott.com website.Was please to see that Residence Inn was pet friendly because I generally like Marriott hotels. Booked my room and arrived at 10pm.  Surprised. The Residence Inn wanted me to pay $100 Pet Fee and sign a indemnity contract. Had no choice to pay (although the contract says that if the dog makes bad, you'll have to pay more). My well-behaved 12 pound Malti-Poo didn't realize we were staying in a $200+ a night hotel. Given that the room smelled of chemicals, the shower curtain was falling down, and the bedroom TV was the smallest she's ever seen, my dog didn't figure out that this was a $200+ a night hotel while she stayed there either.I will say that while management refused to budge (the night clerk was kind enough to call), the night and day staff were courteous and friendly.  Breakfast was not exciting so we left and ate out.While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book your room) before you look under room details: there on the right column, you'll see the charge. So while your rate will never mention it, BEWARE. And consider other alternatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Looked up Pet Friendly hotels. Found myself on Marriott.com website.Was please to see that Residence Inn was pet friendly because I generally like Marriott hotels. Booked my room and arrived at 10pm.  Surprised. The Residence Inn wanted me to pay $100 Pet Fee and sign a indemnity contract. Had no choice to pay (although the contract says that if the dog makes bad, you'll have to pay more). My well-behaved 12 pound Malti-Poo didn't realize we were staying in a $200+ a night hotel. Given that the room smelled of chemicals, the shower curtain was falling down, and the bedroom TV was the smallest she's ever seen, my dog didn't figure out that this was a $200+ a night hotel while she stayed there either.
+I will say that while management refused to budge (the night clerk was kind enough to call), the night and day staff were courteous and friendly.  Breakfast was not exciting so we left and ate out.
+While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book...Looked up Pet Friendly hotels. Found myself on Marriott.com website.Was please to see that Residence Inn was pet friendly because I generally like Marriott hotels. Booked my room and arrived at 10pm.  Surprised. The Residence Inn wanted me to pay $100 Pet Fee and sign a indemnity contract. Had no choice to pay (although the contract says that if the dog makes bad, you'll have to pay more). My well-behaved 12 pound Malti-Poo didn't realize we were staying in a $200+ a night hotel. Given that the room smelled of chemicals, the shower curtain was falling down, and the bedroom TV was the smallest she's ever seen, my dog didn't figure out that this was a $200+ a night hotel while she stayed there either.I will say that while management refused to budge (the night clerk was kind enough to call), the night and day staff were courteous and friendly.  Breakfast was not exciting so we left and ate out.While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book your room) before you look under room details: there on the right column, you'll see the charge. So while your rate will never mention it, BEWARE. And consider other alternatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r212401816-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>212401816</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Best Stay in Dallas</t>
+  </si>
+  <si>
+    <t>My husband and I took a four day getaway weekend in Dallas, and spent two of our nights in this Residence Inn. We couldn't say enough good things about the property and our stay. The staff - front desk, housekeeping, food service - are all fantastic. The hotel  - main lobby, eating area, pool area, hallways and common areas, and our room - all super clean, beautifully appointed and maintained, just lovely. Breakfast was different both mornings, fresh, hot, and well stocked. We enjoyed our one bedroom suite so much that, on our second day there, we opted to forego our planned drive over to Fort Worth to see the Stockyard District, and spent a glorious afternoon in our beautiful, quiet, cool room reading, dozing, and watching TV. This hotel is surrounded by dozens of wonderful restaurants (don't miss The Magic Time Machine right across Belt Line Rd). It is also within minutes of the GW Bush Library/Museum, The Museum of Biblical Art, the Downtown Dallas Segway Tour, and Reunion Tower. Highest recommendation, and hope we get to come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded July 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I took a four day getaway weekend in Dallas, and spent two of our nights in this Residence Inn. We couldn't say enough good things about the property and our stay. The staff - front desk, housekeeping, food service - are all fantastic. The hotel  - main lobby, eating area, pool area, hallways and common areas, and our room - all super clean, beautifully appointed and maintained, just lovely. Breakfast was different both mornings, fresh, hot, and well stocked. We enjoyed our one bedroom suite so much that, on our second day there, we opted to forego our planned drive over to Fort Worth to see the Stockyard District, and spent a glorious afternoon in our beautiful, quiet, cool room reading, dozing, and watching TV. This hotel is surrounded by dozens of wonderful restaurants (don't miss The Magic Time Machine right across Belt Line Rd). It is also within minutes of the GW Bush Library/Museum, The Museum of Biblical Art, the Downtown Dallas Segway Tour, and Reunion Tower. Highest recommendation, and hope we get to come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r202136126-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>202136126</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Poor location, Overpriced</t>
+  </si>
+  <si>
+    <t>We have had some good experiences in Residence Inns in the past-however, this hotel is in a rather run down location, facing an elevated freeway, and way over priced for the room (much smaller than the usual Residence Inn rooms), condition of the hotel (pretty run down, needs a paint job), and service (no decent restaurants within walking distance--had to order pizza to the room).  The two women that staff the front desk are very nice though!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2014</t>
+  </si>
+  <si>
+    <t>We have had some good experiences in Residence Inns in the past-however, this hotel is in a rather run down location, facing an elevated freeway, and way over priced for the room (much smaller than the usual Residence Inn rooms), condition of the hotel (pretty run down, needs a paint job), and service (no decent restaurants within walking distance--had to order pizza to the room).  The two women that staff the front desk are very nice though!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r197910258-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>197910258</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Great Friendly Staff and Convenient Location</t>
+  </si>
+  <si>
+    <t>We stayed here because there was a group on and I am a Mariott Rewards Elite member, AND I have stayed at MANY residence inn's across the US.
+This was a great location, right off the expressway and MINUTES away from most things in Dallas. We arrived and there was a little confusion on our room, but it was fixed, we were put into a one bedroom suite as we had reserved that had a door (we brought kids with us) and that fixed the problem, the night staff was very accommodating to our request.
+Breakfast was good, had a nice selection (basic eggs, sausage, OJ, Milk, Cereal, Waffles etc) ONE tip I could give the hotel is GET ANOTHER WAFFLE MAKER! Everyone LOVED the texas shaped waffles but had to wait forever to make one since there was just one of them! They also serve a dinner type meal M-Tu-Wed, which while we didn't get to try is a nice perk for business travelers watching their expense accounts.
+I read some other reviews and can say that while this isn't a 2014 newly built property it really is in great shape, wear and tear here and there but nothing that was really out of the ordinary from other hotels, there were no stains on the floors, no holes in walls, doors worked great, the noise outside the halls and outside were nothing bad and no weird smells!
+The pool...We stayed here because there was a group on and I am a Mariott Rewards Elite member, AND I have stayed at MANY residence inn's across the US.This was a great location, right off the expressway and MINUTES away from most things in Dallas. We arrived and there was a little confusion on our room, but it was fixed, we were put into a one bedroom suite as we had reserved that had a door (we brought kids with us) and that fixed the problem, the night staff was very accommodating to our request.Breakfast was good, had a nice selection (basic eggs, sausage, OJ, Milk, Cereal, Waffles etc) ONE tip I could give the hotel is GET ANOTHER WAFFLE MAKER! Everyone LOVED the texas shaped waffles but had to wait forever to make one since there was just one of them! They also serve a dinner type meal M-Tu-Wed, which while we didn't get to try is a nice perk for business travelers watching their expense accounts.I read some other reviews and can say that while this isn't a 2014 newly built property it really is in great shape, wear and tear here and there but nothing that was really out of the ordinary from other hotels, there were no stains on the floors, no holes in walls, doors worked great, the noise outside the halls and outside were nothing bad and no weird smells!The pool was a little highly chlorinated and I think someone might have just not known how much to really put in, but it was a heated pool and the hot tub wasn't working at the time, but keep in mind that it was 40 degrees the day before and just into the mid 60's so I am sure it was just opening season.Also one tip I would say is bring your own pillows if you can, I did read on another review where someone said the pillows were small, yes they are and hard! The beds were comfortable but I would recommend the hotel upgrade and replace all those little tiny rocks (pillows).I think the front desk pulls double duty for housekeeping as a few requests that we requested never happened like an extra blanket and a few towels brought to our room but I could tell the front desk staff was working their hardest so I let it slide and just dealt with it. Over all we had a very nice stay, and this is a property I would recommend to anyone looking for a place to stay, centrally located and with a nice friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded March 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here because there was a group on and I am a Mariott Rewards Elite member, AND I have stayed at MANY residence inn's across the US.
+This was a great location, right off the expressway and MINUTES away from most things in Dallas. We arrived and there was a little confusion on our room, but it was fixed, we were put into a one bedroom suite as we had reserved that had a door (we brought kids with us) and that fixed the problem, the night staff was very accommodating to our request.
+Breakfast was good, had a nice selection (basic eggs, sausage, OJ, Milk, Cereal, Waffles etc) ONE tip I could give the hotel is GET ANOTHER WAFFLE MAKER! Everyone LOVED the texas shaped waffles but had to wait forever to make one since there was just one of them! They also serve a dinner type meal M-Tu-Wed, which while we didn't get to try is a nice perk for business travelers watching their expense accounts.
+I read some other reviews and can say that while this isn't a 2014 newly built property it really is in great shape, wear and tear here and there but nothing that was really out of the ordinary from other hotels, there were no stains on the floors, no holes in walls, doors worked great, the noise outside the halls and outside were nothing bad and no weird smells!
+The pool...We stayed here because there was a group on and I am a Mariott Rewards Elite member, AND I have stayed at MANY residence inn's across the US.This was a great location, right off the expressway and MINUTES away from most things in Dallas. We arrived and there was a little confusion on our room, but it was fixed, we were put into a one bedroom suite as we had reserved that had a door (we brought kids with us) and that fixed the problem, the night staff was very accommodating to our request.Breakfast was good, had a nice selection (basic eggs, sausage, OJ, Milk, Cereal, Waffles etc) ONE tip I could give the hotel is GET ANOTHER WAFFLE MAKER! Everyone LOVED the texas shaped waffles but had to wait forever to make one since there was just one of them! They also serve a dinner type meal M-Tu-Wed, which while we didn't get to try is a nice perk for business travelers watching their expense accounts.I read some other reviews and can say that while this isn't a 2014 newly built property it really is in great shape, wear and tear here and there but nothing that was really out of the ordinary from other hotels, there were no stains on the floors, no holes in walls, doors worked great, the noise outside the halls and outside were nothing bad and no weird smells!The pool was a little highly chlorinated and I think someone might have just not known how much to really put in, but it was a heated pool and the hot tub wasn't working at the time, but keep in mind that it was 40 degrees the day before and just into the mid 60's so I am sure it was just opening season.Also one tip I would say is bring your own pillows if you can, I did read on another review where someone said the pillows were small, yes they are and hard! The beds were comfortable but I would recommend the hotel upgrade and replace all those little tiny rocks (pillows).I think the front desk pulls double duty for housekeeping as a few requests that we requested never happened like an extra blanket and a few towels brought to our room but I could tell the front desk staff was working their hardest so I let it slide and just dealt with it. Over all we had a very nice stay, and this is a property I would recommend to anyone looking for a place to stay, centrally located and with a nice friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r197891897-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>197891897</t>
+  </si>
+  <si>
+    <t>Was there to visit my newborn granddaughter</t>
+  </si>
+  <si>
+    <t>Honestly, the size of the room was great. I had my fiance' and my two teen sons with me. My son's switched out the bedroom, because we were there two nights. While one was sleeping in the bedroom, the other slept on the couch. We had attempted to pull out the sleeper sofa, but decided against it because we found cookie crumbs and other items underneath the mattress. The couch itself didn't look that clean, so I bought new linen and he slept on it instead. There was the hassle of using the key card everywhere, but when it comes to safety, I'd rather be safe than sorry. There was also the issue of how our room was being paid, we secured the deposit with a credit card, but when we got there, we wanted to pay with cash. But everything was quickly cleared up with a phone call to the manager. Overall, our stay there was pleasant. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Honestly, the size of the room was great. I had my fiance' and my two teen sons with me. My son's switched out the bedroom, because we were there two nights. While one was sleeping in the bedroom, the other slept on the couch. We had attempted to pull out the sleeper sofa, but decided against it because we found cookie crumbs and other items underneath the mattress. The couch itself didn't look that clean, so I bought new linen and he slept on it instead. There was the hassle of using the key card everywhere, but when it comes to safety, I'd rather be safe than sorry. There was also the issue of how our room was being paid, we secured the deposit with a credit card, but when we got there, we wanted to pay with cash. But everything was quickly cleared up with a phone call to the manager. Overall, our stay there was pleasant. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r169635501-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>169635501</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Excellent Value &amp; Fit Our Needs</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed at this property in the Fall of 2012.  Because of the good experience there, we decided to stay there again this July.  We had a small family reunion of 2 nights.  Had a 2 bedroom suite &amp; two 1 bedroom suites.  Staff was able to give us rooms very close together.  All rooms were very clean.  Rooms are not large, but adequate.  While no one cooked, the large refrigerator was nice for us to stock drinks and snacks for the kids.  Parking is free and because we had ground floor rooms at the back of the property, we were able to park very close to our rooms.  Yes, it is close to a busy highway, but there was no problem with road noise.  We liked the location because of the easy highway access.  All of the family enjoyed the hot breakfast--biscuits, sausage, eggs, potatoes, fruit, and make-your-own waffles.  We were not there on the days they offer an evening snack.  Overall, this was a great experience.  For the costs of the rooms, I think it was a great value.  We looked at staying at a more expensive hotel, but for the price and amenities, they couldn't match what this Residence Inn did for us.  We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Brad C, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed at this property in the Fall of 2012.  Because of the good experience there, we decided to stay there again this July.  We had a small family reunion of 2 nights.  Had a 2 bedroom suite &amp; two 1 bedroom suites.  Staff was able to give us rooms very close together.  All rooms were very clean.  Rooms are not large, but adequate.  While no one cooked, the large refrigerator was nice for us to stock drinks and snacks for the kids.  Parking is free and because we had ground floor rooms at the back of the property, we were able to park very close to our rooms.  Yes, it is close to a busy highway, but there was no problem with road noise.  We liked the location because of the easy highway access.  All of the family enjoyed the hot breakfast--biscuits, sausage, eggs, potatoes, fruit, and make-your-own waffles.  We were not there on the days they offer an evening snack.  Overall, this was a great experience.  For the costs of the rooms, I think it was a great value.  We looked at staying at a more expensive hotel, but for the price and amenities, they couldn't match what this Residence Inn did for us.  We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r163629847-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163629847</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Good, not great</t>
+  </si>
+  <si>
+    <t>I spent three nights in a 2 bedroom suite.  I planned a stay for a total of 6 famlly units gathering for a funeral in Dallas, making all the reservations and paying for all the rooms.  The staff nailed the requested accommodations and even put us in rooms near one another.
+The unit was clean.  It was hard to open the refrigerator door.  The book with hotel information was missing.  The mirrored closet doors were off the track at the bottom.  My son's room had a laundry basket that I wished we had.  Living area was cramped for 4 people, but having 2 bathrooms was a joy.  The coffee pot spilled over the first morning, with coffee spilling all over the counter rather than dripping into the pot.  After I cleaned it by running dishwater soap through it, it did not malfunction again.  There were average level toiletries, and more available by request at the front desk.  The gym was closed two of the three mornings I was there for some malfunction.  
+Front desk staff was always nice and helpful.  More willing to help out than expected.  My son took the kids to the pool one morning and discovered it did not open until 9 AM.  The staff told him to go ahead and let the kids swim.  Nice.  
+Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I...I spent three nights in a 2 bedroom suite.  I planned a stay for a total of 6 famlly units gathering for a funeral in Dallas, making all the reservations and paying for all the rooms.  The staff nailed the requested accommodations and even put us in rooms near one another.The unit was clean.  It was hard to open the refrigerator door.  The book with hotel information was missing.  The mirrored closet doors were off the track at the bottom.  My son's room had a laundry basket that I wished we had.  Living area was cramped for 4 people, but having 2 bathrooms was a joy.  The coffee pot spilled over the first morning, with coffee spilling all over the counter rather than dripping into the pot.  After I cleaned it by running dishwater soap through it, it did not malfunction again.  There were average level toiletries, and more available by request at the front desk.  The gym was closed two of the three mornings I was there for some malfunction.  Front desk staff was always nice and helpful.  More willing to help out than expected.  My son took the kids to the pool one morning and discovered it did not open until 9 AM.  The staff told him to go ahead and let the kids swim.  Nice.  Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I can get coffee and a hot breakfast and not have to go out for a meal in the morning. It was a good location for us.  The freeway noise was noticeable at times, but did not keep me up at night nor did it interrupt conversation during the day.  I never felt unsafe on the property, but did not choose to walk or run in the neighborhood when the gym was closed.  I wonder if I could have used the gym at the courtyard across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Brad C, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>I spent three nights in a 2 bedroom suite.  I planned a stay for a total of 6 famlly units gathering for a funeral in Dallas, making all the reservations and paying for all the rooms.  The staff nailed the requested accommodations and even put us in rooms near one another.
+The unit was clean.  It was hard to open the refrigerator door.  The book with hotel information was missing.  The mirrored closet doors were off the track at the bottom.  My son's room had a laundry basket that I wished we had.  Living area was cramped for 4 people, but having 2 bathrooms was a joy.  The coffee pot spilled over the first morning, with coffee spilling all over the counter rather than dripping into the pot.  After I cleaned it by running dishwater soap through it, it did not malfunction again.  There were average level toiletries, and more available by request at the front desk.  The gym was closed two of the three mornings I was there for some malfunction.  
+Front desk staff was always nice and helpful.  More willing to help out than expected.  My son took the kids to the pool one morning and discovered it did not open until 9 AM.  The staff told him to go ahead and let the kids swim.  Nice.  
+Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I...I spent three nights in a 2 bedroom suite.  I planned a stay for a total of 6 famlly units gathering for a funeral in Dallas, making all the reservations and paying for all the rooms.  The staff nailed the requested accommodations and even put us in rooms near one another.The unit was clean.  It was hard to open the refrigerator door.  The book with hotel information was missing.  The mirrored closet doors were off the track at the bottom.  My son's room had a laundry basket that I wished we had.  Living area was cramped for 4 people, but having 2 bathrooms was a joy.  The coffee pot spilled over the first morning, with coffee spilling all over the counter rather than dripping into the pot.  After I cleaned it by running dishwater soap through it, it did not malfunction again.  There were average level toiletries, and more available by request at the front desk.  The gym was closed two of the three mornings I was there for some malfunction.  Front desk staff was always nice and helpful.  More willing to help out than expected.  My son took the kids to the pool one morning and discovered it did not open until 9 AM.  The staff told him to go ahead and let the kids swim.  Nice.  Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I can get coffee and a hot breakfast and not have to go out for a meal in the morning. It was a good location for us.  The freeway noise was noticeable at times, but did not keep me up at night nor did it interrupt conversation during the day.  I never felt unsafe on the property, but did not choose to walk or run in the neighborhood when the gym was closed.  I wonder if I could have used the gym at the courtyard across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r162402657-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>162402657</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Marriott should be disappointed in this hotel</t>
+  </si>
+  <si>
+    <t>Wow!  I have only had one hotel that I have ever felt more unsafe to stay in after years of travel.  I had my wife and children and needed something close to this area and thought that the property would be a reasonable choice, but we were wrong.  We used the outdoor pool, that was fine for the kids to use, but the cast of characters that sat out around the pool area made me feel it was unsafe.  The room had been updated and was fine, but we had ants in both bathrooms, and the managers response was to have someone meet us after 6:30 when we were out of the room.  We were told if we were not there, they would not be able to resolve the problem.  Finally, paramedics were called to the hotel and we were attempting to leave the parking lot.  We soon realized that they were blocking the only entrance in and out of the parking area.  That did not seem normal, and at that time we realized they had security guards riding around the parking lot in a golf cart.  That seemed to confirm my suspicions of security concerns on the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Brad C, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Wow!  I have only had one hotel that I have ever felt more unsafe to stay in after years of travel.  I had my wife and children and needed something close to this area and thought that the property would be a reasonable choice, but we were wrong.  We used the outdoor pool, that was fine for the kids to use, but the cast of characters that sat out around the pool area made me feel it was unsafe.  The room had been updated and was fine, but we had ants in both bathrooms, and the managers response was to have someone meet us after 6:30 when we were out of the room.  We were told if we were not there, they would not be able to resolve the problem.  Finally, paramedics were called to the hotel and we were attempting to leave the parking lot.  We soon realized that they were blocking the only entrance in and out of the parking area.  That did not seem normal, and at that time we realized they had security guards riding around the parking lot in a golf cart.  That seemed to confirm my suspicions of security concerns on the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r155901185-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>155901185</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Very central location</t>
+  </si>
+  <si>
+    <t>This hotel was amazing. The rooms were magnificent, the food was great, and the hotel staff was very nice. The only thing that stinks is the stairs. But, suck it up and excercise a little. It is very close to everything near the SMU area. The neighborhood appears a little shady, but don't be concerned at the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was amazing. The rooms were magnificent, the food was great, and the hotel staff was very nice. The only thing that stinks is the stairs. But, suck it up and excercise a little. It is very close to everything near the SMU area. The neighborhood appears a little shady, but don't be concerned at the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r153873046-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>153873046</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay * Pleasantly surprised * Excellent Staff</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for the NCA Allstar Cheerleading competition at the Dallas Convention Center.  It's about a 20 minute drive to the convention center if there is no traffic, can easily double or more if there is extensive traffic.  I wish there was another one of these hotels closer to the actual convention center, then the stay would have been ideal.
+Check in was seamless.  I must comment on the staff at this location.  Upon entering, we were greeted immediately by the front desk personnel and both people were extremely friendly and helpful.  I asked if she had a 2 bedroom villa NOT facing the central expressway but she told me she only had 2 left and both were facing it.  She did say that they had just put in new, more soundproof windows on those particular rooms so it shouldn't be bad.  It was fine, and it was nice that she at least tried to get us rooms not facing the busy freeway.  
+Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all...Stayed at this hotel for the NCA Allstar Cheerleading competition at the Dallas Convention Center.  It's about a 20 minute drive to the convention center if there is no traffic, can easily double or more if there is extensive traffic.  I wish there was another one of these hotels closer to the actual convention center, then the stay would have been ideal.Check in was seamless.  I must comment on the staff at this location.  Upon entering, we were greeted immediately by the front desk personnel and both people were extremely friendly and helpful.  I asked if she had a 2 bedroom villa NOT facing the central expressway but she told me she only had 2 left and both were facing it.  She did say that they had just put in new, more soundproof windows on those particular rooms so it shouldn't be bad.  It was fine, and it was nice that she at least tried to get us rooms not facing the busy freeway.  Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all 4 nights saw instances of ambulances and firetruck sirens, etc, various times during the night.  There was also a freeway crash directly outside our room one night and the subsequent sirens and firetrucks, etc.  So while it was not completely annoying, I can't imagine anyone saying they heard NO noise, when staying in these forward expressway rooms.  Thankfully, I don't think there are that many rooms facing this way, and I definitely would ask at check in if you can possibly NOT have those rooms.  The noise aside, it still wasn't enough to make me NOT like the hotel.  But if you are wanting a quieter experience, request to not face Central Expressway. Our 2 bedroom Villa was exactly as expected and true to the pictures they use on the website.  Beds were extremely comfortable in both rooms, with what seemed like a memory foam type mattress, with 4 comfortable pillows.  Bathrooms were single sinked, one bathroom had a tub/shower combo, the other bedroom only had a small shower.  The other people we shared a room with said their tiny shower reminded them of the shower in their trailer, however, I had no complaints about the shower/tub combo in our bathroom except we ran out of hot water in the evenings to take a shower, which I thought was strange. Maid service was good, rooms were clean each evening we arrived back to our room.  We didn't really use the kitchen in our unit, but the few dishes or glasses that were used were washed and put away for us.  Couch was comfortable, there is a fireplace but as far as I could tell either it's not usable or they expect you to buy your own logs perhaps.  Either way, we would never have used it anyway for heat.  The only complaint I have about the heat was, it was a bit chilly at night during our stay and if the thermostat was set at 70 or below it seemed to only blow cold air, so we had to set the thermostat at about 74-75 degrees (much to high, really?) for it to then get warm in the room, causing us to then get up in the middle of the night to turn it down.  It just seems like something is wrong with the thermostat in our particular room, but again...nothing terrible.  Free breakfast in the mornings was fine.  Typical "free breakfast" fare.  Eggs were a little runny, but edible.  Wonderful yogurt parfaits won me over.  There is a waffle station as well.  They have a neat little coffee station available 24 hours a day that has tea, hot chocolate, and coffee.  We stopped here every time we left and came home to grab a quick cup of coffee.  They also have a "happy hour" type eventing Monday-Thursday with a free dinner in the evenings, which was nice.  We arrived on a Thursday and it looked like it was BBQ'd hamburgers.  I thought I even saw some bud light beer on ice in there.  Where they shine:  The staff.  By far, the friendliest, most helpful staff.  They were happy to give us pre-printed directions to just about anywhere we needed to go.  One day they even filled up our ice chest we used for food at the convention center.  They provided towels for us late one evening for a quick visit to the jacuzzi and were always there to greet us when we came or went.  They seemed genuinely interested in our competition, how we did, etc.  Even the other patrons staying at the hotel all seemed so friendly, asking questions about how the girls were doing, etc.  I haven't encountered such a "friendly atmosphere" in a hotel in a long time.  Perhaps it's because it's more of an extended-stay type place.  Either way, it was a true pleasure staying here and I would recommend it to anyone in need of a no-frills, no-nonsense place to stay within a decent distance of the convention center.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for the NCA Allstar Cheerleading competition at the Dallas Convention Center.  It's about a 20 minute drive to the convention center if there is no traffic, can easily double or more if there is extensive traffic.  I wish there was another one of these hotels closer to the actual convention center, then the stay would have been ideal.
+Check in was seamless.  I must comment on the staff at this location.  Upon entering, we were greeted immediately by the front desk personnel and both people were extremely friendly and helpful.  I asked if she had a 2 bedroom villa NOT facing the central expressway but she told me she only had 2 left and both were facing it.  She did say that they had just put in new, more soundproof windows on those particular rooms so it shouldn't be bad.  It was fine, and it was nice that she at least tried to get us rooms not facing the busy freeway.  
+Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all...Stayed at this hotel for the NCA Allstar Cheerleading competition at the Dallas Convention Center.  It's about a 20 minute drive to the convention center if there is no traffic, can easily double or more if there is extensive traffic.  I wish there was another one of these hotels closer to the actual convention center, then the stay would have been ideal.Check in was seamless.  I must comment on the staff at this location.  Upon entering, we were greeted immediately by the front desk personnel and both people were extremely friendly and helpful.  I asked if she had a 2 bedroom villa NOT facing the central expressway but she told me she only had 2 left and both were facing it.  She did say that they had just put in new, more soundproof windows on those particular rooms so it shouldn't be bad.  It was fine, and it was nice that she at least tried to get us rooms not facing the busy freeway.  Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all 4 nights saw instances of ambulances and firetruck sirens, etc, various times during the night.  There was also a freeway crash directly outside our room one night and the subsequent sirens and firetrucks, etc.  So while it was not completely annoying, I can't imagine anyone saying they heard NO noise, when staying in these forward expressway rooms.  Thankfully, I don't think there are that many rooms facing this way, and I definitely would ask at check in if you can possibly NOT have those rooms.  The noise aside, it still wasn't enough to make me NOT like the hotel.  But if you are wanting a quieter experience, request to not face Central Expressway. Our 2 bedroom Villa was exactly as expected and true to the pictures they use on the website.  Beds were extremely comfortable in both rooms, with what seemed like a memory foam type mattress, with 4 comfortable pillows.  Bathrooms were single sinked, one bathroom had a tub/shower combo, the other bedroom only had a small shower.  The other people we shared a room with said their tiny shower reminded them of the shower in their trailer, however, I had no complaints about the shower/tub combo in our bathroom except we ran out of hot water in the evenings to take a shower, which I thought was strange. Maid service was good, rooms were clean each evening we arrived back to our room.  We didn't really use the kitchen in our unit, but the few dishes or glasses that were used were washed and put away for us.  Couch was comfortable, there is a fireplace but as far as I could tell either it's not usable or they expect you to buy your own logs perhaps.  Either way, we would never have used it anyway for heat.  The only complaint I have about the heat was, it was a bit chilly at night during our stay and if the thermostat was set at 70 or below it seemed to only blow cold air, so we had to set the thermostat at about 74-75 degrees (much to high, really?) for it to then get warm in the room, causing us to then get up in the middle of the night to turn it down.  It just seems like something is wrong with the thermostat in our particular room, but again...nothing terrible.  Free breakfast in the mornings was fine.  Typical "free breakfast" fare.  Eggs were a little runny, but edible.  Wonderful yogurt parfaits won me over.  There is a waffle station as well.  They have a neat little coffee station available 24 hours a day that has tea, hot chocolate, and coffee.  We stopped here every time we left and came home to grab a quick cup of coffee.  They also have a "happy hour" type eventing Monday-Thursday with a free dinner in the evenings, which was nice.  We arrived on a Thursday and it looked like it was BBQ'd hamburgers.  I thought I even saw some bud light beer on ice in there.  Where they shine:  The staff.  By far, the friendliest, most helpful staff.  They were happy to give us pre-printed directions to just about anywhere we needed to go.  One day they even filled up our ice chest we used for food at the convention center.  They provided towels for us late one evening for a quick visit to the jacuzzi and were always there to greet us when we came or went.  They seemed genuinely interested in our competition, how we did, etc.  Even the other patrons staying at the hotel all seemed so friendly, asking questions about how the girls were doing, etc.  I haven't encountered such a "friendly atmosphere" in a hotel in a long time.  Perhaps it's because it's more of an extended-stay type place.  Either way, it was a true pleasure staying here and I would recommend it to anyone in need of a no-frills, no-nonsense place to stay within a decent distance of the convention center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r149753535-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149753535</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Mini home away from home</t>
+  </si>
+  <si>
+    <t>Stayed 1/2/13 - 1/12/13 on a work trip.  This hotel is like having a small apartment.  Computer desk, free wifi, couch, chair, footstool, coffee table, 2 flat screen TV's (one in living room/one in bedroom), fireplace, breakfast bar with two stools, everything in the kitchen except an oven with all the utensils and cookware you could need, separate bathroom, and a bedroom with a sliding door leading to a balcony.  A huge breakfast spread is provided daily &amp; Mon. - Thurs. beer, wine, &amp; enough food to make a dinner out of is provided during social hour.  The hotel has some cosmetic issues; my balcony had no light fixture &amp; the cover was an empty frame.  Also the slider door latch was floppy &amp; hard to lock but the doors do have a security bar which made me feel more secure.  I would love this hotel to provide soap dishes so I didn't have to open a new bar every day but they are green in their towel &amp; linen changing management.  They are pet friendly which isn't bad if you're not by a yappy dog.  Rooms are fairly sound proof unless an elephant moves in above you and likes to pace the floor.  There is a grocery store, drugstore, &amp; restaurants across the street.  Overall I would stay at this chain again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Stayed 1/2/13 - 1/12/13 on a work trip.  This hotel is like having a small apartment.  Computer desk, free wifi, couch, chair, footstool, coffee table, 2 flat screen TV's (one in living room/one in bedroom), fireplace, breakfast bar with two stools, everything in the kitchen except an oven with all the utensils and cookware you could need, separate bathroom, and a bedroom with a sliding door leading to a balcony.  A huge breakfast spread is provided daily &amp; Mon. - Thurs. beer, wine, &amp; enough food to make a dinner out of is provided during social hour.  The hotel has some cosmetic issues; my balcony had no light fixture &amp; the cover was an empty frame.  Also the slider door latch was floppy &amp; hard to lock but the doors do have a security bar which made me feel more secure.  I would love this hotel to provide soap dishes so I didn't have to open a new bar every day but they are green in their towel &amp; linen changing management.  They are pet friendly which isn't bad if you're not by a yappy dog.  Rooms are fairly sound proof unless an elephant moves in above you and likes to pace the floor.  There is a grocery store, drugstore, &amp; restaurants across the street.  Overall I would stay at this chain again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r129162290-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>129162290</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My husband &amp; I found the Residence Inn to be the perfect place to stay while visiting family nearby.  Based on other reviewers advice we requested an upstairs room away from the freeway and were given one on the 3rd floor in Bldg#5 which was perfect - fresh, clean &amp; quiet - even though our room looked out onto a side street.  We were impressed with the planning that obviously went into the details of the suite renovations.  The small space functions like a much larger one.  The kitchen was fully supplied - my goodness - even a dishwasher and disposal.  Breakfast included a wide selection from scrambled eggs to waffles, fruit and hot oatmeal.  The staff was very friendly and helpful.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>My husband &amp; I found the Residence Inn to be the perfect place to stay while visiting family nearby.  Based on other reviewers advice we requested an upstairs room away from the freeway and were given one on the 3rd floor in Bldg#5 which was perfect - fresh, clean &amp; quiet - even though our room looked out onto a side street.  We were impressed with the planning that obviously went into the details of the suite renovations.  The small space functions like a much larger one.  The kitchen was fully supplied - my goodness - even a dishwasher and disposal.  Breakfast included a wide selection from scrambled eggs to waffles, fruit and hot oatmeal.  The staff was very friendly and helpful.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r125852097-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125852097</t>
+  </si>
+  <si>
+    <t>03/09/2012</t>
+  </si>
+  <si>
+    <t>Excellant Like a Small Apartment</t>
+  </si>
+  <si>
+    <t>This is a newly renovated nice clean place. The rooms are like a small apartment. Yes it is next to an expressway but you can see that from reading the address. We had an exterior room right next to the highway. I am a light sleeper and I was fine. The room is 4 rooms with a full mini kitchen including a dishwasher, granite counter tops. The eating bar is a 2 seater. The small living room had a fireplace. The bedroom was separated by 2 large sliding doors. There is a TV the bedroom and a clock with soothing sounds. The bath has both shower and tub. The place is decorated with bright modern colors. There is a pool and hot tub, and more coffer provided in lobby.  The free breakfast buffet is good and has whipped cream. I loved that on my hot chocolate in the morning.  There is a grocery store right next door, a Whole Foods down the street and lot of shopping. We had easy access to the highway and were just minutes from downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>This is a newly renovated nice clean place. The rooms are like a small apartment. Yes it is next to an expressway but you can see that from reading the address. We had an exterior room right next to the highway. I am a light sleeper and I was fine. The room is 4 rooms with a full mini kitchen including a dishwasher, granite counter tops. The eating bar is a 2 seater. The small living room had a fireplace. The bedroom was separated by 2 large sliding doors. There is a TV the bedroom and a clock with soothing sounds. The bath has both shower and tub. The place is decorated with bright modern colors. There is a pool and hot tub, and more coffer provided in lobby.  The free breakfast buffet is good and has whipped cream. I loved that on my hot chocolate in the morning.  There is a grocery store right next door, a Whole Foods down the street and lot of shopping. We had easy access to the highway and were just minutes from downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r125320596-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125320596</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Located directly adjacent to central expressway this Residence Inn is not what I expect from a Marriott property.  The freeway noise never stops! We were given a room with an exterior hallway.  Not good for those traveling with children.  Friends who stayed at the same time we were there reported dirty kitchens, even after housekeepjing supposedly came to clean.  We had dirty silverware in our unit.  We also ran out of hot water on two occasions.  Under no circumstances woul I ever stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Brad C, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Located directly adjacent to central expressway this Residence Inn is not what I expect from a Marriott property.  The freeway noise never stops! We were given a room with an exterior hallway.  Not good for those traveling with children.  Friends who stayed at the same time we were there reported dirty kitchens, even after housekeepjing supposedly came to clean.  We had dirty silverware in our unit.  We also ran out of hot water on two occasions.  Under no circumstances woul I ever stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r121936107-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>121936107</t>
+  </si>
+  <si>
+    <t>12/20/2011</t>
+  </si>
+  <si>
+    <t>Good for Business Stays</t>
+  </si>
+  <si>
+    <t>Stayed there for about 2 weeks, Oct-Nov  2011.The expected Residence Inn Benefits - Neat and clean, very spacious, greenery, Cleanups done daily. Very good WiFi. Breakfast, evening snacks (which aro probably better than many other residence inns). Shuttle service availability is a little on and off. Cooking utensils and oven / grill are available in the room. Decent parking space. Only one Laundry machines in the entire hotel. Hotel's a little labyrinthine - difficult to get from one room to another.Staff are very courteous and helpful. Location: On the South Central Expressway, and there's a Marriott Courtyard right next doors. Not too far away from Downtown and Uptown / Highland Park areas. Fairly well connected.I recommend this place for longish (1-3 weeks or longer) business stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Stayed there for about 2 weeks, Oct-Nov  2011.The expected Residence Inn Benefits - Neat and clean, very spacious, greenery, Cleanups done daily. Very good WiFi. Breakfast, evening snacks (which aro probably better than many other residence inns). Shuttle service availability is a little on and off. Cooking utensils and oven / grill are available in the room. Decent parking space. Only one Laundry machines in the entire hotel. Hotel's a little labyrinthine - difficult to get from one room to another.Staff are very courteous and helpful. Location: On the South Central Expressway, and there's a Marriott Courtyard right next doors. Not too far away from Downtown and Uptown / Highland Park areas. Fairly well connected.I recommend this place for longish (1-3 weeks or longer) business stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r120461305-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>120461305</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>Good Business Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks in September on a business trip to Dallas. I was greeted by a warm receptionist and provided a very clean and modern two room suite. This hotel is centrally lcoated to get anywhere in the greater Dallas/Fort Worth area. The evening socials are typical of most Residence Inn's and most guests appear to have been staying in Dallas for extended business stays. The rate I had for this Hotel was excellent and I would not hesitate to book this trip again for a future business stay in Dallas.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r118949958-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>118949958</t>
+  </si>
+  <si>
+    <t>10/04/2011</t>
+  </si>
+  <si>
+    <t>Far exceeded expectations</t>
+  </si>
+  <si>
+    <t>I made reservations for 3 rooms to attend a funeral in Dallas with my family. The reservation agent went out of her way to get me a special rate. Upon arrival, this same woman greeted me with warmth, friendliness, and true humanity. The rooms had recently been renovated, and were exceptionally comfortable.    The evening happy hour was very nice with food and beer, wine, or soda. The buffet breakfast offered a huge selection of eggs, sausage, potatoes, waffles, hot cereal, cold cereal, pastries, etc.    The entire staff went out of their way to make sure that our stay was pleasant and home-like. I would definitely stay at this property again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I made reservations for 3 rooms to attend a funeral in Dallas with my family. The reservation agent went out of her way to get me a special rate. Upon arrival, this same woman greeted me with warmth, friendliness, and true humanity. The rooms had recently been renovated, and were exceptionally comfortable.    The evening happy hour was very nice with food and beer, wine, or soda. The buffet breakfast offered a huge selection of eggs, sausage, potatoes, waffles, hot cereal, cold cereal, pastries, etc.    The entire staff went out of their way to make sure that our stay was pleasant and home-like. I would definitely stay at this property again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r115965400-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115965400</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>Besides the good price, the hotel is very comfortable.  You are independent (kitchen, laundry, etc.).  You only need front desk assistance when checking in and out.  Anyway, they are very helpful and attentive.  Location is fantastic.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r115503613-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115503613</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>I stayed here with my sister and brother for 8 nights while my brother received medical treatment in Dallas.  The Residence Inn was one of the few extended stay places we found that had a 2 bedroom/2 bath suite.  The accommodations were great.  We enjoyed the free hot breakfast every morning and the evening "social hour" with food Monday-Thursday.  But what really impressed me was the staff --everyone we encountered, from the front desk clerk to the maid, was cheerful, greeted you with a smile, and was helpful.  My only complaint was the traffic noise when trying to sleep, but there's not much the hotel can do about that.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r85059174-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>85059174</t>
+  </si>
+  <si>
+    <t>10/27/2010</t>
+  </si>
+  <si>
+    <t>Watch your Credit Card Charges</t>
+  </si>
+  <si>
+    <t>If you stay at this hotel please watch your credit card charges they tried to run my credit card for alot more then want i was suppose to be charged and it made my bank a mess luckily my bank is reimbursing me the fees back but it should not have happened to begin with.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r19684277-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>19684277</t>
+  </si>
+  <si>
+    <t>09/02/2008</t>
+  </si>
+  <si>
+    <t>Quite possibly the worst Marriott property I have seen</t>
+  </si>
+  <si>
+    <t>I was booked into this property - along with other colleagues - for a consulting project, and was unfortunate enough to stay there for several weeks.
+The property is not in a scenic spot, though it does have the asset of being in a relatively convenient area, as it is within a short drive to area shopping and other attractions.
+That being said, the whole lodging experience was a nightmare.  The rooms were horribly filthy and incredibly small to truly be suites.  One of my colleagues had a significant silverfish infestation, and the staff refused to move her to a different room, much less resolve the infestation.  Others of us battled roaches and/or fire ants.  The furniture, fixtures, and appliances were all in poor shape - if not outright broken.  I personally became known as "Mr. Fix-It", because I had several things break or fall off (such as the sliding door between the living area and bedroom) and was left to repair them myself, again because of staff indifference.  Though these were billed as non-smoking suites, it was obvious from the strong residual odors on the furniture that smoking had occurred in the suites.
+The walls were also very thin, so noise from other rooms and outside were impossible to ignore.  
+The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting...I was booked into this property - along with other colleagues - for a consulting project, and was unfortunate enough to stay there for several weeks.The property is not in a scenic spot, though it does have the asset of being in a relatively convenient area, as it is within a short drive to area shopping and other attractions.That being said, the whole lodging experience was a nightmare.  The rooms were horribly filthy and incredibly small to truly be suites.  One of my colleagues had a significant silverfish infestation, and the staff refused to move her to a different room, much less resolve the infestation.  Others of us battled roaches and/or fire ants.  The furniture, fixtures, and appliances were all in poor shape - if not outright broken.  I personally became known as "Mr. Fix-It", because I had several things break or fall off (such as the sliding door between the living area and bedroom) and was left to repair them myself, again because of staff indifference.  Though these were billed as non-smoking suites, it was obvious from the strong residual odors on the furniture that smoking had occurred in the suites.The walls were also very thin, so noise from other rooms and outside were impossible to ignore.  The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting your clothes clean.  The on-site pool facility was closed for the duration of our stay, though from appearances, I doubt any of us would have used it.  As with other Residence Inn properties, there was a free breakfast service.  But the food quality was terrible; the hot items were frequently lukewarm to cold and poor-tasting, and other items looked or tasted spoiled.  The staff from management on down was horrendous.  There was only one of the front desk staff - a nice lady named Betty - who actually seemed to care and who tried her best to make things right despite the circumstances.  Beyond that, there was a complete and thorough lack of caring, responsiveness, or general customer service.  The housekeeping staff did their jobs poorly, and several of us dealt with theft issues that we could only track to that staff.  When - either individually or via our firm's owner - tried to resolve our many issues with the property management, we were largely ignored or otherwise told that nothing was wrong with their facility.After about six weeks, we all moved to another competing property about a mile away, which turned out to be an eminently better lodging experience than this property.  We later learned that this Residence Inn served as temporary lodging for refugees from Hurricane Katrina.  While that may have explained some of the disrepair, it was certainly no excuse for not making any strides towards resolving them or making right by their existing guests.Even being over a year removed from this lodging experience, I continue to be stunned at just how poor this facility was.  As a Marriott Rewards member and frequent traveler, this was unquestionably the worst Marriott property I had ever been at.  I am amazed that Marriott would even tolerate the condition of this property and would continue to have its banner on it.  It is a detriment to their reputation for quality lodging.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>I was booked into this property - along with other colleagues - for a consulting project, and was unfortunate enough to stay there for several weeks.
+The property is not in a scenic spot, though it does have the asset of being in a relatively convenient area, as it is within a short drive to area shopping and other attractions.
+That being said, the whole lodging experience was a nightmare.  The rooms were horribly filthy and incredibly small to truly be suites.  One of my colleagues had a significant silverfish infestation, and the staff refused to move her to a different room, much less resolve the infestation.  Others of us battled roaches and/or fire ants.  The furniture, fixtures, and appliances were all in poor shape - if not outright broken.  I personally became known as "Mr. Fix-It", because I had several things break or fall off (such as the sliding door between the living area and bedroom) and was left to repair them myself, again because of staff indifference.  Though these were billed as non-smoking suites, it was obvious from the strong residual odors on the furniture that smoking had occurred in the suites.
+The walls were also very thin, so noise from other rooms and outside were impossible to ignore.  
+The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting...I was booked into this property - along with other colleagues - for a consulting project, and was unfortunate enough to stay there for several weeks.The property is not in a scenic spot, though it does have the asset of being in a relatively convenient area, as it is within a short drive to area shopping and other attractions.That being said, the whole lodging experience was a nightmare.  The rooms were horribly filthy and incredibly small to truly be suites.  One of my colleagues had a significant silverfish infestation, and the staff refused to move her to a different room, much less resolve the infestation.  Others of us battled roaches and/or fire ants.  The furniture, fixtures, and appliances were all in poor shape - if not outright broken.  I personally became known as "Mr. Fix-It", because I had several things break or fall off (such as the sliding door between the living area and bedroom) and was left to repair them myself, again because of staff indifference.  Though these were billed as non-smoking suites, it was obvious from the strong residual odors on the furniture that smoking had occurred in the suites.The walls were also very thin, so noise from other rooms and outside were impossible to ignore.  The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting your clothes clean.  The on-site pool facility was closed for the duration of our stay, though from appearances, I doubt any of us would have used it.  As with other Residence Inn properties, there was a free breakfast service.  But the food quality was terrible; the hot items were frequently lukewarm to cold and poor-tasting, and other items looked or tasted spoiled.  The staff from management on down was horrendous.  There was only one of the front desk staff - a nice lady named Betty - who actually seemed to care and who tried her best to make things right despite the circumstances.  Beyond that, there was a complete and thorough lack of caring, responsiveness, or general customer service.  The housekeeping staff did their jobs poorly, and several of us dealt with theft issues that we could only track to that staff.  When - either individually or via our firm's owner - tried to resolve our many issues with the property management, we were largely ignored or otherwise told that nothing was wrong with their facility.After about six weeks, we all moved to another competing property about a mile away, which turned out to be an eminently better lodging experience than this property.  We later learned that this Residence Inn served as temporary lodging for refugees from Hurricane Katrina.  While that may have explained some of the disrepair, it was certainly no excuse for not making any strides towards resolving them or making right by their existing guests.Even being over a year removed from this lodging experience, I continue to be stunned at just how poor this facility was.  As a Marriott Rewards member and frequent traveler, this was unquestionably the worst Marriott property I had ever been at.  I am amazed that Marriott would even tolerate the condition of this property and would continue to have its banner on it.  It is a detriment to their reputation for quality lodging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r16470665-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>16470665</t>
+  </si>
+  <si>
+    <t>05/28/2008</t>
+  </si>
+  <si>
+    <t>Good, clean &amp; comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks.  The room was very clean, though slightly worn in spots.  The staff was excellent.The free breakfast was excellent, with a friendly staff.Right off the highway, so not a scenic spot, but convenient to most areas around Dallas.One thing I didn't like was in my room/suite, the TV could not be seen from the bed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r12362956-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>12362956</t>
+  </si>
+  <si>
+    <t>01/05/2008</t>
+  </si>
+  <si>
+    <t>Consistent, Clean Stays</t>
+  </si>
+  <si>
+    <t>I've had to stay in this area of Dallas 8 separate times over the past 6 months.  After trying three other hotels, I've thankfully settled on the Residence Inn.  It was exactly what I needed as a business traveler.  Pros: Clean rooms. Consistent each time I stayed there (now 4 times in a row).  Friendly employees.  Slightly better than average hotel breakfast food selection. Cons: Slower than average free internet.  No wifi in rooms, short ethernet cable provided, only one ethernet outlet in a two bedroom suite.  I stayed in a third floor / top floor room and heard birds landing and taking off all night long. I'd like the hotel to install some type of anti-bird landing devices before I stay in a top floor room again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>I've had to stay in this area of Dallas 8 separate times over the past 6 months.  After trying three other hotels, I've thankfully settled on the Residence Inn.  It was exactly what I needed as a business traveler.  Pros: Clean rooms. Consistent each time I stayed there (now 4 times in a row).  Friendly employees.  Slightly better than average hotel breakfast food selection. Cons: Slower than average free internet.  No wifi in rooms, short ethernet cable provided, only one ethernet outlet in a two bedroom suite.  I stayed in a third floor / top floor room and heard birds landing and taking off all night long. I'd like the hotel to install some type of anti-bird landing devices before I stay in a top floor room again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r1651754-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>1651754</t>
+  </si>
+  <si>
+    <t>02/15/2004</t>
+  </si>
+  <si>
+    <t>Noise &amp; soft mattress equals no sleep!</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night in Dec. of 2003...mainly for the location. All rooms of this hotel group are the same, so you know what you're getting. However, all mattresses ARE NOT the same. Ours was so uncomfortable, I actually left the king bed in the bedroom and tried to sleep on the sofa bed -- terrible! You expect a sofa bed mattress to be so-so, but you'd never expect a real bed to be this bad. I called to complain to the manager the next Monday morning, and was told by a staffer that I could have asked for a bed "board" to make it better...can you imagine?!!?? Plus, unless you are on the far side of the property away from Central Expressway, get ready for some major road noise! Unless you can sleep anywhere, forget it. It was like we had a bedroll on the shoulder of the freeway, and I'm not exaggerating that much. We have previously stayed at the Courtyard by Marriott right next door (literally shares the lot with the Residence Inn) and had a great mattress and quiet rooms. We should have stay there again, but opted for the included breakfast at Residence Inn. I would never recommend this place again if sleep is important to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night in Dec. of 2003...mainly for the location. All rooms of this hotel group are the same, so you know what you're getting. However, all mattresses ARE NOT the same. Ours was so uncomfortable, I actually left the king bed in the bedroom and tried to sleep on the sofa bed -- terrible! You expect a sofa bed mattress to be so-so, but you'd never expect a real bed to be this bad. I called to complain to the manager the next Monday morning, and was told by a staffer that I could have asked for a bed "board" to make it better...can you imagine?!!?? Plus, unless you are on the far side of the property away from Central Expressway, get ready for some major road noise! Unless you can sleep anywhere, forget it. It was like we had a bedroll on the shoulder of the freeway, and I'm not exaggerating that much. We have previously stayed at the Courtyard by Marriott right next door (literally shares the lot with the Residence Inn) and had a great mattress and quiet rooms. We should have stay there again, but opted for the included breakfast at Residence Inn. I would never recommend this place again if sleep is important to you.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1836,3219 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>209</v>
+      </c>
+      <c r="X21" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>262</v>
+      </c>
+      <c r="X27" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>320</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>321</v>
+      </c>
+      <c r="X34" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>303</v>
+      </c>
+      <c r="X35" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>303</v>
+      </c>
+      <c r="X36" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X37" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>349</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>303</v>
+      </c>
+      <c r="X38" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" t="s">
+        <v>360</v>
+      </c>
+      <c r="K40" t="s">
+        <v>361</v>
+      </c>
+      <c r="L40" t="s">
+        <v>362</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>363</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>364</v>
+      </c>
+      <c r="X40" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>372</v>
+      </c>
+      <c r="O41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>379</v>
+      </c>
+      <c r="O42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>388</v>
+      </c>
+      <c r="J44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>392</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>394</v>
+      </c>
+      <c r="J45" t="s">
+        <v>395</v>
+      </c>
+      <c r="K45" t="s">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s">
+        <v>397</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>398</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" t="s">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>404</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>108</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>303</v>
+      </c>
+      <c r="X47" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>418</v>
+      </c>
+      <c r="J49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s">
+        <v>420</v>
+      </c>
+      <c r="L49" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>422</v>
+      </c>
+      <c r="O49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>424</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>425</v>
+      </c>
+      <c r="J50" t="s">
+        <v>426</v>
+      </c>
+      <c r="K50" t="s">
+        <v>427</v>
+      </c>
+      <c r="L50" t="s">
+        <v>428</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_651.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_651.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>DanHohnbaum</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Sylvia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r525240974-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>This Residence Inn is one of the cleanest hotels I've ever stayed in. Nice complimentary full breakfast, great location, walking distance to restaurants, stores, etc. Great room, with a nice layout. Unfortunately, I hadn't realized that I was staying in a hostel and would be sharing my room with (3) others. During day three of a four day trip, I opened the closet to grab the iron and was introduced to my new bestie CR#1 (cockroach #1). I called the front desk and soon a housekeeper showed up and removed my unwanted guest.After getting over the shock, I went back to getting ready. As I stood at the mirror applying my make-up, I noticed something nearly fall on me in the reflection. I screamed and ran from the bathroom and was followed out by new friend #CR2....I guess he didn't get the memo that his friend had already left. I watched him crawl from the bathroom into the kitchen and behind the dishwasher. Once again, I returned to the bathroom, only to be greeted by friend CR#3. Yes, that totals 3 very large Cockroaches!!!!! I called the front desk and requested a new room. Hopefully no more unwelcome guests!!!More</t>
   </si>
   <si>
+    <t>Sally L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r507335080-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>SirRead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r472331144-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I was reluctant since this was so close to the highway but the extended stay suites are very nice. Tastefully decorated, the bed is very comfortable. The kitchen has everything you need. It even has a fireplace - although not something of great importance in Dallas. The pool is small but nice. I arrived in time for the managers happy hour - wine, beer and a nosh... Breakfast is typical but fine. The shopping center across the street is very convenient for anything you need - pharmacy, grocery, restaurants and the Sole Massage - awesome!</t>
   </si>
   <si>
+    <t>dmcd043</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r468366158-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>This hotel has not been updated apparently for quite awhile - externally or internally. It has a very compact footprint; and, therefore, has narrow sidewalks to rooms -- with outside doors. The rooms themselves are also showing their age. Ours was clean. However, it had but one mirror and no cabinet in the bathroom, the lighting was minimal and some bulbs were burned out. The sidewalk to our room was severely cracked and could be a hazard. The bed was nice and was comfortable, as were the sofa and chairs - but they too seemed dated. The parking was plentiful, but some trees shed a tremendous amount of residue  on our car. The breakfast was adequate but not the equal of other residence inns we have stayed. The lobby is also very small and compact. The location is very good and access is convenient. In summary, convenient location, dated and not competitive with other offerings in the same price range.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r465641104-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>This hotel is "dated"   right off the expressway makes it convenient to get to.   Watch where you park.... if you park under trees, your car is sure to be pooped on..... a lot.   Felt like secure area.   Room is neat and clean.    We were checking out (still occupying the room) when the wait staff came in (at 9am...on Sunday) and starting cleaning !!!  We tried to tell this person to give us some time,  but he didnt speak English and kept right on going.  RUDE!!!  for this, we cant recommend or will return.More</t>
   </si>
   <si>
+    <t>2TravlinFools</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r429866753-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>We had initially planned to stay 4 nights, but a family emergency required that we stay 3 nights longer, during the State Fair and over the TX/OU Football Weekend.  When we requested an extension of our stay, the management team of the 2 Ks and Joe, between Residence Inn and the affiliate Courtyard next door, made the request seamless and pain free (even though we were using Marriott Points).  Can't say enough regarding how appreciative we are toward these guys.  Breakfast was very good and evening offerings consisted of wine and beer  The property was clean and the parking lots were safe.  Several very good restaurants were within easy walking distance to the strip center across the street.More</t>
   </si>
   <si>
+    <t>Emcoinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r417290650-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>This hotel is conveniently located in Dallas next to a major freeway and you can get anywhere from here. Room was comfortable, and clean. We liked the suite and a nice layout. The street behind the hotel was a bit noisy but overall, it was a pleasant stay. Breakfast was served everyday and it was  good, fresh, and some variety was offered.More</t>
   </si>
   <si>
+    <t>M B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r414761410-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>I was visiting with friends so I at least wanted 2 double beds or a dbl and a sofa bed. To my surprise when I entered the room it was a 2 bedroom 2 bath suite, full kitchen, and it gets even better...a walkout patio! The room was extremely clean (thank you housekeeping), spacious, updated and well stocked with necessities and nice landscaping. Desk staff was friendly only one had a name tag I think it was Kylar (sp). More</t>
   </si>
   <si>
+    <t>Jeff T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r387431451-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>The stay was decent.  Started off in a one bedroom. The staff was very accomodsting and moved us into a two bedroom suite. Pretty spacious and they include a full kitchen.  Hot breakfast was good, provided a variety every am. The hotel also hosts a social event on Mondays thru Wednesdays which are pretty good. Now for the bad:  The pool is nice but you cant enjoy sitting around it due to all the mosquitos biting.  We noticed our shower curtain had small mold issues. The AC Works great in the main living room however its slightly warmer in the 2 bedrooms. Although the hotel is listed as new as the Residence Inn, you can still notice leftovers from what the hotel used to be.More</t>
   </si>
   <si>
+    <t>tlcmomof7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r371749663-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>This is a great hotel with a great location.  We were flying out of Love Field early and wanted to stay close to the airport, but also convenient to the highway.  This hotel was delightful.  The room was clean and comfortable.  The bed was the perfect firmness and the pillows were great too-not to big or flat.  We were only here from around 5PM to 5AM, but it was a Wednesday and they have a great manager's reception.  They served what they called nachos, but I would have called it a taco salad and was so good and plentiful that it served as dinner for us.  There were chips, salsa, lettuce, grated cheese, black olives, onions, spiced ground beef, sour cream and fresh made guacamole. There was also free wine and beer, but we had water to drink. The food was delicious.  We watched TV on our flat screen in our bed and had a great night sleep.  I will definitely stay here again.  It was very quiet despite it was right next to the expressway.More</t>
   </si>
   <si>
+    <t>lgelkins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r371411089-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>Location: This hotel was in a good location for accessing the highway and driving where we needed to go. It's not a great part of town, so I wouldn't walk around at night. There aren't any decent restaurants within the surrounding blocks.Rooms: I've stayed in quite a few Residence Inns, and the amenities are comparable to other properties. The rooms are dark, with very little natural light. Living area and second bedroom a bit cramped. Everything was functional, if a little dated.Other: The staff was friendly and available. The breakfast was sufficient and what I expect at this brand. There is also the small market in the lobby for snacks and necessities. We did not use the pool. The parking was tight, and we needed to park at the other end of the lot at night, which was fine except when it was pouring rain the next morning.I probably wouldn't stay here again because we were staying with friends who chose this location. However, for the very cheap price, it was a good value.More</t>
   </si>
   <si>
+    <t>TravellerUSA1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r359840430-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>Stayed here last weekend and enjoyed it. Location is great - next to Freeway 45N. Walking distance to CVS, Tom Thumbs Groceries.... Room is clean, neat and cozy. Kitchen was equipped with all silver wares, plates, cups... coffee maker and full size fridge. Checked-in and checked-out was fast and convenience. Free continental breakfast was a great deal - love the waffles here.....Takes about 10 minutes  drive to Highland Park Village where you can shop at famous stores like Tory Burch, Dior, MK, Hermes....Will stay here again.More</t>
   </si>
   <si>
+    <t>Kduay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r357708785-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>The location is fairly convenient and right next to an expressway.  Considering the location, the rooms are fairly quiet except for slamming doors.  Front desk staff friendly and courteous.The bedroom is separate from the living room/kitchen and can be closed off.  Bedroom TV is basically a computer monitor - very small.  The kitchen has granite countertops - a nice touch but it is very small.  The living room is comfortable but not overly large.  I actually felt a little cramped. You can not set the heat any higher than 68 degrees.  A little too cool on chilly mornings.Entrance door to my room had a gap between door and jamb. Mid-size refrigerator, small stove.  Multi-cup coffee maker (definitely a plus).Outdoor pool is located next to a busy street.Breakfast is fairly good with some variety and opens early. The facilities are adjacent to a Courtyard and the parking is very sparse.More</t>
   </si>
   <si>
+    <t>Barney_Thelma_Lou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r357182680-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>It was late and this location helped us out with a two bedroom suite at a late hour. The late night attendant was very nice and helpful. The suite was very nice however I have to say the shower stall in the adjacent bathroom was small. I am a short, round person and had to open the shower door to get enough room to lift my hands to shampoo my hair. (Haha) The other bathroom though was nice and roomy. The breakfast was very good. All the fam was satisfied.More</t>
   </si>
   <si>
+    <t>Diana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r341095908-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>Nice clean, comfortable hotel located conveniently off the expressway. The staff is very friendly and helpful. I stay here often when in the area for business and never had a bad experience. You know what to expect, no surprises!More</t>
   </si>
   <si>
+    <t>NHBeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r339023768-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
     <t>This was a great hotel for our family gathering. The rooms are spacious and comfortable. With a recent update, the room decor was fresh and new. It was convenient to the highway, and the staff were very nice. We will stay here again when we are in the area, as we thought it offered good value.More</t>
   </si>
   <si>
+    <t>Wowx3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r318686371-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -600,6 +654,9 @@
     <t>This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our...This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our building to park so we were pleasantly surprised by that.  I did question the need to lock the gate in the back of the    parking lot all of the time.  I wanted to enter that way once and that was not an option.  Enjoyed the stay.More</t>
   </si>
   <si>
+    <t>MeganMonte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r299368953-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>I moved from New Jersey to Texas and needed to stay in an hotel for two weeks prior to moving into my apartment. The Residence Inn was perfect. The accommodations were great -- the room had a separate bedroom from the living area and a kitchen, which was fully stocked so it was easy to cook. The hotel allows pets and each room includes a magnet that says "4 legged guest", which can be placed on the exterior door to alert the staff that a pet is inside. The hotel offered a complimentary breakfast every day (extended hours on the weekend) and Monday-Thursday had evening events, such as a BBQ or a food truck. The pool was also very nice. The hotel always seemed to be packed but the pool was quiet. There is a gas barbeque by the pool and while we didn't use it, I did see other guests grilling. The Courtyard by Marriott is across the parking lot and had a Starbucks, so we would usually go there after breakfast to get coffee since the coffee at breakfast wasn't that good. The Residence Inn was great for my needs and if you are looking for an apartment-like hotel, this is a perfect spot.More</t>
   </si>
   <si>
+    <t>Orlando M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r289870439-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,6 +714,9 @@
     <t>For staying for almost a week in Dallas we had to find a nice place with a full kitchen while still affordable. We like to cook our own meals when staying abroad for a while. After travelling through Texas (and eating lot of fast food) for a week we settled here and we did not regret it: the unique layout of the rooms, clustered in various buildings ensured that you never had any busy elevator or so. The ladies at the lobby where very friendly and we did have some laughter together. Nice pool/swimming area. We also enjoyed our free complimentary breakfast and the free high-speed wifi. Plus, it was in the middle of everything, conveniently located along the highway. We would love to stay here again.More</t>
   </si>
   <si>
+    <t>BJW_ATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r281024713-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>I was here for a conference at SMU, which is about a 10 minute drive away. The hotel has been recently updated. The rooms are nice, bright, and spacious. The beds are comfortable. There is a good amount of road noise and the walls are thin, so a loud neighbor would be a serious issue. I spent time hanging out near the nice pool area. The breakfast was pretty good for a hotel breakfast. The staff is friendly. The computer did not work for one of the days I stayed here, and the computers across the street at the Courtyard were so slow I would almost call them nonfunctional. Overall, I would recommend this hotel for business travel, with slight hesitation for a light sleeper.More</t>
   </si>
   <si>
+    <t>michskier8181</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r263662914-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>I stayed here for business for 6 nights.   As someone who normally stays at Marriott properties, I found this property to be needing some help.  Personally, I found the layout to be a bit confusing.   I'm also not a fan of exterior hallways.  Pros: the staff.   Friendly and very accommodating.   The property is older and the staff was friendly when I had issues with my room. Cons : cleanliness.   bathroom clearly wasn't cleaned when I checked in.   Mattress also had blood on it.   I discovered that after being there a few days which was a little unsettling.  I was told the property was being renovated.  I really hope that's the case.  I would have rated this property lower had the staff not done what they did to accommodate after I had problems with the room.  They were friendly and probably one of the nicest staffs I've encountered in a while.  Despite the ranking,  I would give this hotel another try based on the staff.   I really hope they do update this location.More</t>
   </si>
   <si>
+    <t>EvangHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r255193312-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -738,6 +807,9 @@
     <t>Stayed completely on points and my stay was very comfortable.  The staff was very friendly and courteous.  This location is conveniently located near the highway and popular attractions and gas stations. More</t>
   </si>
   <si>
+    <t>kaye c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r248443909-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,6 +837,9 @@
     <t>On the cross over from September to October of 2014, I slipped into Dallas to cover the Ebola outbreak at Texas Health Presbyterian Hospital ! Someplace close I need to stay since the hours of media coverage would be around the clock. Thank Heaven and 7/11 for the Residence Inn at Central Express way! The good; was the staff that greeted me late at night around 11:30pm after a long drive from Houston, no one gave me any grief about being of service....Helpful in every way, from letting me park up front in the security golf cart space so I could unload my gear and luggage.Rooms...spacious, kitchen clean, sheets soft and clean, bathroom clean always a plus! Even the day side crew from the house keepers to the grounds keepers all greeted me....Down side wasn't the Ebola cases I was covering but that the parking spaces were to close together for anything bigger than a Chevy Spark or even a Mini Cooper on the lot facing the access road.Hallway carpet needed replacing from the go old days of the late 90's and the wall paper from  a house in the movie Casino...but who's watching, I'm here to work, chill, sleep and get answers from the Front desk...all of which I got at any hour of the day...Clean grounds, secure feeling....yes I'd stay again even if the place is a bit dated. Worth the room rate...More</t>
   </si>
   <si>
+    <t>jlbran84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r230214947-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -787,6 +862,9 @@
   </si>
   <si>
     <t>The rooms were very spacious, although the bathrooms were small. I had booked a single suite, but they upgraded me. The front desk lady was nice, but she wasn't very professional and didn't seem in a hurry to help me (I arrived late at night). It was kind of difficult to get to my room and parking was far away. The biggest complaint was the internet. I needed to do some work, but it wouldn't let me sign into the Internet. I called the front desk, and they gave me another number to call. The guy I spoke to said another name was on the room, but he eventually fixed it. All in all, it was just an ok stay, and I probably won't stay there again.More</t>
+  </si>
+  <si>
+    <t>BobbyHank</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r227354439-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -817,6 +895,9 @@
 While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book...Looked up Pet Friendly hotels. Found myself on Marriott.com website.Was please to see that Residence Inn was pet friendly because I generally like Marriott hotels. Booked my room and arrived at 10pm.  Surprised. The Residence Inn wanted me to pay $100 Pet Fee and sign a indemnity contract. Had no choice to pay (although the contract says that if the dog makes bad, you'll have to pay more). My well-behaved 12 pound Malti-Poo didn't realize we were staying in a $200+ a night hotel. Given that the room smelled of chemicals, the shower curtain was falling down, and the bedroom TV was the smallest she's ever seen, my dog didn't figure out that this was a $200+ a night hotel while she stayed there either.I will say that while management refused to budge (the night clerk was kind enough to call), the night and day staff were courteous and friendly.  Breakfast was not exciting so we left and ate out.While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book your room) before you look under room details: there on the right column, you'll see the charge. So while your rate will never mention it, BEWARE. And consider other alternatives.More</t>
   </si>
   <si>
+    <t>Ann H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r212401816-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -844,6 +925,9 @@
     <t>My husband and I took a four day getaway weekend in Dallas, and spent two of our nights in this Residence Inn. We couldn't say enough good things about the property and our stay. The staff - front desk, housekeeping, food service - are all fantastic. The hotel  - main lobby, eating area, pool area, hallways and common areas, and our room - all super clean, beautifully appointed and maintained, just lovely. Breakfast was different both mornings, fresh, hot, and well stocked. We enjoyed our one bedroom suite so much that, on our second day there, we opted to forego our planned drive over to Fort Worth to see the Stockyard District, and spent a glorious afternoon in our beautiful, quiet, cool room reading, dozing, and watching TV. This hotel is surrounded by dozens of wonderful restaurants (don't miss The Magic Time Machine right across Belt Line Rd). It is also within minutes of the GW Bush Library/Museum, The Museum of Biblical Art, the Downtown Dallas Segway Tour, and Reunion Tower. Highest recommendation, and hope we get to come back!More</t>
   </si>
   <si>
+    <t>bigtimetraveler2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r202136126-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -869,6 +953,9 @@
   </si>
   <si>
     <t>We have had some good experiences in Residence Inns in the past-however, this hotel is in a rather run down location, facing an elevated freeway, and way over priced for the room (much smaller than the usual Residence Inn rooms), condition of the hotel (pretty run down, needs a paint job), and service (no decent restaurants within walking distance--had to order pizza to the room).  The two women that staff the front desk are very nice though!More</t>
+  </si>
+  <si>
+    <t>Zach D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r197910258-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -906,6 +993,9 @@
 The pool...We stayed here because there was a group on and I am a Mariott Rewards Elite member, AND I have stayed at MANY residence inn's across the US.This was a great location, right off the expressway and MINUTES away from most things in Dallas. We arrived and there was a little confusion on our room, but it was fixed, we were put into a one bedroom suite as we had reserved that had a door (we brought kids with us) and that fixed the problem, the night staff was very accommodating to our request.Breakfast was good, had a nice selection (basic eggs, sausage, OJ, Milk, Cereal, Waffles etc) ONE tip I could give the hotel is GET ANOTHER WAFFLE MAKER! Everyone LOVED the texas shaped waffles but had to wait forever to make one since there was just one of them! They also serve a dinner type meal M-Tu-Wed, which while we didn't get to try is a nice perk for business travelers watching their expense accounts.I read some other reviews and can say that while this isn't a 2014 newly built property it really is in great shape, wear and tear here and there but nothing that was really out of the ordinary from other hotels, there were no stains on the floors, no holes in walls, doors worked great, the noise outside the halls and outside were nothing bad and no weird smells!The pool was a little highly chlorinated and I think someone might have just not known how much to really put in, but it was a heated pool and the hot tub wasn't working at the time, but keep in mind that it was 40 degrees the day before and just into the mid 60's so I am sure it was just opening season.Also one tip I would say is bring your own pillows if you can, I did read on another review where someone said the pillows were small, yes they are and hard! The beds were comfortable but I would recommend the hotel upgrade and replace all those little tiny rocks (pillows).I think the front desk pulls double duty for housekeeping as a few requests that we requested never happened like an extra blanket and a few towels brought to our room but I could tell the front desk staff was working their hardest so I let it slide and just dealt with it. Over all we had a very nice stay, and this is a property I would recommend to anyone looking for a place to stay, centrally located and with a nice friendly staff.More</t>
   </si>
   <si>
+    <t>Tenya H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r197891897-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1011,9 @@
     <t>Honestly, the size of the room was great. I had my fiance' and my two teen sons with me. My son's switched out the bedroom, because we were there two nights. While one was sleeping in the bedroom, the other slept on the couch. We had attempted to pull out the sleeper sofa, but decided against it because we found cookie crumbs and other items underneath the mattress. The couch itself didn't look that clean, so I bought new linen and he slept on it instead. There was the hassle of using the key card everywhere, but when it comes to safety, I'd rather be safe than sorry. There was also the issue of how our room was being paid, we secured the deposit with a credit card, but when we got there, we wanted to pay with cash. But everything was quickly cleared up with a phone call to the manager. Overall, our stay there was pleasant. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>ShazaamIam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r169635501-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1039,9 @@
   </si>
   <si>
     <t>My husband &amp; I stayed at this property in the Fall of 2012.  Because of the good experience there, we decided to stay there again this July.  We had a small family reunion of 2 nights.  Had a 2 bedroom suite &amp; two 1 bedroom suites.  Staff was able to give us rooms very close together.  All rooms were very clean.  Rooms are not large, but adequate.  While no one cooked, the large refrigerator was nice for us to stock drinks and snacks for the kids.  Parking is free and because we had ground floor rooms at the back of the property, we were able to park very close to our rooms.  Yes, it is close to a busy highway, but there was no problem with road noise.  We liked the location because of the easy highway access.  All of the family enjoyed the hot breakfast--biscuits, sausage, eggs, potatoes, fruit, and make-your-own waffles.  We were not there on the days they offer an evening snack.  Overall, this was a great experience.  For the costs of the rooms, I think it was a great value.  We looked at staying at a more expensive hotel, but for the price and amenities, they couldn't match what this Residence Inn did for us.  We will stay there again.More</t>
+  </si>
+  <si>
+    <t>mountainwoman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r163629847-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -981,6 +1077,9 @@
 Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I...I spent three nights in a 2 bedroom suite.  I planned a stay for a total of 6 famlly units gathering for a funeral in Dallas, making all the reservations and paying for all the rooms.  The staff nailed the requested accommodations and even put us in rooms near one another.The unit was clean.  It was hard to open the refrigerator door.  The book with hotel information was missing.  The mirrored closet doors were off the track at the bottom.  My son's room had a laundry basket that I wished we had.  Living area was cramped for 4 people, but having 2 bathrooms was a joy.  The coffee pot spilled over the first morning, with coffee spilling all over the counter rather than dripping into the pot.  After I cleaned it by running dishwater soap through it, it did not malfunction again.  There were average level toiletries, and more available by request at the front desk.  The gym was closed two of the three mornings I was there for some malfunction.  Front desk staff was always nice and helpful.  More willing to help out than expected.  My son took the kids to the pool one morning and discovered it did not open until 9 AM.  The staff told him to go ahead and let the kids swim.  Nice.  Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I can get coffee and a hot breakfast and not have to go out for a meal in the morning. It was a good location for us.  The freeway noise was noticeable at times, but did not keep me up at night nor did it interrupt conversation during the day.  I never felt unsafe on the property, but did not choose to walk or run in the neighborhood when the gym was closed.  I wonder if I could have used the gym at the courtyard across the street.More</t>
   </si>
   <si>
+    <t>Zeal2122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r162402657-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1107,9 @@
     <t>Wow!  I have only had one hotel that I have ever felt more unsafe to stay in after years of travel.  I had my wife and children and needed something close to this area and thought that the property would be a reasonable choice, but we were wrong.  We used the outdoor pool, that was fine for the kids to use, but the cast of characters that sat out around the pool area made me feel it was unsafe.  The room had been updated and was fine, but we had ants in both bathrooms, and the managers response was to have someone meet us after 6:30 when we were out of the room.  We were told if we were not there, they would not be able to resolve the problem.  Finally, paramedics were called to the hotel and we were attempting to leave the parking lot.  We soon realized that they were blocking the only entrance in and out of the parking area.  That did not seem normal, and at that time we realized they had security guards riding around the parking lot in a golf cart.  That seemed to confirm my suspicions of security concerns on the property.More</t>
   </si>
   <si>
+    <t>Tiffany M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r155901185-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1126,9 @@
   </si>
   <si>
     <t>This hotel was amazing. The rooms were magnificent, the food was great, and the hotel staff was very nice. The only thing that stinks is the stairs. But, suck it up and excercise a little. It is very close to everything near the SMU area. The neighborhood appears a little shady, but don't be concerned at the hotel. More</t>
+  </si>
+  <si>
+    <t>Tammy B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r153873046-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1051,6 +1156,9 @@
 Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all...Stayed at this hotel for the NCA Allstar Cheerleading competition at the Dallas Convention Center.  It's about a 20 minute drive to the convention center if there is no traffic, can easily double or more if there is extensive traffic.  I wish there was another one of these hotels closer to the actual convention center, then the stay would have been ideal.Check in was seamless.  I must comment on the staff at this location.  Upon entering, we were greeted immediately by the front desk personnel and both people were extremely friendly and helpful.  I asked if she had a 2 bedroom villa NOT facing the central expressway but she told me she only had 2 left and both were facing it.  She did say that they had just put in new, more soundproof windows on those particular rooms so it shouldn't be bad.  It was fine, and it was nice that she at least tried to get us rooms not facing the busy freeway.  Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all 4 nights saw instances of ambulances and firetruck sirens, etc, various times during the night.  There was also a freeway crash directly outside our room one night and the subsequent sirens and firetrucks, etc.  So while it was not completely annoying, I can't imagine anyone saying they heard NO noise, when staying in these forward expressway rooms.  Thankfully, I don't think there are that many rooms facing this way, and I definitely would ask at check in if you can possibly NOT have those rooms.  The noise aside, it still wasn't enough to make me NOT like the hotel.  But if you are wanting a quieter experience, request to not face Central Expressway. Our 2 bedroom Villa was exactly as expected and true to the pictures they use on the website.  Beds were extremely comfortable in both rooms, with what seemed like a memory foam type mattress, with 4 comfortable pillows.  Bathrooms were single sinked, one bathroom had a tub/shower combo, the other bedroom only had a small shower.  The other people we shared a room with said their tiny shower reminded them of the shower in their trailer, however, I had no complaints about the shower/tub combo in our bathroom except we ran out of hot water in the evenings to take a shower, which I thought was strange. Maid service was good, rooms were clean each evening we arrived back to our room.  We didn't really use the kitchen in our unit, but the few dishes or glasses that were used were washed and put away for us.  Couch was comfortable, there is a fireplace but as far as I could tell either it's not usable or they expect you to buy your own logs perhaps.  Either way, we would never have used it anyway for heat.  The only complaint I have about the heat was, it was a bit chilly at night during our stay and if the thermostat was set at 70 or below it seemed to only blow cold air, so we had to set the thermostat at about 74-75 degrees (much to high, really?) for it to then get warm in the room, causing us to then get up in the middle of the night to turn it down.  It just seems like something is wrong with the thermostat in our particular room, but again...nothing terrible.  Free breakfast in the mornings was fine.  Typical "free breakfast" fare.  Eggs were a little runny, but edible.  Wonderful yogurt parfaits won me over.  There is a waffle station as well.  They have a neat little coffee station available 24 hours a day that has tea, hot chocolate, and coffee.  We stopped here every time we left and came home to grab a quick cup of coffee.  They also have a "happy hour" type eventing Monday-Thursday with a free dinner in the evenings, which was nice.  We arrived on a Thursday and it looked like it was BBQ'd hamburgers.  I thought I even saw some bud light beer on ice in there.  Where they shine:  The staff.  By far, the friendliest, most helpful staff.  They were happy to give us pre-printed directions to just about anywhere we needed to go.  One day they even filled up our ice chest we used for food at the convention center.  They provided towels for us late one evening for a quick visit to the jacuzzi and were always there to greet us when we came or went.  They seemed genuinely interested in our competition, how we did, etc.  Even the other patrons staying at the hotel all seemed so friendly, asking questions about how the girls were doing, etc.  I haven't encountered such a "friendly atmosphere" in a hotel in a long time.  Perhaps it's because it's more of an extended-stay type place.  Either way, it was a true pleasure staying here and I would recommend it to anyone in need of a no-frills, no-nonsense place to stay within a decent distance of the convention center.More</t>
   </si>
   <si>
+    <t>obiboo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r149753535-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1180,9 @@
     <t>Stayed 1/2/13 - 1/12/13 on a work trip.  This hotel is like having a small apartment.  Computer desk, free wifi, couch, chair, footstool, coffee table, 2 flat screen TV's (one in living room/one in bedroom), fireplace, breakfast bar with two stools, everything in the kitchen except an oven with all the utensils and cookware you could need, separate bathroom, and a bedroom with a sliding door leading to a balcony.  A huge breakfast spread is provided daily &amp; Mon. - Thurs. beer, wine, &amp; enough food to make a dinner out of is provided during social hour.  The hotel has some cosmetic issues; my balcony had no light fixture &amp; the cover was an empty frame.  Also the slider door latch was floppy &amp; hard to lock but the doors do have a security bar which made me feel more secure.  I would love this hotel to provide soap dishes so I didn't have to open a new bar every day but they are green in their towel &amp; linen changing management.  They are pet friendly which isn't bad if you're not by a yappy dog.  Rooms are fairly sound proof unless an elephant moves in above you and likes to pace the floor.  There is a grocery store, drugstore, &amp; restaurants across the street.  Overall I would stay at this chain again.More</t>
   </si>
   <si>
+    <t>Jane R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r129162290-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1204,9 @@
     <t>My husband &amp; I found the Residence Inn to be the perfect place to stay while visiting family nearby.  Based on other reviewers advice we requested an upstairs room away from the freeway and were given one on the 3rd floor in Bldg#5 which was perfect - fresh, clean &amp; quiet - even though our room looked out onto a side street.  We were impressed with the planning that obviously went into the details of the suite renovations.  The small space functions like a much larger one.  The kitchen was fully supplied - my goodness - even a dishwasher and disposal.  Breakfast included a wide selection from scrambled eggs to waffles, fruit and hot oatmeal.  The staff was very friendly and helpful.  We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>nativem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r125852097-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1228,9 @@
     <t>This is a newly renovated nice clean place. The rooms are like a small apartment. Yes it is next to an expressway but you can see that from reading the address. We had an exterior room right next to the highway. I am a light sleeper and I was fine. The room is 4 rooms with a full mini kitchen including a dishwasher, granite counter tops. The eating bar is a 2 seater. The small living room had a fireplace. The bedroom was separated by 2 large sliding doors. There is a TV the bedroom and a clock with soothing sounds. The bath has both shower and tub. The place is decorated with bright modern colors. There is a pool and hot tub, and more coffer provided in lobby.  The free breakfast buffet is good and has whipped cream. I loved that on my hot chocolate in the morning.  There is a grocery store right next door, a Whole Foods down the street and lot of shopping. We had easy access to the highway and were just minutes from downtown.More</t>
   </si>
   <si>
+    <t>mom500</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r125320596-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1258,9 @@
     <t>Located directly adjacent to central expressway this Residence Inn is not what I expect from a Marriott property.  The freeway noise never stops! We were given a room with an exterior hallway.  Not good for those traveling with children.  Friends who stayed at the same time we were there reported dirty kitchens, even after housekeepjing supposedly came to clean.  We had dirty silverware in our unit.  We also ran out of hot water on two occasions.  Under no circumstances woul I ever stay here again.More</t>
   </si>
   <si>
+    <t>godof86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r121936107-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1282,9 @@
     <t>Stayed there for about 2 weeks, Oct-Nov  2011.The expected Residence Inn Benefits - Neat and clean, very spacious, greenery, Cleanups done daily. Very good WiFi. Breakfast, evening snacks (which aro probably better than many other residence inns). Shuttle service availability is a little on and off. Cooking utensils and oven / grill are available in the room. Decent parking space. Only one Laundry machines in the entire hotel. Hotel's a little labyrinthine - difficult to get from one room to another.Staff are very courteous and helpful. Location: On the South Central Expressway, and there's a Marriott Courtyard right next doors. Not too far away from Downtown and Uptown / Highland Park areas. Fairly well connected.I recommend this place for longish (1-3 weeks or longer) business stays.More</t>
   </si>
   <si>
+    <t>BlueMarlinDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r120461305-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1303,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Jerald M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r118949958-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1327,9 @@
     <t>I made reservations for 3 rooms to attend a funeral in Dallas with my family. The reservation agent went out of her way to get me a special rate. Upon arrival, this same woman greeted me with warmth, friendliness, and true humanity. The rooms had recently been renovated, and were exceptionally comfortable.    The evening happy hour was very nice with food and beer, wine, or soda. The buffet breakfast offered a huge selection of eggs, sausage, potatoes, waffles, hot cereal, cold cereal, pastries, etc.    The entire staff went out of their way to make sure that our stay was pleasant and home-like. I would definitely stay at this property again!!More</t>
   </si>
   <si>
+    <t>mskeller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r115965400-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1348,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>Wisconsinite13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r115503613-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1369,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>trip100012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r85059174-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1253,6 +1388,9 @@
   </si>
   <si>
     <t>October 2010</t>
+  </si>
+  <si>
+    <t>Generic90</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r19684277-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1284,6 +1422,9 @@
 The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting...I was booked into this property - along with other colleagues - for a consulting project, and was unfortunate enough to stay there for several weeks.The property is not in a scenic spot, though it does have the asset of being in a relatively convenient area, as it is within a short drive to area shopping and other attractions.That being said, the whole lodging experience was a nightmare.  The rooms were horribly filthy and incredibly small to truly be suites.  One of my colleagues had a significant silverfish infestation, and the staff refused to move her to a different room, much less resolve the infestation.  Others of us battled roaches and/or fire ants.  The furniture, fixtures, and appliances were all in poor shape - if not outright broken.  I personally became known as "Mr. Fix-It", because I had several things break or fall off (such as the sliding door between the living area and bedroom) and was left to repair them myself, again because of staff indifference.  Though these were billed as non-smoking suites, it was obvious from the strong residual odors on the furniture that smoking had occurred in the suites.The walls were also very thin, so noise from other rooms and outside were impossible to ignore.  The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting your clothes clean.  The on-site pool facility was closed for the duration of our stay, though from appearances, I doubt any of us would have used it.  As with other Residence Inn properties, there was a free breakfast service.  But the food quality was terrible; the hot items were frequently lukewarm to cold and poor-tasting, and other items looked or tasted spoiled.  The staff from management on down was horrendous.  There was only one of the front desk staff - a nice lady named Betty - who actually seemed to care and who tried her best to make things right despite the circumstances.  Beyond that, there was a complete and thorough lack of caring, responsiveness, or general customer service.  The housekeeping staff did their jobs poorly, and several of us dealt with theft issues that we could only track to that staff.  When - either individually or via our firm's owner - tried to resolve our many issues with the property management, we were largely ignored or otherwise told that nothing was wrong with their facility.After about six weeks, we all moved to another competing property about a mile away, which turned out to be an eminently better lodging experience than this property.  We later learned that this Residence Inn served as temporary lodging for refugees from Hurricane Katrina.  While that may have explained some of the disrepair, it was certainly no excuse for not making any strides towards resolving them or making right by their existing guests.Even being over a year removed from this lodging experience, I continue to be stunned at just how poor this facility was.  As a Marriott Rewards member and frequent traveler, this was unquestionably the worst Marriott property I had ever been at.  I am amazed that Marriott would even tolerate the condition of this property and would continue to have its banner on it.  It is a detriment to their reputation for quality lodging.More</t>
   </si>
   <si>
+    <t>HudsonValleyGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r16470665-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1440,9 @@
     <t>Stayed here for 2 weeks.  The room was very clean, though slightly worn in spots.  The staff was excellent.The free breakfast was excellent, with a friendly staff.Right off the highway, so not a scenic spot, but convenient to most areas around Dallas.One thing I didn't like was in my room/suite, the TV could not be seen from the bed.</t>
   </si>
   <si>
+    <t>JasonLab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r12362956-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +1462,9 @@
   </si>
   <si>
     <t>I've had to stay in this area of Dallas 8 separate times over the past 6 months.  After trying three other hotels, I've thankfully settled on the Residence Inn.  It was exactly what I needed as a business traveler.  Pros: Clean rooms. Consistent each time I stayed there (now 4 times in a row).  Friendly employees.  Slightly better than average hotel breakfast food selection. Cons: Slower than average free internet.  No wifi in rooms, short ethernet cable provided, only one ethernet outlet in a two bedroom suite.  I stayed in a third floor / top floor room and heard birds landing and taking off all night long. I'd like the hotel to install some type of anti-bird landing devices before I stay in a top floor room again.More</t>
+  </si>
+  <si>
+    <t>findthefairway</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r1651754-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1840,43 +1987,47 @@
       <c r="A2" t="n">
         <v>25166</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175626</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1896,50 +2047,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>25166</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1951,56 +2106,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25166</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>4829</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2014,41 +2173,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>25166</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175627</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -2067,50 +2230,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25166</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2126,56 +2293,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>25166</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>967</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2193,56 +2364,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>25166</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175629</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2260,56 +2435,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>25166</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175630</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2327,56 +2506,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>25166</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>44731</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2388,56 +2571,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>25166</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>50028</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2449,56 +2636,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>25166</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175631</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2514,56 +2705,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>25166</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175632</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2581,56 +2776,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>25166</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175633</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2648,56 +2847,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>25166</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>38329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2715,56 +2918,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>25166</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175634</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>163</v>
       </c>
-      <c r="J16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>150</v>
-      </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2776,56 +2983,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>25166</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>29574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2837,56 +3048,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>25166</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175635</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2904,47 +3119,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>25166</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175636</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2961,56 +3180,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="X19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>25166</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175637</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3028,56 +3251,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>25166</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>2509</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3095,56 +3322,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>25166</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175638</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3160,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>25166</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175639</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3225,56 +3460,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>25166</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175640</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3286,56 +3525,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>25166</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>66414</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3353,56 +3596,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25166</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>91161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3418,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25166</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175641</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3483,56 +3734,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25166</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10997</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3554,56 +3809,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>25166</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>57587</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3625,56 +3884,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>25166</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>25024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3696,56 +3959,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>25166</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175642</v>
+      </c>
+      <c r="C31" t="s">
+        <v>321</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3767,56 +4034,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="X31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>25166</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>84921</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3838,56 +4109,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>25166</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175643</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3909,56 +4184,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>25166</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175644</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3978,47 +4257,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>25166</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>7936</v>
+      </c>
+      <c r="C35" t="s">
+        <v>357</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -4045,56 +4328,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>25166</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>17624</v>
+      </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4116,56 +4403,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X36" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>25166</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175645</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4187,56 +4478,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X37" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25166</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>15747</v>
+      </c>
+      <c r="C38" t="s">
+        <v>380</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="J38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4258,56 +4553,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X38" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>25166</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175646</v>
+      </c>
+      <c r="C39" t="s">
+        <v>388</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4329,56 +4628,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>25166</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175647</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4400,56 +4703,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="X40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>25166</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175648</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O41" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4473,50 +4780,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>25166</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>80158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>414</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="O42" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4540,50 +4851,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>25166</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175649</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4607,50 +4922,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>25166</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175650</v>
+      </c>
+      <c r="C44" t="s">
+        <v>429</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4670,50 +4989,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>25166</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175651</v>
+      </c>
+      <c r="C45" t="s">
+        <v>436</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="J45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="K45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4733,50 +5056,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>25166</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175652</v>
+      </c>
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="J46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="L46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4800,50 +5127,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>25166</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>44771</v>
+      </c>
+      <c r="C47" t="s">
+        <v>450</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="J47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="K47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="L47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="O47" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4859,47 +5190,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X47" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>25166</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C48" t="s">
+        <v>458</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="J48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="K48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="L48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -4926,50 +5261,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>25166</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175653</v>
+      </c>
+      <c r="C49" t="s">
+        <v>464</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="J49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="K49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="L49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="O49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4993,41 +5332,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>25166</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175654</v>
+      </c>
+      <c r="C50" t="s">
+        <v>472</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -5046,7 +5389,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_651.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_651.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="686">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>DanHohnbaum</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r578384140-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109438</t>
+  </si>
+  <si>
+    <t>578384140</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Clean and good location off 75</t>
+  </si>
+  <si>
+    <t>We stop here for the night of our way to Austin . The rooms were clean , there was a kitchen area with fridge , micro, stove and dishes etc. breakfast included fresh pineapple and melon, bananas, oatmeal , breads, waffles, eggs , yogurt etc... Down the road on central hwy  is a trader joes and the univ Smu where George bush Jr. Persident liabray is locationed . We did stop there no free parking .The front desk was friendly .</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r576758495-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>576758495</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Second Time. Great experience.</t>
+  </si>
+  <si>
+    <t>Second time I stayed here. Very good experience. Renovations underway last year are completed. Clean convenient location, pleasant staff. Just pay attention. Getting around on the LBJ access roads can be confusing. Also there is no express lanes exit close to hotel. Have to get off an exit early or later. During the day the back parking lot gate is open. IF you are have to get to that side of time you can save time and don't have to go all the way around on the LBJ access roads.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r540409989-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109438</t>
-  </si>
-  <si>
     <t>540409989</t>
   </si>
   <si>
@@ -180,12 +219,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Sylvia R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r525240974-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,9 +249,6 @@
     <t>This Residence Inn is one of the cleanest hotels I've ever stayed in. Nice complimentary full breakfast, great location, walking distance to restaurants, stores, etc. Great room, with a nice layout. Unfortunately, I hadn't realized that I was staying in a hostel and would be sharing my room with (3) others. During day three of a four day trip, I opened the closet to grab the iron and was introduced to my new bestie CR#1 (cockroach #1). I called the front desk and soon a housekeeper showed up and removed my unwanted guest.After getting over the shock, I went back to getting ready. As I stood at the mirror applying my make-up, I noticed something nearly fall on me in the reflection. I screamed and ran from the bathroom and was followed out by new friend #CR2....I guess he didn't get the memo that his friend had already left. I watched him crawl from the bathroom into the kitchen and behind the dishwasher. Once again, I returned to the bathroom, only to be greeted by friend CR#3. Yes, that totals 3 very large Cockroaches!!!!! I called the front desk and requested a new room. Hopefully no more unwelcome guests!!!More</t>
   </si>
   <si>
-    <t>Sally L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r507335080-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,7 +267,52 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>SirRead</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r477568992-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>477568992</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I wanted to take the time to express my dissatisfaction with one of your staff members. While traveling to Texas from Georgia with my parents and fiancé to celebrate my Grandmothers birthday, we decided to stay at your Residence Inn off of Central Expressway for convenience of the location as well as the room rate. I was very appreciative when we called and requested an early check in if possible and was told that rooms were indeed available. However, soon after our arrival I made the acquaintance of your staff member, John Trousdale. Upon checking in, I could tell that he didn’t have a pleasant personality, but I disregarded his dry demeanor. While taking all of our information, John asked if we had more than 1 rental car and I replied no. He then gave me a parking decal to place on our dashboard. I then inquired that if we had visitors would they also need parking decals because I wasn’t sure if cars without them would get booted or towed from the property. He replied that only if we were having overnight guest then they would need one. I informed him that no overnight guest would be staying and he then rudely replied “and please don’t get loud while you all are staying here”. I was confused on why he would make such a comment. I could see maybe if we were a group of young spring breakers or...I wanted to take the time to express my dissatisfaction with one of your staff members. While traveling to Texas from Georgia with my parents and fiancé to celebrate my Grandmothers birthday, we decided to stay at your Residence Inn off of Central Expressway for convenience of the location as well as the room rate. I was very appreciative when we called and requested an early check in if possible and was told that rooms were indeed available. However, soon after our arrival I made the acquaintance of your staff member, John Trousdale. Upon checking in, I could tell that he didn’t have a pleasant personality, but I disregarded his dry demeanor. While taking all of our information, John asked if we had more than 1 rental car and I replied no. He then gave me a parking decal to place on our dashboard. I then inquired that if we had visitors would they also need parking decals because I wasn’t sure if cars without them would get booted or towed from the property. He replied that only if we were having overnight guest then they would need one. I informed him that no overnight guest would be staying and he then rudely replied “and please don’t get loud while you all are staying here”. I was confused on why he would make such a comment. I could see maybe if we were a group of young spring breakers or something, but why would someone think it’s appropriate to tell two 30 plus year olds as well as two 50 plus year olds to not “get loud”? When we questioned him about his offensive comment, he then got defensive and said that he could have us sign a “sound policy or noise compliant contract” that guest are usually required to sign before checking into a hotel. I’ve been checking into hotels for years, and have NEVER heard such foolishness in my life. He also said he just assumed we would be loud because we asked about having outside guest. Again, I’m not understanding how having guest correlates in his mind to having a loud, rowdy party. I don’t like to make assumptions and I generally give people the benefit of the doubt, but in my honest opinion your employee said those comments to us because we were Black. His comments were completely distasteful and I’ve never been treated so poorly by a hotel representative in my life. I am thoroughly disgusted and my advice to you would be to probably offer John some Diversity or Racial Sensitivity training. Needless to say, we made sure we tiptoed around and whispered to each other while we were in the room. We didn’t want to give John a reason to say we were violating the “sound policy”.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>anabel p, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>I wanted to take the time to express my dissatisfaction with one of your staff members. While traveling to Texas from Georgia with my parents and fiancé to celebrate my Grandmothers birthday, we decided to stay at your Residence Inn off of Central Expressway for convenience of the location as well as the room rate. I was very appreciative when we called and requested an early check in if possible and was told that rooms were indeed available. However, soon after our arrival I made the acquaintance of your staff member, John Trousdale. Upon checking in, I could tell that he didn’t have a pleasant personality, but I disregarded his dry demeanor. While taking all of our information, John asked if we had more than 1 rental car and I replied no. He then gave me a parking decal to place on our dashboard. I then inquired that if we had visitors would they also need parking decals because I wasn’t sure if cars without them would get booted or towed from the property. He replied that only if we were having overnight guest then they would need one. I informed him that no overnight guest would be staying and he then rudely replied “and please don’t get loud while you all are staying here”. I was confused on why he would make such a comment. I could see maybe if we were a group of young spring breakers or...I wanted to take the time to express my dissatisfaction with one of your staff members. While traveling to Texas from Georgia with my parents and fiancé to celebrate my Grandmothers birthday, we decided to stay at your Residence Inn off of Central Expressway for convenience of the location as well as the room rate. I was very appreciative when we called and requested an early check in if possible and was told that rooms were indeed available. However, soon after our arrival I made the acquaintance of your staff member, John Trousdale. Upon checking in, I could tell that he didn’t have a pleasant personality, but I disregarded his dry demeanor. While taking all of our information, John asked if we had more than 1 rental car and I replied no. He then gave me a parking decal to place on our dashboard. I then inquired that if we had visitors would they also need parking decals because I wasn’t sure if cars without them would get booted or towed from the property. He replied that only if we were having overnight guest then they would need one. I informed him that no overnight guest would be staying and he then rudely replied “and please don’t get loud while you all are staying here”. I was confused on why he would make such a comment. I could see maybe if we were a group of young spring breakers or something, but why would someone think it’s appropriate to tell two 30 plus year olds as well as two 50 plus year olds to not “get loud”? When we questioned him about his offensive comment, he then got defensive and said that he could have us sign a “sound policy or noise compliant contract” that guest are usually required to sign before checking into a hotel. I’ve been checking into hotels for years, and have NEVER heard such foolishness in my life. He also said he just assumed we would be loud because we asked about having outside guest. Again, I’m not understanding how having guest correlates in his mind to having a loud, rowdy party. I don’t like to make assumptions and I generally give people the benefit of the doubt, but in my honest opinion your employee said those comments to us because we were Black. His comments were completely distasteful and I’ve never been treated so poorly by a hotel representative in my life. I am thoroughly disgusted and my advice to you would be to probably offer John some Diversity or Racial Sensitivity training. Needless to say, we made sure we tiptoed around and whispered to each other while we were in the room. We didn’t want to give John a reason to say we were violating the “sound policy”.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r474801648-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>474801648</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Fine Choice, short drive to great shopping</t>
+  </si>
+  <si>
+    <t>Staff are excellent; make you feel like you're one of the family.  Both check-in and check-out were flawless and handled very well.  Not many restaurants in walking distance; but with a car, excellent shopping and food nearby.  Convenient to downtown (10-15 minute drive) and approximately 20-30 minutes to DFW. DART (light rail) station is about a 5 minute drive away.  It would be great if the hotel offered king size bed in its single-bed rooms.  The bed was extremely comfortable. This particular location was convenient for me; however, the room (633) could have better sound proofing to silence the car noise from the street.  I was pleasantly surprised by the sound machine in the room -- putting on the "ocean" helped somewhat with sleep by drowning out some of the traffic noise.The kitchen was somewhat small but well equipped  (full size refrigerator, 2 burner stove, microwave, dishwasher, cookware and dishes), it was also not thoroughly cleaned - food left in the pantry by previous guest and crumpled up plastic bag on the floor.  This did not warrant complaining about it, it is merely an observation.  As mentioned earlier, bed is only queen; king would have been so much better.  TV in bedroom was small screen (perhaps 20 or 25 inches).  Nice bathroom products.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Staff are excellent; make you feel like you're one of the family.  Both check-in and check-out were flawless and handled very well.  Not many restaurants in walking distance; but with a car, excellent shopping and food nearby.  Convenient to downtown (10-15 minute drive) and approximately 20-30 minutes to DFW. DART (light rail) station is about a 5 minute drive away.  It would be great if the hotel offered king size bed in its single-bed rooms.  The bed was extremely comfortable. This particular location was convenient for me; however, the room (633) could have better sound proofing to silence the car noise from the street.  I was pleasantly surprised by the sound machine in the room -- putting on the "ocean" helped somewhat with sleep by drowning out some of the traffic noise.The kitchen was somewhat small but well equipped  (full size refrigerator, 2 burner stove, microwave, dishwasher, cookware and dishes), it was also not thoroughly cleaned - food left in the pantry by previous guest and crumpled up plastic bag on the floor.  This did not warrant complaining about it, it is merely an observation.  As mentioned earlier, bed is only queen; king would have been so much better.  TV in bedroom was small screen (perhaps 20 or 25 inches).  Nice bathroom products.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r472331144-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -255,9 +330,6 @@
     <t>I was reluctant since this was so close to the highway but the extended stay suites are very nice. Tastefully decorated, the bed is very comfortable. The kitchen has everything you need. It even has a fireplace - although not something of great importance in Dallas. The pool is small but nice. I arrived in time for the managers happy hour - wine, beer and a nosh... Breakfast is typical but fine. The shopping center across the street is very convenient for anything you need - pharmacy, grocery, restaurants and the Sole Massage - awesome!</t>
   </si>
   <si>
-    <t>dmcd043</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r468366158-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,9 +357,6 @@
     <t>This hotel has not been updated apparently for quite awhile - externally or internally. It has a very compact footprint; and, therefore, has narrow sidewalks to rooms -- with outside doors. The rooms themselves are also showing their age. Ours was clean. However, it had but one mirror and no cabinet in the bathroom, the lighting was minimal and some bulbs were burned out. The sidewalk to our room was severely cracked and could be a hazard. The bed was nice and was comfortable, as were the sofa and chairs - but they too seemed dated. The parking was plentiful, but some trees shed a tremendous amount of residue  on our car. The breakfast was adequate but not the equal of other residence inns we have stayed. The lobby is also very small and compact. The location is very good and access is convenient. In summary, convenient location, dated and not competitive with other offerings in the same price range.More</t>
   </si>
   <si>
-    <t>Michael B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r465641104-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -315,7 +384,58 @@
     <t>This hotel is "dated"   right off the expressway makes it convenient to get to.   Watch where you park.... if you park under trees, your car is sure to be pooped on..... a lot.   Felt like secure area.   Room is neat and clean.    We were checking out (still occupying the room) when the wait staff came in (at 9am...on Sunday) and starting cleaning !!!  We tried to tell this person to give us some time,  but he didnt speak English and kept right on going.  RUDE!!!  for this, we cant recommend or will return.More</t>
   </si>
   <si>
-    <t>2TravlinFools</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r451594812-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>451594812</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Clean, spacious, quiet</t>
+  </si>
+  <si>
+    <t>An ice storm delayed our arrival, but the staff had de iced the paths. The parking lot was very nearly full but our little suite was quiet with an excellent soft bed. Our Boston terrier often starts scratching when we stay in pet friendly hotels ( he's allergic to fleas and we spend a fortune at the vet to keep him treated) but he stayed comfortable the whole visit. Great value on a pet friendly stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Dallas10325, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded January 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2017</t>
+  </si>
+  <si>
+    <t>An ice storm delayed our arrival, but the staff had de iced the paths. The parking lot was very nearly full but our little suite was quiet with an excellent soft bed. Our Boston terrier often starts scratching when we stay in pet friendly hotels ( he's allergic to fleas and we spend a fortune at the vet to keep him treated) but he stayed comfortable the whole visit. Great value on a pet friendly stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r442495299-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>442495299</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Guaranteed to make your eyes itch, cough, and wheez</t>
+  </si>
+  <si>
+    <t>Room 535 reeks of smoke. No other rooms available or so I am told. It seems like the room next door is smoking. Your front desk cannot investigate, nor can they resolve the problem. What options does a guest have at this point? It is going to be a lousy night.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Room 535 reeks of smoke. No other rooms available or so I am told. It seems like the room next door is smoking. Your front desk cannot investigate, nor can they resolve the problem. What options does a guest have at this point? It is going to be a lousy night.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r429866753-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -345,9 +465,6 @@
     <t>We had initially planned to stay 4 nights, but a family emergency required that we stay 3 nights longer, during the State Fair and over the TX/OU Football Weekend.  When we requested an extension of our stay, the management team of the 2 Ks and Joe, between Residence Inn and the affiliate Courtyard next door, made the request seamless and pain free (even though we were using Marriott Points).  Can't say enough regarding how appreciative we are toward these guys.  Breakfast was very good and evening offerings consisted of wine and beer  The property was clean and the parking lots were safe.  Several very good restaurants were within easy walking distance to the strip center across the street.More</t>
   </si>
   <si>
-    <t>Emcoinc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r417290650-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -366,9 +483,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded September 12, 2016</t>
   </si>
   <si>
@@ -378,9 +492,6 @@
     <t>This hotel is conveniently located in Dallas next to a major freeway and you can get anywhere from here. Room was comfortable, and clean. We liked the suite and a nice layout. The street behind the hotel was a bit noisy but overall, it was a pleasant stay. Breakfast was served everyday and it was  good, fresh, and some variety was offered.More</t>
   </si>
   <si>
-    <t>M B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r414761410-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -402,7 +513,55 @@
     <t>I was visiting with friends so I at least wanted 2 double beds or a dbl and a sofa bed. To my surprise when I entered the room it was a 2 bedroom 2 bath suite, full kitchen, and it gets even better...a walkout patio! The room was extremely clean (thank you housekeeping), spacious, updated and well stocked with necessities and nice landscaping. Desk staff was friendly only one had a name tag I think it was Kylar (sp). More</t>
   </si>
   <si>
-    <t>Jeff T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r408377861-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>408377861</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>The staff was accommodating and polite. Food from breakfast to the evenings get-to-gether were appreciated. Daily maid service and room service was available. The only issue was with the location if you have a car then this is not a problem. The surrounding area is kind of poor with small neighborhood stores and restaurants. The mall is a few miles away with all of the  major stores. Overall the price matches the location and service. A plus is the Marriott hotel next door that has a lodge restaurant with tasty food and drinks - try it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carolne K, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>The staff was accommodating and polite. Food from breakfast to the evenings get-to-gether were appreciated. Daily maid service and room service was available. The only issue was with the location if you have a car then this is not a problem. The surrounding area is kind of poor with small neighborhood stores and restaurants. The mall is a few miles away with all of the  major stores. Overall the price matches the location and service. A plus is the Marriott hotel next door that has a lodge restaurant with tasty food and drinks - try it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r393242744-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>393242744</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>This will be our Go To spot for Dallas business travel</t>
+  </si>
+  <si>
+    <t>I stayed here for business travel the week of July 4th and very glad that I did.  The location is excellent.  Our office is just a few miles south, so it is very convenient.  The room itself was very clean and spacious.  There are also good dining and grocery options nearby so I could either eat out or stock my fridge.  My co-workers and I agree that this will be our "go to" spot for travel to Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded July 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for business travel the week of July 4th and very glad that I did.  The location is excellent.  Our office is just a few miles south, so it is very convenient.  The room itself was very clean and spacious.  There are also good dining and grocery options nearby so I could either eat out or stock my fridge.  My co-workers and I agree that this will be our "go to" spot for travel to Dallas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r387431451-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -432,9 +591,6 @@
     <t>The stay was decent.  Started off in a one bedroom. The staff was very accomodsting and moved us into a two bedroom suite. Pretty spacious and they include a full kitchen.  Hot breakfast was good, provided a variety every am. The hotel also hosts a social event on Mondays thru Wednesdays which are pretty good. Now for the bad:  The pool is nice but you cant enjoy sitting around it due to all the mosquitos biting.  We noticed our shower curtain had small mold issues. The AC Works great in the main living room however its slightly warmer in the 2 bedrooms. Although the hotel is listed as new as the Residence Inn, you can still notice leftovers from what the hotel used to be.More</t>
   </si>
   <si>
-    <t>tlcmomof7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r371749663-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,9 +618,6 @@
     <t>This is a great hotel with a great location.  We were flying out of Love Field early and wanted to stay close to the airport, but also convenient to the highway.  This hotel was delightful.  The room was clean and comfortable.  The bed was the perfect firmness and the pillows were great too-not to big or flat.  We were only here from around 5PM to 5AM, but it was a Wednesday and they have a great manager's reception.  They served what they called nachos, but I would have called it a taco salad and was so good and plentiful that it served as dinner for us.  There were chips, salsa, lettuce, grated cheese, black olives, onions, spiced ground beef, sour cream and fresh made guacamole. There was also free wine and beer, but we had water to drink. The food was delicious.  We watched TV on our flat screen in our bed and had a great night sleep.  I will definitely stay here again.  It was very quiet despite it was right next to the expressway.More</t>
   </si>
   <si>
-    <t>lgelkins</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r371411089-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -489,7 +642,55 @@
     <t>Location: This hotel was in a good location for accessing the highway and driving where we needed to go. It's not a great part of town, so I wouldn't walk around at night. There aren't any decent restaurants within the surrounding blocks.Rooms: I've stayed in quite a few Residence Inns, and the amenities are comparable to other properties. The rooms are dark, with very little natural light. Living area and second bedroom a bit cramped. Everything was functional, if a little dated.Other: The staff was friendly and available. The breakfast was sufficient and what I expect at this brand. There is also the small market in the lobby for snacks and necessities. We did not use the pool. The parking was tight, and we needed to park at the other end of the lot at night, which was fine except when it was pouring rain the next morning.I probably wouldn't stay here again because we were staying with friends who chose this location. However, for the very cheap price, it was a good value.More</t>
   </si>
   <si>
-    <t>TravellerUSA1971</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r365898479-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>365898479</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Home away from home!akfast is one of the best "-;</t>
+  </si>
+  <si>
+    <t>Stayed here to be close to our home while it was being repainted. Turned out to be wonderful for us.  We live close by and know the neighborhood so felt very comfortable &amp; safe.  Security is good- a guard drives in behind each guest &amp; sees you walk into your apt.  Breakfast is hearty, fresh &amp; healthy.  Even our doggie was welcome for a reasonable fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here to be close to our home while it was being repainted. Turned out to be wonderful for us.  We live close by and know the neighborhood so felt very comfortable &amp; safe.  Security is good- a guard drives in behind each guest &amp; sees you walk into your apt.  Breakfast is hearty, fresh &amp; healthy.  Even our doggie was welcome for a reasonable fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r360709594-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>360709594</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Good for families</t>
+  </si>
+  <si>
+    <t>The two-bedroom suite was spacious and well-equipped for our family, with a sleeper sofa as well.  The shower in what I assume was the master bedroom bathroom was tiny.  The coffee pot situation was odd; it was a standard pot but the coffee provided was for a single cup.  Fortunately, there was a full breakfast each morning, and my kids enjoyed the waffles.  I would definitely stay here again when traveling with family on a budget.  The interstate was convenient, but I imagine the highway noise may bother light sleepers.  I was shocked there was a "room service" menu; the food isn't provided by the hotel restaurant, but it is a nice service for this kind of hotel to offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2016</t>
+  </si>
+  <si>
+    <t>The two-bedroom suite was spacious and well-equipped for our family, with a sleeper sofa as well.  The shower in what I assume was the master bedroom bathroom was tiny.  The coffee pot situation was odd; it was a standard pot but the coffee provided was for a single cup.  Fortunately, there was a full breakfast each morning, and my kids enjoyed the waffles.  I would definitely stay here again when traveling with family on a budget.  The interstate was convenient, but I imagine the highway noise may bother light sleepers.  I was shocked there was a "room service" menu; the food isn't provided by the hotel restaurant, but it is a nice service for this kind of hotel to offer.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r359840430-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -507,21 +708,9 @@
     <t>Stayed here last weekend and enjoyed it. Location is great - next to Freeway 45N. Walking distance to CVS, Tom Thumbs Groceries.... Room is clean, neat and cozy. Kitchen was equipped with all silver wares, plates, cups... coffee maker and full size fridge. Checked-in and checked-out was fast and convenience. Free continental breakfast was a great deal - love the waffles here.....Takes about 10 minutes  drive to Highland Park Village where you can shop at famous stores like Tory Burch, Dior, MK, Hermes....Will stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 25, 2016</t>
-  </si>
-  <si>
     <t>Stayed here last weekend and enjoyed it. Location is great - next to Freeway 45N. Walking distance to CVS, Tom Thumbs Groceries.... Room is clean, neat and cozy. Kitchen was equipped with all silver wares, plates, cups... coffee maker and full size fridge. Checked-in and checked-out was fast and convenience. Free continental breakfast was a great deal - love the waffles here.....Takes about 10 minutes  drive to Highland Park Village where you can shop at famous stores like Tory Burch, Dior, MK, Hermes....Will stay here again.More</t>
   </si>
   <si>
-    <t>Kduay</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r357708785-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,9 +735,6 @@
     <t>The location is fairly convenient and right next to an expressway.  Considering the location, the rooms are fairly quiet except for slamming doors.  Front desk staff friendly and courteous.The bedroom is separate from the living room/kitchen and can be closed off.  Bedroom TV is basically a computer monitor - very small.  The kitchen has granite countertops - a nice touch but it is very small.  The living room is comfortable but not overly large.  I actually felt a little cramped. You can not set the heat any higher than 68 degrees.  A little too cool on chilly mornings.Entrance door to my room had a gap between door and jamb. Mid-size refrigerator, small stove.  Multi-cup coffee maker (definitely a plus).Outdoor pool is located next to a busy street.Breakfast is fairly good with some variety and opens early. The facilities are adjacent to a Courtyard and the parking is very sparse.More</t>
   </si>
   <si>
-    <t>Barney_Thelma_Lou</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r357182680-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,7 +759,55 @@
     <t>It was late and this location helped us out with a two bedroom suite at a late hour. The late night attendant was very nice and helpful. The suite was very nice however I have to say the shower stall in the adjacent bathroom was small. I am a short, round person and had to open the shower door to get enough room to lift my hands to shampoo my hair. (Haha) The other bathroom though was nice and roomy. The breakfast was very good. All the fam was satisfied.More</t>
   </si>
   <si>
-    <t>Diana H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r356275287-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>356275287</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Very nice property, convenient located and great hospitality.</t>
+  </si>
+  <si>
+    <t>Very nice property right off the expressway. Walking distance from supermarket , gas station and few restaurants. Plenty of shopping and restaurants within minutes of driving.The rooms are very nice , clean , and very comfortable. The bedroom is separated from the living area and the kitchen. Love the fact that it has a work desk and a tv in the living area and a tv in the bedroom area.The bathroom is very comfortable and clean.The people in the front desk are very professional and very friendly.Very impressed with the professionalism of John , the gentleman at the front desk. He is the one that checked us in. It is great to walk into the lobby in the early morning and see this gentleman with such a great positive attitude and so professional with everyone. Congratulations for having a team member of this caliber .Great hotel to stay in when in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Very nice property right off the expressway. Walking distance from supermarket , gas station and few restaurants. Plenty of shopping and restaurants within minutes of driving.The rooms are very nice , clean , and very comfortable. The bedroom is separated from the living area and the kitchen. Love the fact that it has a work desk and a tv in the living area and a tv in the bedroom area.The bathroom is very comfortable and clean.The people in the front desk are very professional and very friendly.Very impressed with the professionalism of John , the gentleman at the front desk. He is the one that checked us in. It is great to walk into the lobby in the early morning and see this gentleman with such a great positive attitude and so professional with everyone. Congratulations for having a team member of this caliber .Great hotel to stay in when in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r348175146-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>348175146</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic!  I was here over the weekend and the hotel staff treated us with great attitude.  The breakfast was delicious and the rooms were spotless.  Will definitely come back to this property.  LOVED IT!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic!  I was here over the weekend and the hotel staff treated us with great attitude.  The breakfast was delicious and the rooms were spotless.  Will definitely come back to this property.  LOVED IT!!!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r341095908-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -603,9 +837,6 @@
     <t>Nice clean, comfortable hotel located conveniently off the expressway. The staff is very friendly and helpful. I stay here often when in the area for business and never had a bad experience. You know what to expect, no surprises!More</t>
   </si>
   <si>
-    <t>NHBeach</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r339023768-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,9 +858,6 @@
     <t>This was a great hotel for our family gathering. The rooms are spacious and comfortable. With a recent update, the room decor was fresh and new. It was convenient to the highway, and the staff were very nice. We will stay here again when we are in the area, as we thought it offered good value.More</t>
   </si>
   <si>
-    <t>Wowx3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r318686371-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,7 +882,52 @@
     <t>This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our...This was our first stay here as we came to town for a football game and this was closer to the action than our hotel we normally stay in.  The decor and atmosphere of the hotel was great.  I loved the colorful carpets with the grey walls, it was all very comforting.  Breakfast was fresh biscuits and gravy with sausage in it my personal fav, they also had scrambled eggs with topping offered on the side such as cheese, salsa, jalapenos and green onions.  You know you are in Texas when the Tabasco is already on the table.  Our room was exceptionally clean and not too noisy.  It had a great little kitchen, a nice living room area, and sliding doors to close off the bedroom from the living area.  Also, our bedroom had a nice walkout balcony.  The only fault I could find with our room was the bed, the mattress itself had a crater in the middle of the bed that you both would roll down into.  I suppose if you were traveling alone this wouldn't be a problem but when you travel with a big 256# guy it makes a bit of difference.  Also, there is a Courtyard Inn right across the drive and I really thought it would be tough finding a parking space since the lot we were sharing seemed a bit small but we never had any problem finding a place close to our building to park so we were pleasantly surprised by that.  I did question the need to lock the gate in the back of the    parking lot all of the time.  I wanted to enter that way once and that was not an option.  Enjoyed the stay.More</t>
   </si>
   <si>
-    <t>MeganMonte</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r318443980-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>318443980</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Another Great Stay</t>
+  </si>
+  <si>
+    <t>We stay here during the Texas/OU weekend. Located right off the freeway, so it can be a bit noisy.  Always greeted by friendly staff.  Facility is clean.  Room is clean, bed comfy.  Free hot breakfast.  Lemon water is available all day and coffee too.  The pool and hot tub look nice, but we have never had a chance to use them.  The area is kept very clearn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We stay here during the Texas/OU weekend. Located right off the freeway, so it can be a bit noisy.  Always greeted by friendly staff.  Facility is clean.  Room is clean, bed comfy.  Free hot breakfast.  Lemon water is available all day and coffee too.  The pool and hot tub look nice, but we have never had a chance to use them.  The area is kept very clearn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r301904335-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>301904335</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Marvellous hotel</t>
+  </si>
+  <si>
+    <t>I was visiting this hotel with my wife and staying for 9 days. What a wonderful place to stay. The room was bright and clean and compromised an en suite restroom, kitchen area, (with dishwasher), bedroom and seating area. There was a TV in both the seating area and bedroom. Breakfast was supplied in the dining room behind the reception area and had a good selection each morning with varying menus. Hot meals, cereal, fruit and drinks and wafflemaker. There was also complimentary wine and beer available on certain evenings.All of the staff were friendly and extremely helpful. Miss Betty is an absolute delight. The housekeeping staff were beyond reproach servicing the room daily and even washed pots in the washer or unloaded it depending on what was required. The room was cleaned to a very good standard and the bed made with clean linen. If this is the standard that all of the Marriotts are run, top marks Marriott.We had a marvellous time at this hotel and enjoyed the pool also.Well done to ALL of the staff and thank you for a marvellous stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2015</t>
+  </si>
+  <si>
+    <t>I was visiting this hotel with my wife and staying for 9 days. What a wonderful place to stay. The room was bright and clean and compromised an en suite restroom, kitchen area, (with dishwasher), bedroom and seating area. There was a TV in both the seating area and bedroom. Breakfast was supplied in the dining room behind the reception area and had a good selection each morning with varying menus. Hot meals, cereal, fruit and drinks and wafflemaker. There was also complimentary wine and beer available on certain evenings.All of the staff were friendly and extremely helpful. Miss Betty is an absolute delight. The housekeeping staff were beyond reproach servicing the room daily and even washed pots in the washer or unloaded it depending on what was required. The room was cleaned to a very good standard and the bed made with clean linen. If this is the standard that all of the Marriotts are run, top marks Marriott.We had a marvellous time at this hotel and enjoyed the pool also.Well done to ALL of the staff and thank you for a marvellous stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r299368953-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -684,9 +957,6 @@
     <t>I moved from New Jersey to Texas and needed to stay in an hotel for two weeks prior to moving into my apartment. The Residence Inn was perfect. The accommodations were great -- the room had a separate bedroom from the living area and a kitchen, which was fully stocked so it was easy to cook. The hotel allows pets and each room includes a magnet that says "4 legged guest", which can be placed on the exterior door to alert the staff that a pet is inside. The hotel offered a complimentary breakfast every day (extended hours on the weekend) and Monday-Thursday had evening events, such as a BBQ or a food truck. The pool was also very nice. The hotel always seemed to be packed but the pool was quiet. There is a gas barbeque by the pool and while we didn't use it, I did see other guests grilling. The Courtyard by Marriott is across the parking lot and had a Starbucks, so we would usually go there after breakfast to get coffee since the coffee at breakfast wasn't that good. The Residence Inn was great for my needs and if you are looking for an apartment-like hotel, this is a perfect spot.More</t>
   </si>
   <si>
-    <t>Orlando M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r289870439-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -714,9 +984,6 @@
     <t>For staying for almost a week in Dallas we had to find a nice place with a full kitchen while still affordable. We like to cook our own meals when staying abroad for a while. After travelling through Texas (and eating lot of fast food) for a week we settled here and we did not regret it: the unique layout of the rooms, clustered in various buildings ensured that you never had any busy elevator or so. The ladies at the lobby where very friendly and we did have some laughter together. Nice pool/swimming area. We also enjoyed our free complimentary breakfast and the free high-speed wifi. Plus, it was in the middle of everything, conveniently located along the highway. We would love to stay here again.More</t>
   </si>
   <si>
-    <t>BJW_ATX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r281024713-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,7 +1011,58 @@
     <t>I was here for a conference at SMU, which is about a 10 minute drive away. The hotel has been recently updated. The rooms are nice, bright, and spacious. The beds are comfortable. There is a good amount of road noise and the walls are thin, so a loud neighbor would be a serious issue. I spent time hanging out near the nice pool area. The breakfast was pretty good for a hotel breakfast. The staff is friendly. The computer did not work for one of the days I stayed here, and the computers across the street at the Courtyard were so slow I would almost call them nonfunctional. Overall, I would recommend this hotel for business travel, with slight hesitation for a light sleeper.More</t>
   </si>
   <si>
-    <t>michskier8181</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r271094183-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>271094183</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Continuation of my previous review</t>
+  </si>
+  <si>
+    <t>I stayed here back in February.  Didn't have the greatest stay.  My comments can be found in a previous review. After all was said and done the first time, the GM sent me 2 free night vouchers to use at any Residence Inn in the country.  That was all well and good and I thought I was done with my bad stay. But those vouchers came back to haunt me as I went to use them in St Louis and I was told that marriott had stopped using those 2 years ago and they were no good.   How embarrassing!  The people in St Louis were great.  Very helpful with the situation.   I'd recommend never staying here again.  In the end they ending up paying for my night in St Louis and giving me some points.  Doesn't make up for the embarrassing situation.  I even called marriott corporate in regards to the situation. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here back in February.  Didn't have the greatest stay.  My comments can be found in a previous review. After all was said and done the first time, the GM sent me 2 free night vouchers to use at any Residence Inn in the country.  That was all well and good and I thought I was done with my bad stay. But those vouchers came back to haunt me as I went to use them in St Louis and I was told that marriott had stopped using those 2 years ago and they were no good.   How embarrassing!  The people in St Louis were great.  Very helpful with the situation.   I'd recommend never staying here again.  In the end they ending up paying for my night in St Louis and giving me some points.  Doesn't make up for the embarrassing situation.  I even called marriott corporate in regards to the situation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r269379602-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>269379602</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>This hotel was so convenient to the highway for all the activities that we planned for spring break.  The hotel is very clean and staff very friendly and helpful.  I would recommend this hotel to anyone especially for families.  Hope to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded May 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was so convenient to the highway for all the activities that we planned for spring break.  The hotel is very clean and staff very friendly and helpful.  I would recommend this hotel to anyone especially for families.  Hope to stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r263662914-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -762,9 +1080,6 @@
     <t>I stayed here for business for 6 nights.   As someone who normally stays at Marriott properties, I found this property to be needing some help.  Personally, I found the layout to be a bit confusing.   I'm also not a fan of exterior hallways.  Pros: the staff.   Friendly and very accommodating.   The property is older and the staff was friendly when I had issues with my room. Cons : cleanliness.   bathroom clearly wasn't cleaned when I checked in.   Mattress also had blood on it.   I discovered that after being there a few days which was a little unsettling.  I was told the property was being renovated.  I really hope that's the case.  I would have rated this property lower had the staff not done what they did to accommodate after I had problems with the room.  They were friendly and probably one of the nicest staffs I've encountered in a while.  Despite the ranking,  I would give this hotel another try based on the staff.   I really hope they do update this location.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Lynn M, Front Office Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 6, 2015</t>
   </si>
   <si>
@@ -774,9 +1089,6 @@
     <t>I stayed here for business for 6 nights.   As someone who normally stays at Marriott properties, I found this property to be needing some help.  Personally, I found the layout to be a bit confusing.   I'm also not a fan of exterior hallways.  Pros: the staff.   Friendly and very accommodating.   The property is older and the staff was friendly when I had issues with my room. Cons : cleanliness.   bathroom clearly wasn't cleaned when I checked in.   Mattress also had blood on it.   I discovered that after being there a few days which was a little unsettling.  I was told the property was being renovated.  I really hope that's the case.  I would have rated this property lower had the staff not done what they did to accommodate after I had problems with the room.  They were friendly and probably one of the nicest staffs I've encountered in a while.  Despite the ranking,  I would give this hotel another try based on the staff.   I really hope they do update this location.More</t>
   </si>
   <si>
-    <t>EvangHouston</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r255193312-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,12 +1104,6 @@
     <t>Stayed completely on points and my stay was very comfortable.  The staff was very friendly and courteous.  This location is conveniently located near the highway and popular attractions and gas stations. MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded February 21, 2015</t>
   </si>
   <si>
@@ -807,9 +1113,6 @@
     <t>Stayed completely on points and my stay was very comfortable.  The staff was very friendly and courteous.  This location is conveniently located near the highway and popular attractions and gas stations. More</t>
   </si>
   <si>
-    <t>kaye c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r248443909-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -837,7 +1140,58 @@
     <t>On the cross over from September to October of 2014, I slipped into Dallas to cover the Ebola outbreak at Texas Health Presbyterian Hospital ! Someplace close I need to stay since the hours of media coverage would be around the clock. Thank Heaven and 7/11 for the Residence Inn at Central Express way! The good; was the staff that greeted me late at night around 11:30pm after a long drive from Houston, no one gave me any grief about being of service....Helpful in every way, from letting me park up front in the security golf cart space so I could unload my gear and luggage.Rooms...spacious, kitchen clean, sheets soft and clean, bathroom clean always a plus! Even the day side crew from the house keepers to the grounds keepers all greeted me....Down side wasn't the Ebola cases I was covering but that the parking spaces were to close together for anything bigger than a Chevy Spark or even a Mini Cooper on the lot facing the access road.Hallway carpet needed replacing from the go old days of the late 90's and the wall paper from  a house in the movie Casino...but who's watching, I'm here to work, chill, sleep and get answers from the Front desk...all of which I got at any hour of the day...Clean grounds, secure feeling....yes I'd stay again even if the place is a bit dated. Worth the room rate...More</t>
   </si>
   <si>
-    <t>jlbran84</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r242563070-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>242563070</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Amazing Room!</t>
+  </si>
+  <si>
+    <t>WOW! Is what I thought when I walked in. Too bad it was only for one night. The room was gorgeous! A small apartment. Separate bedroom with kitchen and living room with fresh bold colors. Clean. Centrally located within minutes from downtown. Right off Central Expressway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>WOW! Is what I thought when I walked in. Too bad it was only for one night. The room was gorgeous! A small apartment. Separate bedroom with kitchen and living room with fresh bold colors. Clean. Centrally located within minutes from downtown. Right off Central Expressway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r239794540-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>239794540</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>The property is extremely old, and clearly management/ownership doesn't value maintaining the property. The light sockets do not work properly. The lady at the front desk was nice, but not efficient whatsoever and very slow. The internet was slow. The breakfast was well below average. I had to go outside to get to my room (which felt like a rundown college apartment complex), which had the most terrible heating/air situation I've ever experienced in a hotel. It was very cold in Dallas this week, even when I tried to use the heat it did not work properly. I would highly advise Marriot cutting this property - I would literally NEVER consider staying here again and would actually advise anyone I know against it. I was originally scheduled to stay 2 night, but after getting back after working all day I decided to leave and go to the Hilton (as all the other Marriots in the area had equally poor ratings across the board).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded November 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2014</t>
+  </si>
+  <si>
+    <t>The property is extremely old, and clearly management/ownership doesn't value maintaining the property. The light sockets do not work properly. The lady at the front desk was nice, but not efficient whatsoever and very slow. The internet was slow. The breakfast was well below average. I had to go outside to get to my room (which felt like a rundown college apartment complex), which had the most terrible heating/air situation I've ever experienced in a hotel. It was very cold in Dallas this week, even when I tried to use the heat it did not work properly. I would highly advise Marriot cutting this property - I would literally NEVER consider staying here again and would actually advise anyone I know against it. I was originally scheduled to stay 2 night, but after getting back after working all day I decided to leave and go to the Hilton (as all the other Marriots in the area had equally poor ratings across the board).More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r230214947-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -862,9 +1216,6 @@
   </si>
   <si>
     <t>The rooms were very spacious, although the bathrooms were small. I had booked a single suite, but they upgraded me. The front desk lady was nice, but she wasn't very professional and didn't seem in a hurry to help me (I arrived late at night). It was kind of difficult to get to my room and parking was far away. The biggest complaint was the internet. I needed to do some work, but it wouldn't let me sign into the Internet. I called the front desk, and they gave me another number to call. The guy I spoke to said another name was on the room, but he eventually fixed it. All in all, it was just an ok stay, and I probably won't stay there again.More</t>
-  </si>
-  <si>
-    <t>BobbyHank</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r227354439-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -895,9 +1246,6 @@
 While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book...Looked up Pet Friendly hotels. Found myself on Marriott.com website.Was please to see that Residence Inn was pet friendly because I generally like Marriott hotels. Booked my room and arrived at 10pm.  Surprised. The Residence Inn wanted me to pay $100 Pet Fee and sign a indemnity contract. Had no choice to pay (although the contract says that if the dog makes bad, you'll have to pay more). My well-behaved 12 pound Malti-Poo didn't realize we were staying in a $200+ a night hotel. Given that the room smelled of chemicals, the shower curtain was falling down, and the bedroom TV was the smallest she's ever seen, my dog didn't figure out that this was a $200+ a night hotel while she stayed there either.I will say that while management refused to budge (the night clerk was kind enough to call), the night and day staff were courteous and friendly.  Breakfast was not exciting so we left and ate out.While I was not bright enough to know this, let me explain. I did call the hotel and the male person who answered my question, "do you allow pets" with "oh, we are VERY pet friendly. (I now know why.) To find out that the Residence Inn charges a $100 pet fee, after you go to the Marriott web site for pet-friendly hotels,and then to the hotel page, be sure not to go to rates and availability (and book your room) before you look under room details: there on the right column, you'll see the charge. So while your rate will never mention it, BEWARE. And consider other alternatives.More</t>
   </si>
   <si>
-    <t>Ann H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r212401816-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -925,7 +1273,52 @@
     <t>My husband and I took a four day getaway weekend in Dallas, and spent two of our nights in this Residence Inn. We couldn't say enough good things about the property and our stay. The staff - front desk, housekeeping, food service - are all fantastic. The hotel  - main lobby, eating area, pool area, hallways and common areas, and our room - all super clean, beautifully appointed and maintained, just lovely. Breakfast was different both mornings, fresh, hot, and well stocked. We enjoyed our one bedroom suite so much that, on our second day there, we opted to forego our planned drive over to Fort Worth to see the Stockyard District, and spent a glorious afternoon in our beautiful, quiet, cool room reading, dozing, and watching TV. This hotel is surrounded by dozens of wonderful restaurants (don't miss The Magic Time Machine right across Belt Line Rd). It is also within minutes of the GW Bush Library/Museum, The Museum of Biblical Art, the Downtown Dallas Segway Tour, and Reunion Tower. Highest recommendation, and hope we get to come back!More</t>
   </si>
   <si>
-    <t>bigtimetraveler2014</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r207759796-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>207759796</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Friendly environment, convenient location</t>
+  </si>
+  <si>
+    <t>The staff was very outgoing and friendly.  They made you feel welcomed.  The location is convenient to the expressway if you are traveling around the Metroplex.  There is shopping and restaurants nearby, within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very outgoing and friendly.  They made you feel welcomed.  The location is convenient to the expressway if you are traveling around the Metroplex.  There is shopping and restaurants nearby, within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r203648989-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>203648989</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Do you want to shop, shop, shop in Dallas?  Stay here.</t>
+  </si>
+  <si>
+    <t>We love this location even though it IS by a freeway.  Easy on, easy off.  You are less than 2 minutes from great stores at NorthPark Mall.  If shopping is your thing how convenient is this?Now, the hotel is very nice and has just undergone a facelift.  Yes, rooms are smaller than most Residence Inns but there is still plenty of room to entertain and relax.  We've stayed there several times in the last 3 months and our rooms have always been extremely clean.  The staff is one of the best for the Marriott chain.  We receive a call before arrival to see if there is anything they can do to make our stay more comfortable.  Good weekend rates considering the area.  If you don't want a Residence Inn there is a Courtyard across the driveway.  Nice breakfast.  Can't beat the location for North Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We love this location even though it IS by a freeway.  Easy on, easy off.  You are less than 2 minutes from great stores at NorthPark Mall.  If shopping is your thing how convenient is this?Now, the hotel is very nice and has just undergone a facelift.  Yes, rooms are smaller than most Residence Inns but there is still plenty of room to entertain and relax.  We've stayed there several times in the last 3 months and our rooms have always been extremely clean.  The staff is one of the best for the Marriott chain.  We receive a call before arrival to see if there is anything they can do to make our stay more comfortable.  Good weekend rates considering the area.  If you don't want a Residence Inn there is a Courtyard across the driveway.  Nice breakfast.  Can't beat the location for North Dallas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r202136126-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -943,9 +1336,6 @@
     <t>We have had some good experiences in Residence Inns in the past-however, this hotel is in a rather run down location, facing an elevated freeway, and way over priced for the room (much smaller than the usual Residence Inn rooms), condition of the hotel (pretty run down, needs a paint job), and service (no decent restaurants within walking distance--had to order pizza to the room).  The two women that staff the front desk are very nice though!MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>Lynn M, Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded April 22, 2014</t>
   </si>
   <si>
@@ -953,9 +1343,6 @@
   </si>
   <si>
     <t>We have had some good experiences in Residence Inns in the past-however, this hotel is in a rather run down location, facing an elevated freeway, and way over priced for the room (much smaller than the usual Residence Inn rooms), condition of the hotel (pretty run down, needs a paint job), and service (no decent restaurants within walking distance--had to order pizza to the room).  The two women that staff the front desk are very nice though!More</t>
-  </si>
-  <si>
-    <t>Zach D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r197910258-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -993,9 +1380,6 @@
 The pool...We stayed here because there was a group on and I am a Mariott Rewards Elite member, AND I have stayed at MANY residence inn's across the US.This was a great location, right off the expressway and MINUTES away from most things in Dallas. We arrived and there was a little confusion on our room, but it was fixed, we were put into a one bedroom suite as we had reserved that had a door (we brought kids with us) and that fixed the problem, the night staff was very accommodating to our request.Breakfast was good, had a nice selection (basic eggs, sausage, OJ, Milk, Cereal, Waffles etc) ONE tip I could give the hotel is GET ANOTHER WAFFLE MAKER! Everyone LOVED the texas shaped waffles but had to wait forever to make one since there was just one of them! They also serve a dinner type meal M-Tu-Wed, which while we didn't get to try is a nice perk for business travelers watching their expense accounts.I read some other reviews and can say that while this isn't a 2014 newly built property it really is in great shape, wear and tear here and there but nothing that was really out of the ordinary from other hotels, there were no stains on the floors, no holes in walls, doors worked great, the noise outside the halls and outside were nothing bad and no weird smells!The pool was a little highly chlorinated and I think someone might have just not known how much to really put in, but it was a heated pool and the hot tub wasn't working at the time, but keep in mind that it was 40 degrees the day before and just into the mid 60's so I am sure it was just opening season.Also one tip I would say is bring your own pillows if you can, I did read on another review where someone said the pillows were small, yes they are and hard! The beds were comfortable but I would recommend the hotel upgrade and replace all those little tiny rocks (pillows).I think the front desk pulls double duty for housekeeping as a few requests that we requested never happened like an extra blanket and a few towels brought to our room but I could tell the front desk staff was working their hardest so I let it slide and just dealt with it. Over all we had a very nice stay, and this is a property I would recommend to anyone looking for a place to stay, centrally located and with a nice friendly staff.More</t>
   </si>
   <si>
-    <t>Tenya H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r197891897-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1011,7 +1395,62 @@
     <t>Honestly, the size of the room was great. I had my fiance' and my two teen sons with me. My son's switched out the bedroom, because we were there two nights. While one was sleeping in the bedroom, the other slept on the couch. We had attempted to pull out the sleeper sofa, but decided against it because we found cookie crumbs and other items underneath the mattress. The couch itself didn't look that clean, so I bought new linen and he slept on it instead. There was the hassle of using the key card everywhere, but when it comes to safety, I'd rather be safe than sorry. There was also the issue of how our room was being paid, we secured the deposit with a credit card, but when we got there, we wanted to pay with cash. But everything was quickly cleared up with a phone call to the manager. Overall, our stay there was pleasant. I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>ShazaamIam</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r193805936-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>193805936</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Not suitable for business customers who must work from hotel</t>
+  </si>
+  <si>
+    <t>I am a business customer who works from the hotel on occasion.  The experience of staying here has been unacceptable.  The internet service was recently 'upgraded' to be 'faster' (their words, not mine).  The upgraded service DISCONNECTS you every 24 hours and requires a log-in.  I've been cut off from business and conference calls, which I conduct from my computer, because I needed to log back in.  And then the 24 hour cycle starts again.  Thanks, guys.  Additionally, the internet is not one bit faster.  It went from about 1000 KB/s to 120 KB/s.  And I now have the option to pay $4.95 every 24 hours for "high speed" internet, which at 'up to 3x faster' is LESS than what I had before the upgrade... for free.  
+Then there's the construction.  imagine hosting a training call for a dozen employees and suddenly finding yourself competing with the sound of a compressor running a few feet outside your wall and a nail gun or hammer going outside the other wall.  Yep, that's happened too, multiple times, because apparently giving any kind of advance notice is too much trouble.  
+I'm honestly not much of an aesthetics person, but I do want to mention that the building is looking pretty rough.  One day construction workers were here, ripping off the old vinyl siding, and another day they were gone.  And then continued to be gone.  For at least six weeks.  They left entire...I am a business customer who works from the hotel on occasion.  The experience of staying here has been unacceptable.  The internet service was recently 'upgraded' to be 'faster' (their words, not mine).  The upgraded service DISCONNECTS you every 24 hours and requires a log-in.  I've been cut off from business and conference calls, which I conduct from my computer, because I needed to log back in.  And then the 24 hour cycle starts again.  Thanks, guys.  Additionally, the internet is not one bit faster.  It went from about 1000 KB/s to 120 KB/s.  And I now have the option to pay $4.95 every 24 hours for "high speed" internet, which at 'up to 3x faster' is LESS than what I had before the upgrade... for free.  Then there's the construction.  imagine hosting a training call for a dozen employees and suddenly finding yourself competing with the sound of a compressor running a few feet outside your wall and a nail gun or hammer going outside the other wall.  Yep, that's happened too, multiple times, because apparently giving any kind of advance notice is too much trouble.  I'm honestly not much of an aesthetics person, but I do want to mention that the building is looking pretty rough.  One day construction workers were here, ripping off the old vinyl siding, and another day they were gone.  And then continued to be gone.  For at least six weeks.  They left entire sections of the building open without any siding.  The house wrap has blown off in some places and rotting wood is clearly visible, where it is soaking up more rain and snow as I write.  Wha?MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Lynn M, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>I am a business customer who works from the hotel on occasion.  The experience of staying here has been unacceptable.  The internet service was recently 'upgraded' to be 'faster' (their words, not mine).  The upgraded service DISCONNECTS you every 24 hours and requires a log-in.  I've been cut off from business and conference calls, which I conduct from my computer, because I needed to log back in.  And then the 24 hour cycle starts again.  Thanks, guys.  Additionally, the internet is not one bit faster.  It went from about 1000 KB/s to 120 KB/s.  And I now have the option to pay $4.95 every 24 hours for "high speed" internet, which at 'up to 3x faster' is LESS than what I had before the upgrade... for free.  
+Then there's the construction.  imagine hosting a training call for a dozen employees and suddenly finding yourself competing with the sound of a compressor running a few feet outside your wall and a nail gun or hammer going outside the other wall.  Yep, that's happened too, multiple times, because apparently giving any kind of advance notice is too much trouble.  
+I'm honestly not much of an aesthetics person, but I do want to mention that the building is looking pretty rough.  One day construction workers were here, ripping off the old vinyl siding, and another day they were gone.  And then continued to be gone.  For at least six weeks.  They left entire...I am a business customer who works from the hotel on occasion.  The experience of staying here has been unacceptable.  The internet service was recently 'upgraded' to be 'faster' (their words, not mine).  The upgraded service DISCONNECTS you every 24 hours and requires a log-in.  I've been cut off from business and conference calls, which I conduct from my computer, because I needed to log back in.  And then the 24 hour cycle starts again.  Thanks, guys.  Additionally, the internet is not one bit faster.  It went from about 1000 KB/s to 120 KB/s.  And I now have the option to pay $4.95 every 24 hours for "high speed" internet, which at 'up to 3x faster' is LESS than what I had before the upgrade... for free.  Then there's the construction.  imagine hosting a training call for a dozen employees and suddenly finding yourself competing with the sound of a compressor running a few feet outside your wall and a nail gun or hammer going outside the other wall.  Yep, that's happened too, multiple times, because apparently giving any kind of advance notice is too much trouble.  I'm honestly not much of an aesthetics person, but I do want to mention that the building is looking pretty rough.  One day construction workers were here, ripping off the old vinyl siding, and another day they were gone.  And then continued to be gone.  For at least six weeks.  They left entire sections of the building open without any siding.  The house wrap has blown off in some places and rotting wood is clearly visible, where it is soaking up more rain and snow as I write.  Wha?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r173065650-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>173065650</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Recent trip to Dallas</t>
+  </si>
+  <si>
+    <t>For the last 15 years we have stayed at this property several times. It had been 5 years since our last visit. The property is in pretty good shape considering its age. The neighborhood now leaves much to be desired. The breakfast was probably one of the worst we have had.  We are Platinum members, and I found it disappointing I had to pay for a newspaper.  In the evening we stopped by the desk to get directions The clerk didn't know,  and I asked her to google it for me.  She told there was a computer over there and I could do it my self.  Would  avoid this property...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Brad C, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded September 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2013</t>
+  </si>
+  <si>
+    <t>For the last 15 years we have stayed at this property several times. It had been 5 years since our last visit. The property is in pretty good shape considering its age. The neighborhood now leaves much to be desired. The breakfast was probably one of the worst we have had.  We are Platinum members, and I found it disappointing I had to pay for a newspaper.  In the evening we stopped by the desk to get directions The clerk didn't know,  and I asked her to google it for me.  She told there was a computer over there and I could do it my self.  Would  avoid this property...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r169635501-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1039,9 +1478,6 @@
   </si>
   <si>
     <t>My husband &amp; I stayed at this property in the Fall of 2012.  Because of the good experience there, we decided to stay there again this July.  We had a small family reunion of 2 nights.  Had a 2 bedroom suite &amp; two 1 bedroom suites.  Staff was able to give us rooms very close together.  All rooms were very clean.  Rooms are not large, but adequate.  While no one cooked, the large refrigerator was nice for us to stock drinks and snacks for the kids.  Parking is free and because we had ground floor rooms at the back of the property, we were able to park very close to our rooms.  Yes, it is close to a busy highway, but there was no problem with road noise.  We liked the location because of the easy highway access.  All of the family enjoyed the hot breakfast--biscuits, sausage, eggs, potatoes, fruit, and make-your-own waffles.  We were not there on the days they offer an evening snack.  Overall, this was a great experience.  For the costs of the rooms, I think it was a great value.  We looked at staying at a more expensive hotel, but for the price and amenities, they couldn't match what this Residence Inn did for us.  We will stay there again.More</t>
-  </si>
-  <si>
-    <t>mountainwoman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r163629847-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1077,9 +1513,6 @@
 Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I...I spent three nights in a 2 bedroom suite.  I planned a stay for a total of 6 famlly units gathering for a funeral in Dallas, making all the reservations and paying for all the rooms.  The staff nailed the requested accommodations and even put us in rooms near one another.The unit was clean.  It was hard to open the refrigerator door.  The book with hotel information was missing.  The mirrored closet doors were off the track at the bottom.  My son's room had a laundry basket that I wished we had.  Living area was cramped for 4 people, but having 2 bathrooms was a joy.  The coffee pot spilled over the first morning, with coffee spilling all over the counter rather than dripping into the pot.  After I cleaned it by running dishwater soap through it, it did not malfunction again.  There were average level toiletries, and more available by request at the front desk.  The gym was closed two of the three mornings I was there for some malfunction.  Front desk staff was always nice and helpful.  More willing to help out than expected.  My son took the kids to the pool one morning and discovered it did not open until 9 AM.  The staff told him to go ahead and let the kids swim.  Nice.  Breakfast was okay.  The yogurt parfaits were the best of the offerings for breakfast.  But I am always happy if I can get coffee and a hot breakfast and not have to go out for a meal in the morning. It was a good location for us.  The freeway noise was noticeable at times, but did not keep me up at night nor did it interrupt conversation during the day.  I never felt unsafe on the property, but did not choose to walk or run in the neighborhood when the gym was closed.  I wonder if I could have used the gym at the courtyard across the street.More</t>
   </si>
   <si>
-    <t>Zeal2122</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r162402657-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1107,7 +1540,49 @@
     <t>Wow!  I have only had one hotel that I have ever felt more unsafe to stay in after years of travel.  I had my wife and children and needed something close to this area and thought that the property would be a reasonable choice, but we were wrong.  We used the outdoor pool, that was fine for the kids to use, but the cast of characters that sat out around the pool area made me feel it was unsafe.  The room had been updated and was fine, but we had ants in both bathrooms, and the managers response was to have someone meet us after 6:30 when we were out of the room.  We were told if we were not there, they would not be able to resolve the problem.  Finally, paramedics were called to the hotel and we were attempting to leave the parking lot.  We soon realized that they were blocking the only entrance in and out of the parking area.  That did not seem normal, and at that time we realized they had security guards riding around the parking lot in a golf cart.  That seemed to confirm my suspicions of security concerns on the property.More</t>
   </si>
   <si>
-    <t>Tiffany M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r157473674-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157473674</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Noisy Rooms</t>
+  </si>
+  <si>
+    <t>I stayed here two nights on business in April 2013.  I had an average experience.
+In terms of its decor and amenities, the room met my expectations.  I had a two bedroom suite; one of the bedrooms had a standard door, a small shower stall in the room with the toilet, and a sink outside of the bathroom.  The other bedroom had French doors into the living room and a more standard hotel bathroom (with bathtub and in-bathroom basin).  The living room was a bit cramped, but had a small table, a desk, a recliner, and a couch.  The kitchen had a stove and oven (a bit unusual to see an oven in an extended stay property; nice touch).  The refrigerator was in working order, but it was very hard to open--the door kept sticking.
+Beds and bedding were OK--the mattress was very firm and the sheets on the cheap side.  Everything was clean, though.  The outlets on the laps next to the bed could charge a cell phone, but for some reason would not charge larger electronics like laptops.
+The room did have a couple of negative points--there was a horrible stench under the sink.  Thankfully, you only smelled it when you opened up the cabinet door to throw away trash in the kitchen--but yuck.  The major issue with the room was NOISE.  The walls were incredibly thin and, with the hotel being next to a very busy road,...I stayed here two nights on business in April 2013.  I had an average experience.In terms of its decor and amenities, the room met my expectations.  I had a two bedroom suite; one of the bedrooms had a standard door, a small shower stall in the room with the toilet, and a sink outside of the bathroom.  The other bedroom had French doors into the living room and a more standard hotel bathroom (with bathtub and in-bathroom basin).  The living room was a bit cramped, but had a small table, a desk, a recliner, and a couch.  The kitchen had a stove and oven (a bit unusual to see an oven in an extended stay property; nice touch).  The refrigerator was in working order, but it was very hard to open--the door kept sticking.Beds and bedding were OK--the mattress was very firm and the sheets on the cheap side.  Everything was clean, though.  The outlets on the laps next to the bed could charge a cell phone, but for some reason would not charge larger electronics like laptops.The room did have a couple of negative points--there was a horrible stench under the sink.  Thankfully, you only smelled it when you opened up the cabinet door to throw away trash in the kitchen--but yuck.  The major issue with the room was NOISE.  The walls were incredibly thin and, with the hotel being next to a very busy road, in one of the bedrooms you could hear the road noise consistently at all times.  Very irritating and hard to sleep.  Much better sound-proofing of walls and windows would be nice.The exterior of the property was average.  This Residence Inn has exterior hallways, which I don't love, and lots of stairs.  While my room had a fresh decor, the exterior could use a makeover--lots of dirt on the siding and on the concrete walkways to the rooms.  Parking was a pain--the hotel shares a lot with the Courtyard next door, and on the two nights I visited the hotel, few spaces were left and I had to park very far away from where my room was located.  The hotel also makes you put a parking pass on your car.  So, if you are staying here, park first in the registration spaces and get the parking permit--that way, you don't have to double-back to your car after check-in.Service at the hotel was below average.  The gentleman who checked me in was not very welcoming and was also very slow.  Similarly, I waited for a long time at check-out.  The hotel did not slip a bill under my door, requiring a stop at the front desk to obtain an invoice.Location was fine--close to where I needed to be for business--but not great.  The frontage road in front of the hotel is one way, and there is a lot of u-turning required to get back to the hotel from various surrounding places as a result.  I find this area of Dallas to be a bit of a concrete jungle.  I've certainly stayed in better Residence Inns.  The primary purpose of a hotel is sleep, and unfortunately the noise at this hotel made it hard to rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stayed here two nights on business in April 2013.  I had an average experience.
+In terms of its decor and amenities, the room met my expectations.  I had a two bedroom suite; one of the bedrooms had a standard door, a small shower stall in the room with the toilet, and a sink outside of the bathroom.  The other bedroom had French doors into the living room and a more standard hotel bathroom (with bathtub and in-bathroom basin).  The living room was a bit cramped, but had a small table, a desk, a recliner, and a couch.  The kitchen had a stove and oven (a bit unusual to see an oven in an extended stay property; nice touch).  The refrigerator was in working order, but it was very hard to open--the door kept sticking.
+Beds and bedding were OK--the mattress was very firm and the sheets on the cheap side.  Everything was clean, though.  The outlets on the laps next to the bed could charge a cell phone, but for some reason would not charge larger electronics like laptops.
+The room did have a couple of negative points--there was a horrible stench under the sink.  Thankfully, you only smelled it when you opened up the cabinet door to throw away trash in the kitchen--but yuck.  The major issue with the room was NOISE.  The walls were incredibly thin and, with the hotel being next to a very busy road,...I stayed here two nights on business in April 2013.  I had an average experience.In terms of its decor and amenities, the room met my expectations.  I had a two bedroom suite; one of the bedrooms had a standard door, a small shower stall in the room with the toilet, and a sink outside of the bathroom.  The other bedroom had French doors into the living room and a more standard hotel bathroom (with bathtub and in-bathroom basin).  The living room was a bit cramped, but had a small table, a desk, a recliner, and a couch.  The kitchen had a stove and oven (a bit unusual to see an oven in an extended stay property; nice touch).  The refrigerator was in working order, but it was very hard to open--the door kept sticking.Beds and bedding were OK--the mattress was very firm and the sheets on the cheap side.  Everything was clean, though.  The outlets on the laps next to the bed could charge a cell phone, but for some reason would not charge larger electronics like laptops.The room did have a couple of negative points--there was a horrible stench under the sink.  Thankfully, you only smelled it when you opened up the cabinet door to throw away trash in the kitchen--but yuck.  The major issue with the room was NOISE.  The walls were incredibly thin and, with the hotel being next to a very busy road, in one of the bedrooms you could hear the road noise consistently at all times.  Very irritating and hard to sleep.  Much better sound-proofing of walls and windows would be nice.The exterior of the property was average.  This Residence Inn has exterior hallways, which I don't love, and lots of stairs.  While my room had a fresh decor, the exterior could use a makeover--lots of dirt on the siding and on the concrete walkways to the rooms.  Parking was a pain--the hotel shares a lot with the Courtyard next door, and on the two nights I visited the hotel, few spaces were left and I had to park very far away from where my room was located.  The hotel also makes you put a parking pass on your car.  So, if you are staying here, park first in the registration spaces and get the parking permit--that way, you don't have to double-back to your car after check-in.Service at the hotel was below average.  The gentleman who checked me in was not very welcoming and was also very slow.  Similarly, I waited for a long time at check-out.  The hotel did not slip a bill under my door, requiring a stop at the front desk to obtain an invoice.Location was fine--close to where I needed to be for business--but not great.  The frontage road in front of the hotel is one way, and there is a lot of u-turning required to get back to the hotel from various surrounding places as a result.  I find this area of Dallas to be a bit of a concrete jungle.  I've certainly stayed in better Residence Inns.  The primary purpose of a hotel is sleep, and unfortunately the noise at this hotel made it hard to rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r156532923-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>156532923</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>Spent one night on a personal trip and was pleasantly surprised with more than just snacks at happy hour. We had mushroom and swiss burgers and potato salad. Was very good considering all it cost was a tip. We got a handicap room because of my husband's knee surgery and the beds were great. Sheets very clean and crisp. Very nice room and amentities. No wear and tear on the furnishings and everything worked as it should. Would recommend first floor if you can get one. Never heard a sound from the room above us either, so they were quiet or there is good insulation. Breakfast was another good surprise. Two kinds of scrambled eggs, Canadian bacon, fried potatoes, biscuits and gravy, and the regular toasts, breads, cereals and fruits. Cost was perfect -  Costs more than the Courtyard across the parking lot, but if you're there Monday - Thursday and don't mind eating in, it's a good dealMoreShow less</t>
+  </si>
+  <si>
+    <t>Spent one night on a personal trip and was pleasantly surprised with more than just snacks at happy hour. We had mushroom and swiss burgers and potato salad. Was very good considering all it cost was a tip. We got a handicap room because of my husband's knee surgery and the beds were great. Sheets very clean and crisp. Very nice room and amentities. No wear and tear on the furnishings and everything worked as it should. Would recommend first floor if you can get one. Never heard a sound from the room above us either, so they were quiet or there is good insulation. Breakfast was another good surprise. Two kinds of scrambled eggs, Canadian bacon, fried potatoes, biscuits and gravy, and the regular toasts, breads, cereals and fruits. Cost was perfect -  Costs more than the Courtyard across the parking lot, but if you're there Monday - Thursday and don't mind eating in, it's a good dealMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r155901185-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1126,9 +1601,6 @@
   </si>
   <si>
     <t>This hotel was amazing. The rooms were magnificent, the food was great, and the hotel staff was very nice. The only thing that stinks is the stairs. But, suck it up and excercise a little. It is very close to everything near the SMU area. The neighborhood appears a little shady, but don't be concerned at the hotel. More</t>
-  </si>
-  <si>
-    <t>Tammy B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r153873046-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1156,9 +1628,6 @@
 Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all...Stayed at this hotel for the NCA Allstar Cheerleading competition at the Dallas Convention Center.  It's about a 20 minute drive to the convention center if there is no traffic, can easily double or more if there is extensive traffic.  I wish there was another one of these hotels closer to the actual convention center, then the stay would have been ideal.Check in was seamless.  I must comment on the staff at this location.  Upon entering, we were greeted immediately by the front desk personnel and both people were extremely friendly and helpful.  I asked if she had a 2 bedroom villa NOT facing the central expressway but she told me she only had 2 left and both were facing it.  She did say that they had just put in new, more soundproof windows on those particular rooms so it shouldn't be bad.  It was fine, and it was nice that she at least tried to get us rooms not facing the busy freeway.  Room Noise:  During the day, the noise from the freeway is negligent, as you have other noises, TV, people talking, etc.  But I can assure you, the noise from the expressway, even with the more sound proof windows IS loud.  I took some Tylenol PM's so after getting to sleep, it never woke me up, however, there IS a lot of freeway noise..and one night motorcycles were racing up and down that freeway LOUD..and all 4 nights saw instances of ambulances and firetruck sirens, etc, various times during the night.  There was also a freeway crash directly outside our room one night and the subsequent sirens and firetrucks, etc.  So while it was not completely annoying, I can't imagine anyone saying they heard NO noise, when staying in these forward expressway rooms.  Thankfully, I don't think there are that many rooms facing this way, and I definitely would ask at check in if you can possibly NOT have those rooms.  The noise aside, it still wasn't enough to make me NOT like the hotel.  But if you are wanting a quieter experience, request to not face Central Expressway. Our 2 bedroom Villa was exactly as expected and true to the pictures they use on the website.  Beds were extremely comfortable in both rooms, with what seemed like a memory foam type mattress, with 4 comfortable pillows.  Bathrooms were single sinked, one bathroom had a tub/shower combo, the other bedroom only had a small shower.  The other people we shared a room with said their tiny shower reminded them of the shower in their trailer, however, I had no complaints about the shower/tub combo in our bathroom except we ran out of hot water in the evenings to take a shower, which I thought was strange. Maid service was good, rooms were clean each evening we arrived back to our room.  We didn't really use the kitchen in our unit, but the few dishes or glasses that were used were washed and put away for us.  Couch was comfortable, there is a fireplace but as far as I could tell either it's not usable or they expect you to buy your own logs perhaps.  Either way, we would never have used it anyway for heat.  The only complaint I have about the heat was, it was a bit chilly at night during our stay and if the thermostat was set at 70 or below it seemed to only blow cold air, so we had to set the thermostat at about 74-75 degrees (much to high, really?) for it to then get warm in the room, causing us to then get up in the middle of the night to turn it down.  It just seems like something is wrong with the thermostat in our particular room, but again...nothing terrible.  Free breakfast in the mornings was fine.  Typical "free breakfast" fare.  Eggs were a little runny, but edible.  Wonderful yogurt parfaits won me over.  There is a waffle station as well.  They have a neat little coffee station available 24 hours a day that has tea, hot chocolate, and coffee.  We stopped here every time we left and came home to grab a quick cup of coffee.  They also have a "happy hour" type eventing Monday-Thursday with a free dinner in the evenings, which was nice.  We arrived on a Thursday and it looked like it was BBQ'd hamburgers.  I thought I even saw some bud light beer on ice in there.  Where they shine:  The staff.  By far, the friendliest, most helpful staff.  They were happy to give us pre-printed directions to just about anywhere we needed to go.  One day they even filled up our ice chest we used for food at the convention center.  They provided towels for us late one evening for a quick visit to the jacuzzi and were always there to greet us when we came or went.  They seemed genuinely interested in our competition, how we did, etc.  Even the other patrons staying at the hotel all seemed so friendly, asking questions about how the girls were doing, etc.  I haven't encountered such a "friendly atmosphere" in a hotel in a long time.  Perhaps it's because it's more of an extended-stay type place.  Either way, it was a true pleasure staying here and I would recommend it to anyone in need of a no-frills, no-nonsense place to stay within a decent distance of the convention center.More</t>
   </si>
   <si>
-    <t>obiboo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r149753535-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1180,7 +1649,46 @@
     <t>Stayed 1/2/13 - 1/12/13 on a work trip.  This hotel is like having a small apartment.  Computer desk, free wifi, couch, chair, footstool, coffee table, 2 flat screen TV's (one in living room/one in bedroom), fireplace, breakfast bar with two stools, everything in the kitchen except an oven with all the utensils and cookware you could need, separate bathroom, and a bedroom with a sliding door leading to a balcony.  A huge breakfast spread is provided daily &amp; Mon. - Thurs. beer, wine, &amp; enough food to make a dinner out of is provided during social hour.  The hotel has some cosmetic issues; my balcony had no light fixture &amp; the cover was an empty frame.  Also the slider door latch was floppy &amp; hard to lock but the doors do have a security bar which made me feel more secure.  I would love this hotel to provide soap dishes so I didn't have to open a new bar every day but they are green in their towel &amp; linen changing management.  They are pet friendly which isn't bad if you're not by a yappy dog.  Rooms are fairly sound proof unless an elephant moves in above you and likes to pace the floor.  There is a grocery store, drugstore, &amp; restaurants across the street.  Overall I would stay at this chain again.More</t>
   </si>
   <si>
-    <t>Jane R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r135536081-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>135536081</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Pleasant surprise.</t>
+  </si>
+  <si>
+    <t>I spent a couple of nights here while attending a family gathering.  The room (apartment) was attractively decorated and nicely furnished.  Entering into a living room or sitting area, there was a couch, recliner, coffee table and a cabinet with a large HDTV.  There was also a generous desk and office chair with electrical outlets and a connection for Internet.For privacy, the bedroom was adjacent, separated with double pocket doors.  On either side of the bed were wall lamps, each with an electrical outlet, a chest with another TV, and a large closet with double sliding mirror doors.  A sliding door opened to a small balcony overlooking the pool.The kitchen area had a full sized refrigerator with ice maker, an electric cook top, microwave, coffee pot, toaster, sink/garbage disposal, and a full complement of cookware, utensils, dishes and cutlery for eating, and cabinet/drawer space for storage.  There was also an ironing board, iron, and guest hair dryer.The bathroom was nice, clean, and lacked nothing.  Double access allowed guests to use without going through the bedroom, while bedroom access was provided for convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I spent a couple of nights here while attending a family gathering.  The room (apartment) was attractively decorated and nicely furnished.  Entering into a living room or sitting area, there was a couch, recliner, coffee table and a cabinet with a large HDTV.  There was also a generous desk and office chair with electrical outlets and a connection for Internet.For privacy, the bedroom was adjacent, separated with double pocket doors.  On either side of the bed were wall lamps, each with an electrical outlet, a chest with another TV, and a large closet with double sliding mirror doors.  A sliding door opened to a small balcony overlooking the pool.The kitchen area had a full sized refrigerator with ice maker, an electric cook top, microwave, coffee pot, toaster, sink/garbage disposal, and a full complement of cookware, utensils, dishes and cutlery for eating, and cabinet/drawer space for storage.  There was also an ironing board, iron, and guest hair dryer.The bathroom was nice, clean, and lacked nothing.  Double access allowed guests to use without going through the bedroom, while bedroom access was provided for convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r131917081-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131917081</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Nice stay in Dallas</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting an exhibit at the Dallas Museum.  Located right off the Central Expressway.  We stayed on the second floor.  This establishment has outside corridors.  It seemed like a large apartment complex to me. There were several complex's to this large hotel.  Parking is first come first serve.  Traffic noise could be heard from corridors but once in your room it was quiet.  No wifi in rooms.  Our unit had two bedrooms, two bathrooms.  One of the bathrooms was quite small.  Public areas were fairly clean.  The room itself was clean.  A few exits North had a nice variety of restaurants and cinema complex.  This location made it easy to get to downtown area.  Breakfast has a nice variety and was good.  Don't expect any discounts here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting an exhibit at the Dallas Museum.  Located right off the Central Expressway.  We stayed on the second floor.  This establishment has outside corridors.  It seemed like a large apartment complex to me. There were several complex's to this large hotel.  Parking is first come first serve.  Traffic noise could be heard from corridors but once in your room it was quiet.  No wifi in rooms.  Our unit had two bedrooms, two bathrooms.  One of the bathrooms was quite small.  Public areas were fairly clean.  The room itself was clean.  A few exits North had a nice variety of restaurants and cinema complex.  This location made it easy to get to downtown area.  Breakfast has a nice variety and was good.  Don't expect any discounts here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r129162290-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1204,9 +1712,6 @@
     <t>My husband &amp; I found the Residence Inn to be the perfect place to stay while visiting family nearby.  Based on other reviewers advice we requested an upstairs room away from the freeway and were given one on the 3rd floor in Bldg#5 which was perfect - fresh, clean &amp; quiet - even though our room looked out onto a side street.  We were impressed with the planning that obviously went into the details of the suite renovations.  The small space functions like a much larger one.  The kitchen was fully supplied - my goodness - even a dishwasher and disposal.  Breakfast included a wide selection from scrambled eggs to waffles, fruit and hot oatmeal.  The staff was very friendly and helpful.  We will definitely stay here again.More</t>
   </si>
   <si>
-    <t>nativem</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r125852097-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1228,9 +1733,6 @@
     <t>This is a newly renovated nice clean place. The rooms are like a small apartment. Yes it is next to an expressway but you can see that from reading the address. We had an exterior room right next to the highway. I am a light sleeper and I was fine. The room is 4 rooms with a full mini kitchen including a dishwasher, granite counter tops. The eating bar is a 2 seater. The small living room had a fireplace. The bedroom was separated by 2 large sliding doors. There is a TV the bedroom and a clock with soothing sounds. The bath has both shower and tub. The place is decorated with bright modern colors. There is a pool and hot tub, and more coffer provided in lobby.  The free breakfast buffet is good and has whipped cream. I loved that on my hot chocolate in the morning.  There is a grocery store right next door, a Whole Foods down the street and lot of shopping. We had easy access to the highway and were just minutes from downtown.More</t>
   </si>
   <si>
-    <t>mom500</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r125320596-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1246,9 +1748,6 @@
     <t>Located directly adjacent to central expressway this Residence Inn is not what I expect from a Marriott property.  The freeway noise never stops! We were given a room with an exterior hallway.  Not good for those traveling with children.  Friends who stayed at the same time we were there reported dirty kitchens, even after housekeepjing supposedly came to clean.  We had dirty silverware in our unit.  We also ran out of hot water on two occasions.  Under no circumstances woul I ever stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>February 2012</t>
-  </si>
-  <si>
     <t>Brad C, General Manager at Residence Inn by Marriott Dallas Central Expressway, responded to this reviewResponded August 13, 2013</t>
   </si>
   <si>
@@ -1258,7 +1757,46 @@
     <t>Located directly adjacent to central expressway this Residence Inn is not what I expect from a Marriott property.  The freeway noise never stops! We were given a room with an exterior hallway.  Not good for those traveling with children.  Friends who stayed at the same time we were there reported dirty kitchens, even after housekeepjing supposedly came to clean.  We had dirty silverware in our unit.  We also ran out of hot water on two occasions.  Under no circumstances woul I ever stay here again.More</t>
   </si>
   <si>
-    <t>godof86</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r124673999-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>124673999</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Good family stay, good service</t>
+  </si>
+  <si>
+    <t>My family stayed here in Feb 2011 to pick up our adopted son. The room was the perfect setup: we had two bedrooms, a small common room and a small complete kitchen which we used every day. We used the fitness facility at the hotel across the drive, as theirs was out, and we also used the washers and dryers. All were clean and in good working condition.We were in a tough situation.  We came down during the Super Bowl snowstorm, and our original 5 day visit stretched to almost 2 weeks. The thing that I recall the most is the hotel staff was incredibly accommodating, providing us with a crib and fresh bedding daily for our newborn, and allowing us to stretch our stay without any hassles at all. The breakfast area is great - my 5 year old still talks about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>My family stayed here in Feb 2011 to pick up our adopted son. The room was the perfect setup: we had two bedrooms, a small common room and a small complete kitchen which we used every day. We used the fitness facility at the hotel across the drive, as theirs was out, and we also used the washers and dryers. All were clean and in good working condition.We were in a tough situation.  We came down during the Super Bowl snowstorm, and our original 5 day visit stretched to almost 2 weeks. The thing that I recall the most is the hotel staff was incredibly accommodating, providing us with a crib and fresh bedding daily for our newborn, and allowing us to stretch our stay without any hassles at all. The breakfast area is great - my 5 year old still talks about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r123337199-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123337199</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>Good value for the money.</t>
+  </si>
+  <si>
+    <t>This place must have been upgraded after the other reviewers stayed here. Our experience has certainly been better. The room is a bit small, but I am OK with that since we have a separate sleeping area. I like that feature. Everything is clean, and works properly. The front deck clerk, John, was very nice and professional. We were greeted promptly, and the entire check-in process only took 2-3 minutes. There is still quite a bit of noise from the highway as previous reviewers noted. One change I would suggest to them is to not charge 75 cents for local calls. That is just so 1980s, and seems cheap. I doubt they realize very much revenue from it, as most people use their cell phones, such it just makes them look tawdry with no return at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This place must have been upgraded after the other reviewers stayed here. Our experience has certainly been better. The room is a bit small, but I am OK with that since we have a separate sleeping area. I like that feature. Everything is clean, and works properly. The front deck clerk, John, was very nice and professional. We were greeted promptly, and the entire check-in process only took 2-3 minutes. There is still quite a bit of noise from the highway as previous reviewers noted. One change I would suggest to them is to not charge 75 cents for local calls. That is just so 1980s, and seems cheap. I doubt they realize very much revenue from it, as most people use their cell phones, such it just makes them look tawdry with no return at all.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r121936107-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1282,9 +1820,6 @@
     <t>Stayed there for about 2 weeks, Oct-Nov  2011.The expected Residence Inn Benefits - Neat and clean, very spacious, greenery, Cleanups done daily. Very good WiFi. Breakfast, evening snacks (which aro probably better than many other residence inns). Shuttle service availability is a little on and off. Cooking utensils and oven / grill are available in the room. Decent parking space. Only one Laundry machines in the entire hotel. Hotel's a little labyrinthine - difficult to get from one room to another.Staff are very courteous and helpful. Location: On the South Central Expressway, and there's a Marriott Courtyard right next doors. Not too far away from Downtown and Uptown / Highland Park areas. Fairly well connected.I recommend this place for longish (1-3 weeks or longer) business stays.More</t>
   </si>
   <si>
-    <t>BlueMarlinDave</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r120461305-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1303,9 +1838,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Jerald M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r118949958-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1327,7 +1859,49 @@
     <t>I made reservations for 3 rooms to attend a funeral in Dallas with my family. The reservation agent went out of her way to get me a special rate. Upon arrival, this same woman greeted me with warmth, friendliness, and true humanity. The rooms had recently been renovated, and were exceptionally comfortable.    The evening happy hour was very nice with food and beer, wine, or soda. The buffet breakfast offered a huge selection of eggs, sausage, potatoes, waffles, hot cereal, cold cereal, pastries, etc.    The entire staff went out of their way to make sure that our stay was pleasant and home-like. I would definitely stay at this property again!!More</t>
   </si>
   <si>
-    <t>mskeller</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r117996873-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>117996873</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Nice stay for a weekend!</t>
+  </si>
+  <si>
+    <t>This was the first time we stayed at a Residence Inn.  When we got there, we were surprised that it looked like an apartment complex.  We were oogling over the Courtyard Marriott next door, but when we got into our room, we were surprised at the updated, modern look it had!  The room had a kitchen complete with fridge, oven, dishwasher, microwave, toaster, plates and utensils.  The kitchen had a little counter top bar that separates it from the living room.  The living room has a small office desk with connection  internet but the room also has access to free wifi.  The living room tv is a 42" flat screen and a modern looking couch (not very soft and cushiony).  The bedroom is separated from living room with sliding doors.    The room was very comfortable and amazingly, it was quiet.  We weren't disrupted by any noisy neighbors at all.
+The hotel offers complimentary, hot breakfast which big variety of items from 7am - 9:30am.  Danishes, breads, eggs, sausage, pancakes, waffles, oatmeal, cereal, etc. was available.  The dining room was big and roomy and finding a table was not a problem.  Of course, breakfast can be taken back up to your room.
+The location was perfect.  Only three miles away from Northpark Center Mall and about two miles from In-n-Out.  Also, this is not far from, Downtown, the Galleria and the other In-n-Out location.
+The customer service was great.  The lady...This was the first time we stayed at a Residence Inn.  When we got there, we were surprised that it looked like an apartment complex.  We were oogling over the Courtyard Marriott next door, but when we got into our room, we were surprised at the updated, modern look it had!  The room had a kitchen complete with fridge, oven, dishwasher, microwave, toaster, plates and utensils.  The kitchen had a little counter top bar that separates it from the living room.  The living room has a small office desk with connection  internet but the room also has access to free wifi.  The living room tv is a 42" flat screen and a modern looking couch (not very soft and cushiony).  The bedroom is separated from living room with sliding doors.    The room was very comfortable and amazingly, it was quiet.  We weren't disrupted by any noisy neighbors at all.The hotel offers complimentary, hot breakfast which big variety of items from 7am - 9:30am.  Danishes, breads, eggs, sausage, pancakes, waffles, oatmeal, cereal, etc. was available.  The dining room was big and roomy and finding a table was not a problem.  Of course, breakfast can be taken back up to your room.The location was perfect.  Only three miles away from Northpark Center Mall and about two miles from In-n-Out.  Also, this is not far from, Downtown, the Galleria and the other In-n-Out location.The customer service was great.  The lady that greeted us at the front desk Friday night was really nice.  Also, the last-minute getaway rate we received for this room was outstanding!  What a value!I would definitely recommend this Residence Inn and am looking forward to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the first time we stayed at a Residence Inn.  When we got there, we were surprised that it looked like an apartment complex.  We were oogling over the Courtyard Marriott next door, but when we got into our room, we were surprised at the updated, modern look it had!  The room had a kitchen complete with fridge, oven, dishwasher, microwave, toaster, plates and utensils.  The kitchen had a little counter top bar that separates it from the living room.  The living room has a small office desk with connection  internet but the room also has access to free wifi.  The living room tv is a 42" flat screen and a modern looking couch (not very soft and cushiony).  The bedroom is separated from living room with sliding doors.    The room was very comfortable and amazingly, it was quiet.  We weren't disrupted by any noisy neighbors at all.
+The hotel offers complimentary, hot breakfast which big variety of items from 7am - 9:30am.  Danishes, breads, eggs, sausage, pancakes, waffles, oatmeal, cereal, etc. was available.  The dining room was big and roomy and finding a table was not a problem.  Of course, breakfast can be taken back up to your room.
+The location was perfect.  Only three miles away from Northpark Center Mall and about two miles from In-n-Out.  Also, this is not far from, Downtown, the Galleria and the other In-n-Out location.
+The customer service was great.  The lady...This was the first time we stayed at a Residence Inn.  When we got there, we were surprised that it looked like an apartment complex.  We were oogling over the Courtyard Marriott next door, but when we got into our room, we were surprised at the updated, modern look it had!  The room had a kitchen complete with fridge, oven, dishwasher, microwave, toaster, plates and utensils.  The kitchen had a little counter top bar that separates it from the living room.  The living room has a small office desk with connection  internet but the room also has access to free wifi.  The living room tv is a 42" flat screen and a modern looking couch (not very soft and cushiony).  The bedroom is separated from living room with sliding doors.    The room was very comfortable and amazingly, it was quiet.  We weren't disrupted by any noisy neighbors at all.The hotel offers complimentary, hot breakfast which big variety of items from 7am - 9:30am.  Danishes, breads, eggs, sausage, pancakes, waffles, oatmeal, cereal, etc. was available.  The dining room was big and roomy and finding a table was not a problem.  Of course, breakfast can be taken back up to your room.The location was perfect.  Only three miles away from Northpark Center Mall and about two miles from In-n-Out.  Also, this is not far from, Downtown, the Galleria and the other In-n-Out location.The customer service was great.  The lady that greeted us at the front desk Friday night was really nice.  Also, the last-minute getaway rate we received for this room was outstanding!  What a value!I would definitely recommend this Residence Inn and am looking forward to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r116401743-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>116401743</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel again</t>
+  </si>
+  <si>
+    <t>This hotel lacks everything to make guests welcome. First night arriving with a six month old baby who was tired and cranky, the crib provided was falling apart and had a dirty sheet on it. When I called the front desk they said to go there to pick up ourselves. Upon arrival at the front desk they say "We dont have any crib sheets", and was given a regular bed sheet. I explained this is not acceptable, and she says "I cannot help you with anything else".After a while I decide to take a shower, except there was no soap, so I took a shower with shampoo. The housekeeping department does not leave enough shampoo and conditioner for the number of adults staying in the suite. If you want ice, you have to walk all the way to the fornt desk. There are no ice makers as stated in the room information. There also no ice machines convenient to guest rooms.Also, we had dead crickets in our kitchen which were not removed by housekeeping.We had a premium 2 bedroom suite and were placed at the farthest suite from the front desk despite the fact that we had advised we would be arriving with a baby.It shows this motel is trying to cut back on costs at the expense of the guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This hotel lacks everything to make guests welcome. First night arriving with a six month old baby who was tired and cranky, the crib provided was falling apart and had a dirty sheet on it. When I called the front desk they said to go there to pick up ourselves. Upon arrival at the front desk they say "We dont have any crib sheets", and was given a regular bed sheet. I explained this is not acceptable, and she says "I cannot help you with anything else".After a while I decide to take a shower, except there was no soap, so I took a shower with shampoo. The housekeeping department does not leave enough shampoo and conditioner for the number of adults staying in the suite. If you want ice, you have to walk all the way to the fornt desk. There are no ice makers as stated in the room information. There also no ice machines convenient to guest rooms.Also, we had dead crickets in our kitchen which were not removed by housekeeping.We had a premium 2 bedroom suite and were placed at the farthest suite from the front desk despite the fact that we had advised we would be arriving with a baby.It shows this motel is trying to cut back on costs at the expense of the guests.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r115965400-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1348,9 +1922,6 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>Wisconsinite13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r115503613-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1369,9 +1940,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>trip100012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r85059174-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1390,7 +1958,46 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>Generic90</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r70497554-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>70497554</t>
+  </si>
+  <si>
+    <t>07/11/2010</t>
+  </si>
+  <si>
+    <t>Cheerful Service</t>
+  </si>
+  <si>
+    <t>My family and I stayed 4 nights at this hotel while attending a conference in Dallas.  I was greeted cheerfully at reception when we arrived, and when they noticed we were travelling with young children, they gave us a unit away from the main expressway.  The rooms were clean when we arrived, and were kept clean throughout our stay.  The cleaning lady left a personal greeting for when we arrived, and left additional personal notes during our stay.  She also cleaned dirty dishes that we left in the sink.  The front staff provided us with a couple of services for free, when they very well could have charged us.  We would definitely stay here again if we were to travel to Dallas in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My family and I stayed 4 nights at this hotel while attending a conference in Dallas.  I was greeted cheerfully at reception when we arrived, and when they noticed we were travelling with young children, they gave us a unit away from the main expressway.  The rooms were clean when we arrived, and were kept clean throughout our stay.  The cleaning lady left a personal greeting for when we arrived, and left additional personal notes during our stay.  She also cleaned dirty dishes that we left in the sink.  The front staff provided us with a couple of services for free, when they very well could have charged us.  We would definitely stay here again if we were to travel to Dallas in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r22668786-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>22668786</t>
+  </si>
+  <si>
+    <t>12/12/2008</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>My stay was comfortable and quiet.  The hotel property is set up like an apartment complex.  Parking isn't the greatest, it is first come first serve and you could be quite far from your room.  This is not the best area.  You will be right off the highway and not close to decent places to eat.  However, there is a grocery and pharmacy a stones throw away.  The rooms are small for suites, not normally what I've seen in a Residence Inn property.  They look very nice when you first enter, it is only after opening the curtains and taking a good look that you do realize there is a lot of wear and tear.The staff was excellent and met every need.  The breakfast bar in the morning had much more than what you would expect.  Also, the managers special at night was a meal in itself.  These two things alone were welcomed since the weather was icy and going out wasn't a fun alternative.I didn't use housekeeping as I only stayed two nights, and I never visited the laundry.All in all, yes the place could use a little work, but for the price and the things that did go right I wouldn't hesitate to stay there again or to recommend it to my business partners.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>My stay was comfortable and quiet.  The hotel property is set up like an apartment complex.  Parking isn't the greatest, it is first come first serve and you could be quite far from your room.  This is not the best area.  You will be right off the highway and not close to decent places to eat.  However, there is a grocery and pharmacy a stones throw away.  The rooms are small for suites, not normally what I've seen in a Residence Inn property.  They look very nice when you first enter, it is only after opening the curtains and taking a good look that you do realize there is a lot of wear and tear.The staff was excellent and met every need.  The breakfast bar in the morning had much more than what you would expect.  Also, the managers special at night was a meal in itself.  These two things alone were welcomed since the weather was icy and going out wasn't a fun alternative.I didn't use housekeeping as I only stayed two nights, and I never visited the laundry.All in all, yes the place could use a little work, but for the price and the things that did go right I wouldn't hesitate to stay there again or to recommend it to my business partners.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r19684277-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1422,9 +2029,6 @@
 The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting...I was booked into this property - along with other colleagues - for a consulting project, and was unfortunate enough to stay there for several weeks.The property is not in a scenic spot, though it does have the asset of being in a relatively convenient area, as it is within a short drive to area shopping and other attractions.That being said, the whole lodging experience was a nightmare.  The rooms were horribly filthy and incredibly small to truly be suites.  One of my colleagues had a significant silverfish infestation, and the staff refused to move her to a different room, much less resolve the infestation.  Others of us battled roaches and/or fire ants.  The furniture, fixtures, and appliances were all in poor shape - if not outright broken.  I personally became known as "Mr. Fix-It", because I had several things break or fall off (such as the sliding door between the living area and bedroom) and was left to repair them myself, again because of staff indifference.  Though these were billed as non-smoking suites, it was obvious from the strong residual odors on the furniture that smoking had occurred in the suites.The walls were also very thin, so noise from other rooms and outside were impossible to ignore.  The property as a whole were equally filthy and in poor working condition.  The laundry facilities were so dirty that there was little confidence that you were actually getting your clothes clean.  The on-site pool facility was closed for the duration of our stay, though from appearances, I doubt any of us would have used it.  As with other Residence Inn properties, there was a free breakfast service.  But the food quality was terrible; the hot items were frequently lukewarm to cold and poor-tasting, and other items looked or tasted spoiled.  The staff from management on down was horrendous.  There was only one of the front desk staff - a nice lady named Betty - who actually seemed to care and who tried her best to make things right despite the circumstances.  Beyond that, there was a complete and thorough lack of caring, responsiveness, or general customer service.  The housekeeping staff did their jobs poorly, and several of us dealt with theft issues that we could only track to that staff.  When - either individually or via our firm's owner - tried to resolve our many issues with the property management, we were largely ignored or otherwise told that nothing was wrong with their facility.After about six weeks, we all moved to another competing property about a mile away, which turned out to be an eminently better lodging experience than this property.  We later learned that this Residence Inn served as temporary lodging for refugees from Hurricane Katrina.  While that may have explained some of the disrepair, it was certainly no excuse for not making any strides towards resolving them or making right by their existing guests.Even being over a year removed from this lodging experience, I continue to be stunned at just how poor this facility was.  As a Marriott Rewards member and frequent traveler, this was unquestionably the worst Marriott property I had ever been at.  I am amazed that Marriott would even tolerate the condition of this property and would continue to have its banner on it.  It is a detriment to their reputation for quality lodging.More</t>
   </si>
   <si>
-    <t>HudsonValleyGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r16470665-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1440,9 +2044,6 @@
     <t>Stayed here for 2 weeks.  The room was very clean, though slightly worn in spots.  The staff was excellent.The free breakfast was excellent, with a friendly staff.Right off the highway, so not a scenic spot, but convenient to most areas around Dallas.One thing I didn't like was in my room/suite, the TV could not be seen from the bed.</t>
   </si>
   <si>
-    <t>JasonLab</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r12362956-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1464,7 +2065,43 @@
     <t>I've had to stay in this area of Dallas 8 separate times over the past 6 months.  After trying three other hotels, I've thankfully settled on the Residence Inn.  It was exactly what I needed as a business traveler.  Pros: Clean rooms. Consistent each time I stayed there (now 4 times in a row).  Friendly employees.  Slightly better than average hotel breakfast food selection. Cons: Slower than average free internet.  No wifi in rooms, short ethernet cable provided, only one ethernet outlet in a two bedroom suite.  I stayed in a third floor / top floor room and heard birds landing and taking off all night long. I'd like the hotel to install some type of anti-bird landing devices before I stay in a top floor room again.More</t>
   </si>
   <si>
-    <t>findthefairway</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r11274039-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>11274039</t>
+  </si>
+  <si>
+    <t>12/05/2007</t>
+  </si>
+  <si>
+    <t>Good Place to stay</t>
+  </si>
+  <si>
+    <t>Stayed at the Residence Inn and it has a nice homey feel to it. I stayed at a 1 bedroom suite with balcony, a full kitchen and maid service. Rooms are clean and well maintained.Good for a families and business traveler. Currently undergoing renovations but did not hear any noise at all. Front desk are very helpful and friendly. Close to Presbyterian Hospital, the mall and restaurants. They have a free internet service at the lobby in case you need to print your boarding passes and browse the internet. Hot breakfast is served at the lobby from 7-10 am on weekends. Very accessible to US 75. A 30 min drive to DFW or less depending on traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Stayed at the Residence Inn and it has a nice homey feel to it. I stayed at a 1 bedroom suite with balcony, a full kitchen and maid service. Rooms are clean and well maintained.Good for a families and business traveler. Currently undergoing renovations but did not hear any noise at all. Front desk are very helpful and friendly. Close to Presbyterian Hospital, the mall and restaurants. They have a free internet service at the lobby in case you need to print your boarding passes and browse the internet. Hot breakfast is served at the lobby from 7-10 am on weekends. Very accessible to US 75. A 30 min drive to DFW or less depending on traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r3738452-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>3738452</t>
+  </si>
+  <si>
+    <t>08/03/2005</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>I would respectfully disagree with the prior reviewer.   I travel to Dallas several times a year on business and always stay here whenever possible.  The rooms are the usual Residence Inn quality--spacious and "homey."  I have never heard any freeway noise at all.  Most all Units do not face the Central X-way and are set back--noise was not an issue.  I have never had an issue with mattress or pillows either.  The location is great.  Not far off the LBJ freeway with easy access to almost anywhere in the metroplex.  I will stay here in the future and would definately recommend.</t>
+  </si>
+  <si>
+    <t>August 2005</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109438-r1651754-Residence_Inn_by_Marriott_Dallas_Central_Expressway-Dallas_Texas.html</t>
@@ -1987,237 +2624,225 @@
       <c r="A2" t="n">
         <v>25166</v>
       </c>
-      <c r="B2" t="n">
-        <v>175626</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>25166</v>
       </c>
-      <c r="B3" t="n">
-        <v>9107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25166</v>
       </c>
-      <c r="B4" t="n">
-        <v>4829</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>25166</v>
       </c>
-      <c r="B5" t="n">
-        <v>175627</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2227,205 +2852,187 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25166</v>
       </c>
-      <c r="B6" t="n">
-        <v>175628</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>25166</v>
       </c>
-      <c r="B7" t="n">
-        <v>967</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>25166</v>
       </c>
-      <c r="B8" t="n">
-        <v>175629</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2434,544 +3041,500 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" t="s">
-        <v>107</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>25166</v>
       </c>
-      <c r="B9" t="n">
-        <v>175630</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>117</v>
-      </c>
-      <c r="X9" t="s">
-        <v>118</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>25166</v>
       </c>
-      <c r="B10" t="n">
-        <v>44731</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>25166</v>
       </c>
-      <c r="B11" t="n">
-        <v>50028</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>25166</v>
       </c>
-      <c r="B12" t="n">
-        <v>175631</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>25166</v>
       </c>
-      <c r="B13" t="n">
-        <v>175632</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>25166</v>
       </c>
-      <c r="B14" t="n">
-        <v>175633</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>25166</v>
       </c>
-      <c r="B15" t="n">
-        <v>38329</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>25166</v>
       </c>
-      <c r="B16" t="n">
-        <v>175634</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
         <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2983,60 +3546,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>25166</v>
       </c>
-      <c r="B17" t="n">
-        <v>29574</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3048,128 +3607,122 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>25166</v>
       </c>
-      <c r="B18" t="n">
-        <v>175635</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>25166</v>
       </c>
-      <c r="B19" t="n">
-        <v>175636</v>
-      </c>
-      <c r="C19" t="s">
-        <v>203</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -3180,209 +3733,195 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>25166</v>
       </c>
-      <c r="B20" t="n">
-        <v>175637</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>25166</v>
       </c>
-      <c r="B21" t="n">
-        <v>2509</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>25166</v>
       </c>
-      <c r="B22" t="n">
-        <v>175638</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>4</v>
@@ -3391,416 +3930,390 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="X22" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>25166</v>
       </c>
-      <c r="B23" t="n">
-        <v>175639</v>
-      </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>25166</v>
       </c>
-      <c r="B24" t="n">
-        <v>175640</v>
-      </c>
-      <c r="C24" t="s">
-        <v>252</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>25166</v>
       </c>
-      <c r="B25" t="n">
-        <v>66414</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25166</v>
       </c>
-      <c r="B26" t="n">
-        <v>91161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25166</v>
       </c>
-      <c r="B27" t="n">
-        <v>175641</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="X27" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="Y27" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25166</v>
       </c>
-      <c r="B28" t="n">
-        <v>10997</v>
-      </c>
-      <c r="C28" t="s">
-        <v>291</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3809,147 +4322,125 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>25166</v>
       </c>
-      <c r="B29" t="n">
-        <v>57587</v>
-      </c>
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>25166</v>
       </c>
-      <c r="B30" t="n">
-        <v>25024</v>
-      </c>
-      <c r="C30" t="s">
-        <v>311</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3959,145 +4450,119 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>25166</v>
       </c>
-      <c r="B31" t="n">
-        <v>175642</v>
-      </c>
-      <c r="C31" t="s">
-        <v>321</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>317</v>
-      </c>
-      <c r="O31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="X31" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="Y31" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>25166</v>
       </c>
-      <c r="B32" t="n">
-        <v>84921</v>
-      </c>
-      <c r="C32" t="s">
-        <v>327</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -4109,73 +4574,65 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="X32" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>25166</v>
       </c>
-      <c r="B33" t="n">
-        <v>175643</v>
-      </c>
-      <c r="C33" t="s">
-        <v>337</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4184,136 +4641,126 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>25166</v>
       </c>
-      <c r="B34" t="n">
-        <v>175644</v>
-      </c>
-      <c r="C34" t="s">
-        <v>347</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="X34" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="Y34" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>25166</v>
       </c>
-      <c r="B35" t="n">
-        <v>7936</v>
-      </c>
-      <c r="C35" t="s">
-        <v>357</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>5</v>
       </c>
@@ -4328,222 +4775,190 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>25166</v>
       </c>
-      <c r="B36" t="n">
-        <v>17624</v>
-      </c>
-      <c r="C36" t="s">
-        <v>364</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>25166</v>
       </c>
-      <c r="B37" t="n">
-        <v>175645</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25166</v>
       </c>
-      <c r="B38" t="n">
-        <v>15747</v>
-      </c>
-      <c r="C38" t="s">
-        <v>380</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4553,73 +4968,63 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Y38" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>25166</v>
       </c>
-      <c r="B39" t="n">
-        <v>175646</v>
-      </c>
-      <c r="C39" t="s">
-        <v>388</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4634,141 +5039,119 @@
         <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>25166</v>
       </c>
-      <c r="B40" t="n">
-        <v>175647</v>
-      </c>
-      <c r="C40" t="s">
-        <v>396</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="X40" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="Y40" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>25166</v>
       </c>
-      <c r="B41" t="n">
-        <v>175648</v>
-      </c>
-      <c r="C41" t="s">
-        <v>406</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4777,57 +5160,57 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>371</v>
+      </c>
+      <c r="X41" t="s">
+        <v>372</v>
+      </c>
       <c r="Y41" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>25166</v>
       </c>
-      <c r="B42" t="n">
-        <v>80158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>414</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4835,12 +5218,8 @@
       <c r="Q42" t="n">
         <v>5</v>
       </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4848,405 +5227,405 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>380</v>
+      </c>
+      <c r="X42" t="s">
+        <v>381</v>
+      </c>
       <c r="Y42" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>25166</v>
       </c>
-      <c r="B43" t="n">
-        <v>175649</v>
-      </c>
-      <c r="C43" t="s">
-        <v>421</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>389</v>
+      </c>
+      <c r="X43" t="s">
+        <v>390</v>
+      </c>
       <c r="Y43" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>25166</v>
       </c>
-      <c r="B44" t="n">
-        <v>175650</v>
-      </c>
-      <c r="C44" t="s">
-        <v>429</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="O44" t="s">
-        <v>95</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>397</v>
+      </c>
+      <c r="X44" t="s">
+        <v>398</v>
+      </c>
       <c r="Y44" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>25166</v>
       </c>
-      <c r="B45" t="n">
-        <v>175651</v>
-      </c>
-      <c r="C45" t="s">
-        <v>436</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="J45" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
       <c r="Y45" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>25166</v>
       </c>
-      <c r="B46" t="n">
-        <v>175652</v>
-      </c>
-      <c r="C46" t="s">
-        <v>443</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="K46" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
         <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>414</v>
+      </c>
+      <c r="X46" t="s">
+        <v>415</v>
+      </c>
       <c r="Y46" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>25166</v>
       </c>
-      <c r="B47" t="n">
-        <v>44771</v>
-      </c>
-      <c r="C47" t="s">
-        <v>450</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="J47" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="O47" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
       <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="X47" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="Y47" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>25166</v>
       </c>
-      <c r="B48" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C48" t="s">
-        <v>458</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="L48" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
       <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5258,138 +5637,2450 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>423</v>
+      </c>
+      <c r="X48" t="s">
+        <v>424</v>
+      </c>
       <c r="Y48" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>25166</v>
       </c>
-      <c r="B49" t="n">
-        <v>175653</v>
-      </c>
-      <c r="C49" t="s">
-        <v>464</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="J49" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K49" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="L49" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="O49" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
         <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>438</v>
+      </c>
+      <c r="X49" t="s">
+        <v>439</v>
+      </c>
       <c r="Y49" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>25166</v>
       </c>
-      <c r="B50" t="n">
-        <v>175654</v>
-      </c>
-      <c r="C50" t="s">
-        <v>472</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>442</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>446</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>447</v>
+      </c>
+      <c r="X50" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s">
+        <v>453</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>446</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>447</v>
+      </c>
+      <c r="X51" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>455</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>456</v>
+      </c>
+      <c r="J52" t="s">
+        <v>457</v>
+      </c>
+      <c r="K52" t="s">
+        <v>458</v>
+      </c>
+      <c r="L52" t="s">
+        <v>459</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>460</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>461</v>
+      </c>
+      <c r="X52" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>464</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>465</v>
+      </c>
+      <c r="J53" t="s">
+        <v>466</v>
+      </c>
+      <c r="K53" t="s">
+        <v>467</v>
+      </c>
+      <c r="L53" t="s">
+        <v>468</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>469</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>470</v>
+      </c>
+      <c r="X53" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
         <v>473</v>
       </c>
-      <c r="G50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
         <v>474</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J54" t="s">
         <v>475</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K54" t="s">
         <v>476</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L54" t="s">
         <v>477</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>478</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>479</v>
+      </c>
+      <c r="X54" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>482</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>483</v>
+      </c>
+      <c r="J55" t="s">
+        <v>484</v>
+      </c>
+      <c r="K55" t="s">
+        <v>485</v>
+      </c>
+      <c r="L55" t="s">
+        <v>486</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>487</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>488</v>
+      </c>
+      <c r="X55" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>491</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>492</v>
+      </c>
+      <c r="J56" t="s">
+        <v>493</v>
+      </c>
+      <c r="K56" t="s">
+        <v>494</v>
+      </c>
+      <c r="L56" t="s">
+        <v>495</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>496</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>497</v>
+      </c>
+      <c r="X56" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>501</v>
+      </c>
+      <c r="J57" t="s">
+        <v>502</v>
+      </c>
+      <c r="K57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L57" t="s">
+        <v>504</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>505</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>488</v>
+      </c>
+      <c r="X57" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>507</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>508</v>
+      </c>
+      <c r="J58" t="s">
+        <v>509</v>
+      </c>
+      <c r="K58" t="s">
+        <v>510</v>
+      </c>
+      <c r="L58" t="s">
+        <v>511</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>505</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>488</v>
+      </c>
+      <c r="X58" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>513</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>514</v>
+      </c>
+      <c r="J59" t="s">
+        <v>515</v>
+      </c>
+      <c r="K59" t="s">
+        <v>516</v>
+      </c>
+      <c r="L59" t="s">
+        <v>517</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>479</v>
+      </c>
+      <c r="X59" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>519</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>520</v>
+      </c>
+      <c r="J60" t="s">
+        <v>521</v>
+      </c>
+      <c r="K60" t="s">
+        <v>522</v>
+      </c>
+      <c r="L60" t="s">
+        <v>523</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>524</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>479</v>
+      </c>
+      <c r="X60" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>526</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>527</v>
+      </c>
+      <c r="J61" t="s">
+        <v>528</v>
+      </c>
+      <c r="K61" t="s">
+        <v>529</v>
+      </c>
+      <c r="L61" t="s">
+        <v>530</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>531</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>479</v>
+      </c>
+      <c r="X61" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>533</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>534</v>
+      </c>
+      <c r="J62" t="s">
+        <v>535</v>
+      </c>
+      <c r="K62" t="s">
+        <v>536</v>
+      </c>
+      <c r="L62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>538</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>479</v>
+      </c>
+      <c r="X62" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>540</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>541</v>
+      </c>
+      <c r="J63" t="s">
+        <v>542</v>
+      </c>
+      <c r="K63" t="s">
+        <v>543</v>
+      </c>
+      <c r="L63" t="s">
+        <v>544</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>545</v>
+      </c>
+      <c r="O63" t="s">
+        <v>118</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>479</v>
+      </c>
+      <c r="X63" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>547</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>548</v>
+      </c>
+      <c r="J64" t="s">
+        <v>549</v>
+      </c>
+      <c r="K64" t="s">
+        <v>550</v>
+      </c>
+      <c r="L64" t="s">
+        <v>551</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>552</v>
+      </c>
+      <c r="O64" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>479</v>
+      </c>
+      <c r="X64" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>555</v>
+      </c>
+      <c r="J65" t="s">
+        <v>556</v>
+      </c>
+      <c r="K65" t="s">
+        <v>557</v>
+      </c>
+      <c r="L65" t="s">
+        <v>558</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>559</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>497</v>
+      </c>
+      <c r="X65" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>561</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>562</v>
+      </c>
+      <c r="J66" t="s">
+        <v>563</v>
+      </c>
+      <c r="K66" t="s">
+        <v>564</v>
+      </c>
+      <c r="L66" t="s">
+        <v>565</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>545</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
         <v>1</v>
       </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
-      <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s">
-        <v>478</v>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>566</v>
+      </c>
+      <c r="X66" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>569</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>570</v>
+      </c>
+      <c r="J67" t="s">
+        <v>571</v>
+      </c>
+      <c r="K67" t="s">
+        <v>572</v>
+      </c>
+      <c r="L67" t="s">
+        <v>573</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>574</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>566</v>
+      </c>
+      <c r="X67" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>576</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>577</v>
+      </c>
+      <c r="J68" t="s">
+        <v>578</v>
+      </c>
+      <c r="K68" t="s">
+        <v>579</v>
+      </c>
+      <c r="L68" t="s">
+        <v>580</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>581</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>566</v>
+      </c>
+      <c r="X68" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>583</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>584</v>
+      </c>
+      <c r="J69" t="s">
+        <v>585</v>
+      </c>
+      <c r="K69" t="s">
+        <v>586</v>
+      </c>
+      <c r="L69" t="s">
+        <v>587</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>588</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>590</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>591</v>
+      </c>
+      <c r="J70" t="s">
+        <v>592</v>
+      </c>
+      <c r="K70" t="s">
+        <v>593</v>
+      </c>
+      <c r="L70" t="s">
+        <v>594</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>595</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>596</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>597</v>
+      </c>
+      <c r="J71" t="s">
+        <v>598</v>
+      </c>
+      <c r="K71" t="s">
+        <v>599</v>
+      </c>
+      <c r="L71" t="s">
+        <v>600</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>601</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>603</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>604</v>
+      </c>
+      <c r="J72" t="s">
+        <v>605</v>
+      </c>
+      <c r="K72" t="s">
+        <v>606</v>
+      </c>
+      <c r="L72" t="s">
+        <v>607</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>595</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>609</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>610</v>
+      </c>
+      <c r="J73" t="s">
+        <v>611</v>
+      </c>
+      <c r="K73" t="s">
+        <v>612</v>
+      </c>
+      <c r="L73" t="s">
+        <v>613</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>614</v>
+      </c>
+      <c r="O73" t="s">
+        <v>73</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>616</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>617</v>
+      </c>
+      <c r="J74" t="s">
+        <v>618</v>
+      </c>
+      <c r="K74" t="s">
+        <v>619</v>
+      </c>
+      <c r="L74" t="s">
+        <v>620</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>621</v>
+      </c>
+      <c r="O74" t="s">
+        <v>118</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>622</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>623</v>
+      </c>
+      <c r="J75" t="s">
+        <v>624</v>
+      </c>
+      <c r="K75" t="s">
+        <v>625</v>
+      </c>
+      <c r="L75" t="s">
+        <v>626</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>627</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>628</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>629</v>
+      </c>
+      <c r="J76" t="s">
+        <v>630</v>
+      </c>
+      <c r="K76" t="s">
+        <v>631</v>
+      </c>
+      <c r="L76" t="s">
+        <v>632</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>633</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>634</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>635</v>
+      </c>
+      <c r="J77" t="s">
+        <v>636</v>
+      </c>
+      <c r="K77" t="s">
+        <v>637</v>
+      </c>
+      <c r="L77" t="s">
+        <v>638</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>639</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>641</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>642</v>
+      </c>
+      <c r="J78" t="s">
+        <v>643</v>
+      </c>
+      <c r="K78" t="s">
+        <v>644</v>
+      </c>
+      <c r="L78" t="s">
+        <v>645</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>646</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>648</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>649</v>
+      </c>
+      <c r="J79" t="s">
+        <v>650</v>
+      </c>
+      <c r="K79" t="s">
+        <v>651</v>
+      </c>
+      <c r="L79" t="s">
+        <v>652</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>653</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>479</v>
+      </c>
+      <c r="X79" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>655</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>656</v>
+      </c>
+      <c r="J80" t="s">
+        <v>657</v>
+      </c>
+      <c r="K80" t="s">
+        <v>658</v>
+      </c>
+      <c r="L80" t="s">
+        <v>659</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>660</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>661</v>
+      </c>
+      <c r="J81" t="s">
+        <v>662</v>
+      </c>
+      <c r="K81" t="s">
+        <v>663</v>
+      </c>
+      <c r="L81" t="s">
+        <v>664</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>665</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>667</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>668</v>
+      </c>
+      <c r="J82" t="s">
+        <v>669</v>
+      </c>
+      <c r="K82" t="s">
+        <v>670</v>
+      </c>
+      <c r="L82" t="s">
+        <v>671</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>672</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>674</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>675</v>
+      </c>
+      <c r="J83" t="s">
+        <v>676</v>
+      </c>
+      <c r="K83" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" t="s">
+        <v>678</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>679</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>25166</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>680</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>681</v>
+      </c>
+      <c r="J84" t="s">
+        <v>682</v>
+      </c>
+      <c r="K84" t="s">
+        <v>683</v>
+      </c>
+      <c r="L84" t="s">
+        <v>684</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
